--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0916BF2-E1E2-4401-9CD5-ED539E2AEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20090980-B3CE-438A-A921-72D7C987F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -141,40 +141,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BulletTriggerEvent</t>
+  </si>
+  <si>
     <t>BulletOnCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监听 子弹被创建的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BulletOnHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监听 子弹产生攻击的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BulletOnBeHurt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监听 子弹被攻击的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletOnRemoved</t>
   </si>
   <si>
     <t>监听 子弹被销毁的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletOnRemoved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletTriggerEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -710,56 +701,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="b">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="I7">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20090980-B3CE-438A-A921-72D7C987F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4628E-7831-422F-AF72-359AF294DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,122 @@
   </si>
   <si>
     <t>监听 子弹被销毁的事件</t>
+  </si>
+  <si>
+    <t>BuffTriggerEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillOnCast</t>
+  </si>
+  <si>
+    <t>BuffOnAwake</t>
+  </si>
+  <si>
+    <t>BuffOnStart</t>
+  </si>
+  <si>
+    <t>BuffOnRefresh</t>
+  </si>
+  <si>
+    <t>BuffOnTick</t>
+  </si>
+  <si>
+    <t>BuffOnRemoved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnDestroy</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnHit</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeHurt</t>
+  </si>
+  <si>
+    <t>DamageAfterOnHit</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeHurt</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnKill</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，如果击杀目标，则会触发的啥事情</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeKilled</t>
+  </si>
+  <si>
+    <t>DamageAfterOnKill</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标后触发</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeKilled</t>
+  </si>
+  <si>
+    <t>UnitOnCreate</t>
+  </si>
+  <si>
+    <t>UnitOnHit</t>
+  </si>
+  <si>
+    <t>UnitOnBeHurt</t>
+  </si>
+  <si>
+    <t>UnitOnRemoved</t>
+  </si>
+  <si>
+    <t>监听 释放技能</t>
+  </si>
+  <si>
+    <t>监听 buff在创建但还未生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在创建且已生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在被添加、改变层数、改变持续时间 时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在每个工作周期会执行的函数</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之后要做的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，持有这个buff的人被杀死了，会触发的事情</t>
+  </si>
+  <si>
+    <t>监听 unit被创建的事件</t>
+  </si>
+  <si>
+    <t>监听 unit产生攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit被攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit销毁的事件</t>
   </si>
 </sst>
 </file>
@@ -559,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,8 +688,8 @@
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -672,33 +788,33 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4">
         <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5">
         <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6">
         <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -714,44 +830,262 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
       <c r="I9">
         <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
       <c r="I10">
         <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
       <c r="I11">
         <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4628E-7831-422F-AF72-359AF294DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E18F9E-A303-4048-AB2D-BF8CA1387C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView minimized="1" xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8508" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,116 +172,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BuffOnAwake</t>
+  </si>
+  <si>
+    <t>BuffOnStart</t>
+  </si>
+  <si>
+    <t>BuffOnRefresh</t>
+  </si>
+  <si>
+    <t>BuffOnTick</t>
+  </si>
+  <si>
+    <t>BuffOnRemoved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnDestroy</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeHurt</t>
+  </si>
+  <si>
+    <t>DamageAfterOnHit</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeHurt</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，如果击杀目标，则会触发的啥事情</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeKilled</t>
+  </si>
+  <si>
+    <t>DamageAfterOnKill</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标后触发</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeKilled</t>
+  </si>
+  <si>
+    <t>UnitOnCreate</t>
+  </si>
+  <si>
+    <t>UnitOnHit</t>
+  </si>
+  <si>
+    <t>UnitOnBeHurt</t>
+  </si>
+  <si>
+    <t>UnitOnRemoved</t>
+  </si>
+  <si>
+    <t>监听 释放技能</t>
+  </si>
+  <si>
+    <t>监听 buff在创建但还未生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在创建且已生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在被添加、改变层数、改变持续时间 时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在每个工作周期会执行的函数</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之后要做的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，持有这个buff的人被杀死了，会触发的事情</t>
+  </si>
+  <si>
+    <t>监听 unit被创建的事件</t>
+  </si>
+  <si>
+    <t>监听 unit产生攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit被攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit销毁的事件</t>
+  </si>
+  <si>
     <t>SkillOnCast</t>
-  </si>
-  <si>
-    <t>BuffOnAwake</t>
-  </si>
-  <si>
-    <t>BuffOnStart</t>
-  </si>
-  <si>
-    <t>BuffOnRefresh</t>
-  </si>
-  <si>
-    <t>BuffOnTick</t>
-  </si>
-  <si>
-    <t>BuffOnRemoved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffOnDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DamageBeforeOnHit</t>
-  </si>
-  <si>
-    <t>DamageBeforeOnBeHurt</t>
-  </si>
-  <si>
-    <t>DamageAfterOnHit</t>
-  </si>
-  <si>
-    <t>DamageAfterOnBeHurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DamageBeforeOnKill</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标前触发，如果击杀目标，则会触发的啥事情</t>
-  </si>
-  <si>
-    <t>DamageBeforeOnBeKilled</t>
-  </si>
-  <si>
-    <t>DamageAfterOnKill</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标后触发</t>
-  </si>
-  <si>
-    <t>DamageAfterOnBeKilled</t>
-  </si>
-  <si>
-    <t>UnitOnCreate</t>
-  </si>
-  <si>
-    <t>UnitOnHit</t>
-  </si>
-  <si>
-    <t>UnitOnBeHurt</t>
-  </si>
-  <si>
-    <t>UnitOnRemoved</t>
-  </si>
-  <si>
-    <t>监听 释放技能</t>
-  </si>
-  <si>
-    <t>监听 buff在创建但还未生效时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在创建且已生效时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在被添加、改变层数、改变持续时间 时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在每个工作周期会执行的函数</t>
-  </si>
-  <si>
-    <t>监听 在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
-  </si>
-  <si>
-    <t>监听 在这个buffObj被移除之后要做的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为攻击者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为挨打者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为攻击者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为挨打者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标前触发，持有这个buff的人被杀死了，会触发的事情</t>
-  </si>
-  <si>
-    <t>监听 unit被创建的事件</t>
-  </si>
-  <si>
-    <t>监听 unit产生攻击的事件</t>
-  </si>
-  <si>
-    <t>监听 unit被攻击的事件</t>
-  </si>
-  <si>
-    <t>监听 unit销毁的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -881,211 +884,211 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21">
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23">
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I26">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I28">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I29">
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I30">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I31">
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E18F9E-A303-4048-AB2D-BF8CA1387C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B9E42-72A5-492D-A456-48C4AA0DE66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8508" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8508" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,112 +178,499 @@
     <t>BuffOnStart</t>
   </si>
   <si>
+    <t>BuffOnRemoved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnDestroy</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeHurt</t>
+  </si>
+  <si>
+    <t>DamageAfterOnHit</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeHurt</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，如果击杀目标，则会触发的啥事情</t>
+  </si>
+  <si>
+    <t>DamageBeforeOnBeKilled</t>
+  </si>
+  <si>
+    <t>DamageAfterOnKill</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标后触发</t>
+  </si>
+  <si>
+    <t>DamageAfterOnBeKilled</t>
+  </si>
+  <si>
+    <t>UnitOnCreate</t>
+  </si>
+  <si>
+    <t>UnitOnHit</t>
+  </si>
+  <si>
+    <t>UnitOnBeHurt</t>
+  </si>
+  <si>
+    <t>UnitOnRemoved</t>
+  </si>
+  <si>
+    <t>监听 释放技能</t>
+  </si>
+  <si>
+    <t>监听 buff在创建但还未生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在创建且已生效时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在被添加、改变层数、改变持续时间 时候触发的事件</t>
+  </si>
+  <si>
+    <t>监听 buff在每个工作周期会执行的函数</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
+  </si>
+  <si>
+    <t>监听 在这个buffObj被移除之后要做的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标前触发，持有这个buff的人被杀死了，会触发的事情</t>
+  </si>
+  <si>
+    <t>监听 unit被创建的事件</t>
+  </si>
+  <si>
+    <t>监听 unit产生攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit被攻击的事件</t>
+  </si>
+  <si>
+    <t>监听 unit销毁的事件</t>
+  </si>
+  <si>
+    <t>SkillOnCast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBeforeOnHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBeforeOnKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定血量</t>
+  </si>
+  <si>
+    <t>固定攻击者的总血量的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定受击者的总血量的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定攻击者的当前血量的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定受击者的当前血量的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照属性进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照来源配置(技能)的方式来计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentTotalBloodAttacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentTotalBloodBeHurter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentCurBloodAttacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentCurBloodBeHurter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastSelectBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+  </si>
+  <si>
+    <t>SpeedAdd</t>
+  </si>
+  <si>
+    <t>SpeedPct</t>
+  </si>
+  <si>
+    <t>SpeedFinalAdd</t>
+  </si>
+  <si>
+    <t>SpeedFinalPct</t>
+  </si>
+  <si>
+    <t>MaxHpBase</t>
+  </si>
+  <si>
+    <t>MaxHpPct</t>
+  </si>
+  <si>
+    <t>MaxHpFinalAdd</t>
+  </si>
+  <si>
+    <t>MaxHpFinalPct</t>
+  </si>
+  <si>
+    <t>PhysicalAttackBase</t>
+  </si>
+  <si>
+    <t>PhysicalAttackPct</t>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalAdd</t>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalPct</t>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕状态——目标不再响应任何操控</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Invisible</t>
+  </si>
+  <si>
+    <t>缠绕，又称定身——目标不响应移动请求，但是可以执行某些操作，如施放某些技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默——目标禁止施放技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌——几乎不受到所有的伤害和效果影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身——不可被其他人看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType2</t>
+  </si>
+  <si>
+    <t>BuffTagType3</t>
+  </si>
+  <si>
+    <t>BuffTagType4</t>
+  </si>
+  <si>
+    <t>属性(枚举值要和程序代码对应上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害计算类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff Tag标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff还是debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BuffOnRefresh</t>
-  </si>
-  <si>
-    <t>BuffOnTick</t>
-  </si>
-  <si>
-    <t>BuffOnRemoved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffOnDestroy</t>
-  </si>
-  <si>
-    <t>DamageBeforeOnBeHurt</t>
-  </si>
-  <si>
-    <t>DamageAfterOnHit</t>
-  </si>
-  <si>
-    <t>DamageAfterOnBeHurt</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标前触发，如果击杀目标，则会触发的啥事情</t>
-  </si>
-  <si>
-    <t>DamageBeforeOnBeKilled</t>
-  </si>
-  <si>
-    <t>DamageAfterOnKill</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标后触发</t>
-  </si>
-  <si>
-    <t>DamageAfterOnBeKilled</t>
-  </si>
-  <si>
-    <t>UnitOnCreate</t>
-  </si>
-  <si>
-    <t>UnitOnHit</t>
-  </si>
-  <si>
-    <t>UnitOnBeHurt</t>
-  </si>
-  <si>
-    <t>UnitOnRemoved</t>
-  </si>
-  <si>
-    <t>监听 释放技能</t>
-  </si>
-  <si>
-    <t>监听 buff在创建但还未生效时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在创建且已生效时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在被添加、改变层数、改变持续时间 时候触发的事件</t>
-  </si>
-  <si>
-    <t>监听 buff在每个工作周期会执行的函数</t>
-  </si>
-  <si>
-    <t>监听 在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
-  </si>
-  <si>
-    <t>监听 在这个buffObj被移除之后要做的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为攻击者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的初步事件, 持有这个buff的人作为挨打者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为攻击者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，触发伤害之前要做的最终事件, 持有这个buff的人作为挨打者会发生的事情</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标前触发，持有这个buff的人被杀死了，会触发的事情</t>
-  </si>
-  <si>
-    <t>监听 unit被创建的事件</t>
-  </si>
-  <si>
-    <t>监听 unit产生攻击的事件</t>
-  </si>
-  <si>
-    <t>监听 unit被攻击的事件</t>
-  </si>
-  <si>
-    <t>监听 unit销毁的事件</t>
-  </si>
-  <si>
-    <t>SkillOnCast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageBeforeOnHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageBeforeOnKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCompare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于greater than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于less than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于greater than or equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于less than or equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于not equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType2</t>
+  </si>
+  <si>
+    <t>BuffTagGroupType3</t>
+  </si>
+  <si>
+    <t>BuffTagGroupType4</t>
+  </si>
+  <si>
+    <t>Buff TagGroup标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱霸体</t>
+  </si>
+  <si>
+    <t>强霸体</t>
+  </si>
+  <si>
+    <t>虚弱(和霸体共存期间相当于无霸体)</t>
+  </si>
+  <si>
+    <t>完全霸体（霸体表示 不受击退，击飞，禁锢等控制）</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>破弱霸体</t>
+  </si>
+  <si>
+    <t>破强霸体</t>
+  </si>
+  <si>
+    <t>移动输入(逻辑的移动？)</t>
+  </si>
+  <si>
+    <t>技能输入</t>
+  </si>
+  <si>
+    <t>修改面向输入(逻辑的修改面向？)</t>
+  </si>
+  <si>
+    <t>SoftBati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrongBati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullBati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakSoftBati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakStrongBati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoMoveInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoSkillCastInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoFaceChgInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被其他人看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -694,7 +1081,7 @@
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,6 +1175,9 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
@@ -830,6 +1220,9 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -883,14 +1276,17 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -901,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,183 +1308,801 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21">
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23">
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I25">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I27">
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I28">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31">
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48">
+        <v>10011</v>
+      </c>
+      <c r="J48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53">
+        <v>10031</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58">
+        <v>10051</v>
+      </c>
+      <c r="J58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>153</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>155</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82">
+        <v>13</v>
+      </c>
+      <c r="J82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>176</v>
+      </c>
+      <c r="I83">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" t="s">
+        <v>132</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>139</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>140</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>143</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B9E42-72A5-492D-A456-48C4AA0DE66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE119C7-426F-4072-93F7-A2B2AEF63315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8508" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffOnTick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffOnRefresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,6 +667,18 @@
   </si>
   <si>
     <t>Invisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1321,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1324,7 +1332,7 @@
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -1335,774 +1343,796 @@
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21">
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23">
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I24">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I26">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I27">
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I28">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I29">
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I30">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31">
         <v>19</v>
       </c>
       <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="b">
+      <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>123</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
         <v>86</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="b">
+      <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="b">
+      <c r="D43" t="b">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>122</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>115</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J43" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
         <v>109</v>
       </c>
-      <c r="I45">
+      <c r="I47">
         <v>5</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="b">
+      <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="b">
+      <c r="D50" t="b">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>121</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>88</v>
       </c>
-      <c r="I48">
+      <c r="I50">
         <v>10011</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
         <v>89</v>
       </c>
-      <c r="I49">
+      <c r="I51">
         <v>10012</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
         <v>90</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>10013</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
         <v>91</v>
       </c>
-      <c r="I51">
+      <c r="I53">
         <v>10014</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
         <v>92</v>
       </c>
-      <c r="I52">
+      <c r="I54">
         <v>10015</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
         <v>93</v>
       </c>
-      <c r="I53">
+      <c r="I55">
         <v>10031</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J55" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60">
+        <v>10051</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="I54">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57">
-        <v>10035</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58">
-        <v>10051</v>
-      </c>
-      <c r="J58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>114</v>
-      </c>
-      <c r="I59">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I61">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>100</v>
-      </c>
-      <c r="I62">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>154</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>154</v>
+      </c>
+      <c r="I70">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>116</v>
       </c>
-      <c r="C70" t="b">
+      <c r="C72" t="b">
         <v>0</v>
       </c>
-      <c r="D70" t="b">
+      <c r="D72" t="b">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>127</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" t="s">
         <v>117</v>
       </c>
-      <c r="I70">
+      <c r="I72">
         <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
-        <v>118</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="I74">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="I75">
-        <v>6</v>
-      </c>
-      <c r="J75" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J80" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J81" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I84">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>177</v>
+      </c>
+      <c r="I86">
         <v>15</v>
       </c>
-      <c r="J84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="J86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>128</v>
       </c>
-      <c r="C86" t="b">
+      <c r="C88" t="b">
         <v>0</v>
       </c>
-      <c r="D86" t="b">
+      <c r="D88" t="b">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>129</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G88" t="s">
         <v>132</v>
       </c>
-      <c r="I86">
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J88" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
         <v>133</v>
       </c>
-      <c r="I87">
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>136</v>
       </c>
-      <c r="C90" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" t="b">
+      <c r="G92" t="s">
+        <v>137</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="E90" t="s">
-        <v>137</v>
-      </c>
-      <c r="G90" t="s">
-        <v>138</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G91" t="s">
-        <v>139</v>
-      </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G92" t="s">
-        <v>140</v>
-      </c>
-      <c r="I92">
-        <v>3</v>
-      </c>
       <c r="J92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>141</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>142</v>
+      </c>
+      <c r="I97">
         <v>6</v>
       </c>
-      <c r="J95" t="s">
-        <v>149</v>
+      <c r="J97" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE119C7-426F-4072-93F7-A2B2AEF63315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBC06B-12CC-47F7-9E08-276847D719D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="185">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,22 @@
   </si>
   <si>
     <t>BuffOnTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>142</v>
       </c>
@@ -2133,6 +2149,29 @@
       </c>
       <c r="J97" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" t="s">
+        <v>183</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC7CC5-009A-416A-809D-4AF1E5991E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE17A39-8BA7-4675-9EA2-6D84D53C1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,6 +1076,29 @@
   <si>
     <t>BuffTagGroupCDDown</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可放置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallMonster</t>
   </si>
 </sst>
 </file>
@@ -1469,26 +1492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1538,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1592,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1637,7 +1660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>274</v>
       </c>
@@ -1659,7 +1682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>260</v>
       </c>
@@ -1704,7 +1727,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>263</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>264</v>
       </c>
@@ -1726,7 +1749,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>265</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>270</v>
       </c>
@@ -1748,7 +1771,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>271</v>
       </c>
@@ -1759,7 +1782,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>272</v>
       </c>
@@ -1770,7 +1793,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1793,7 +1816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>119</v>
       </c>
@@ -1826,7 +1849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>157</v>
       </c>
@@ -1837,7 +1860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>158</v>
       </c>
@@ -1848,7 +1871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>159</v>
       </c>
@@ -1859,7 +1882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +1904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>69</v>
       </c>
@@ -1892,7 +1915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>41</v>
       </c>
@@ -1903,7 +1926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +1937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>43</v>
       </c>
@@ -1925,7 +1948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>70</v>
       </c>
@@ -1936,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +1970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>46</v>
       </c>
@@ -1958,7 +1981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>48</v>
       </c>
@@ -1969,7 +1992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>276</v>
       </c>
@@ -1980,7 +2003,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +2014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>274</v>
       </c>
@@ -2002,7 +2025,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>278</v>
       </c>
@@ -2013,7 +2036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -2024,7 +2047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>51</v>
       </c>
@@ -2035,7 +2058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>172</v>
       </c>
@@ -2046,7 +2069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>184</v>
       </c>
@@ -2057,7 +2080,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>185</v>
       </c>
@@ -2068,7 +2091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>186</v>
       </c>
@@ -2079,7 +2102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>71</v>
       </c>
@@ -2102,7 +2125,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>80</v>
       </c>
@@ -2113,7 +2136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>81</v>
       </c>
@@ -2124,7 +2147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>82</v>
       </c>
@@ -2135,7 +2158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>83</v>
       </c>
@@ -2146,7 +2169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>84</v>
       </c>
@@ -2157,7 +2180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>85</v>
       </c>
@@ -2168,7 +2191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>207</v>
       </c>
@@ -2191,7 +2214,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>222</v>
       </c>
@@ -2202,7 +2225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>223</v>
       </c>
@@ -2213,7 +2236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>224</v>
       </c>
@@ -2224,7 +2247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>225</v>
       </c>
@@ -2235,7 +2258,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>226</v>
       </c>
@@ -2246,7 +2269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>227</v>
       </c>
@@ -2257,7 +2280,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>228</v>
       </c>
@@ -2268,7 +2291,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>229</v>
       </c>
@@ -2279,7 +2302,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>230</v>
       </c>
@@ -2290,7 +2313,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>231</v>
       </c>
@@ -2301,7 +2324,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>232</v>
       </c>
@@ -2312,7 +2335,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>239</v>
       </c>
@@ -2335,7 +2358,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>234</v>
       </c>
@@ -2346,7 +2369,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>235</v>
       </c>
@@ -2357,7 +2380,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>86</v>
       </c>
@@ -2380,7 +2403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>88</v>
       </c>
@@ -2388,7 +2411,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>89</v>
       </c>
@@ -2396,7 +2419,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>90</v>
       </c>
@@ -2404,7 +2427,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>91</v>
       </c>
@@ -2412,7 +2435,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>283</v>
       </c>
@@ -2423,7 +2446,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>284</v>
       </c>
@@ -2431,7 +2454,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>285</v>
       </c>
@@ -2439,7 +2462,7 @@
         <v>10013</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>286</v>
       </c>
@@ -2447,7 +2470,7 @@
         <v>10014</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>287</v>
       </c>
@@ -2455,7 +2478,7 @@
         <v>10015</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>173</v>
       </c>
@@ -2466,7 +2489,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>176</v>
       </c>
@@ -2474,7 +2497,7 @@
         <v>10022</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>280</v>
       </c>
@@ -2482,7 +2505,7 @@
         <v>10023</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>177</v>
       </c>
@@ -2490,7 +2513,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>281</v>
       </c>
@@ -2498,7 +2521,7 @@
         <v>10025</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>178</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>179</v>
       </c>
@@ -2517,7 +2540,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>180</v>
       </c>
@@ -2525,7 +2548,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>181</v>
       </c>
@@ -2533,7 +2556,7 @@
         <v>10034</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>182</v>
       </c>
@@ -2541,7 +2564,7 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>92</v>
       </c>
@@ -2552,7 +2575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>134</v>
       </c>
@@ -2560,7 +2583,7 @@
         <v>10062</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>93</v>
       </c>
@@ -2568,7 +2591,7 @@
         <v>10063</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>94</v>
       </c>
@@ -2576,7 +2599,7 @@
         <v>10064</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2607,7 @@
         <v>10065</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>282</v>
       </c>
@@ -2595,7 +2618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>102</v>
       </c>
@@ -2603,7 +2626,7 @@
         <v>10072</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>96</v>
       </c>
@@ -2611,7 +2634,7 @@
         <v>10073</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>97</v>
       </c>
@@ -2619,7 +2642,7 @@
         <v>10074</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>98</v>
       </c>
@@ -2627,7 +2650,7 @@
         <v>10075</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>135</v>
       </c>
@@ -2647,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>137</v>
       </c>
@@ -2655,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>138</v>
       </c>
@@ -2663,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>288</v>
       </c>
@@ -2671,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>289</v>
       </c>
@@ -2679,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>103</v>
       </c>
@@ -2702,7 +2725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>147</v>
       </c>
@@ -2713,7 +2736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
         <v>148</v>
       </c>
@@ -2724,7 +2747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>149</v>
       </c>
@@ -2735,7 +2758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>150</v>
       </c>
@@ -2746,7 +2769,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>151</v>
       </c>
@@ -2757,7 +2780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>152</v>
       </c>
@@ -2768,7 +2791,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>153</v>
       </c>
@@ -2779,7 +2802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>154</v>
       </c>
@@ -2790,7 +2813,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
         <v>155</v>
       </c>
@@ -2801,7 +2824,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>156</v>
       </c>
@@ -2812,7 +2835,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
         <v>246</v>
       </c>
@@ -2823,7 +2846,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
         <v>244</v>
       </c>
@@ -2834,7 +2857,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
         <v>247</v>
       </c>
@@ -2845,7 +2868,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>104</v>
       </c>
@@ -2853,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
         <v>105</v>
       </c>
@@ -2861,7 +2884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>106</v>
       </c>
@@ -2869,7 +2892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
         <v>107</v>
       </c>
@@ -2877,7 +2900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>113</v>
       </c>
@@ -2900,7 +2923,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>118</v>
       </c>
@@ -2911,7 +2934,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>257</v>
       </c>
@@ -2922,7 +2945,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>120</v>
       </c>
@@ -2945,7 +2968,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>123</v>
       </c>
@@ -2956,7 +2979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>124</v>
       </c>
@@ -2967,7 +2990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>125</v>
       </c>
@@ -2978,7 +3001,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>126</v>
       </c>
@@ -2989,7 +3012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>127</v>
       </c>
@@ -3000,7 +3023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>164</v>
       </c>
@@ -3023,7 +3046,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
         <v>171</v>
       </c>
@@ -3034,7 +3057,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
         <v>170</v>
       </c>
@@ -3045,7 +3068,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>160</v>
       </c>
@@ -3068,7 +3091,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>193</v>
       </c>
@@ -3088,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
         <v>195</v>
       </c>
@@ -3096,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
         <v>196</v>
       </c>
@@ -3104,7 +3127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
         <v>197</v>
       </c>
@@ -3112,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
         <v>198</v>
       </c>
@@ -3120,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>199</v>
       </c>
@@ -3140,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
         <v>203</v>
       </c>
@@ -3148,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
         <v>204</v>
       </c>
@@ -3156,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
         <v>205</v>
       </c>
@@ -3164,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>206</v>
       </c>
@@ -3172,7 +3195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>255</v>
       </c>
@@ -3192,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
         <v>250</v>
       </c>
@@ -3200,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G166" t="s">
         <v>251</v>
       </c>
@@ -3208,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
         <v>254</v>
       </c>
@@ -3216,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
         <v>252</v>
       </c>
@@ -3224,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
         <v>253</v>
       </c>
@@ -3232,12 +3255,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
         <v>259</v>
       </c>
       <c r="I170">
         <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>290</v>
+      </c>
+      <c r="G172" t="s">
+        <v>249</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>295</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>294</v>
+      </c>
+      <c r="G176" t="s">
+        <v>249</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE17A39-8BA7-4675-9EA2-6D84D53C1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1FA38-51D8-4587-8776-7CB2DBF90E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="302">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1099,30 @@
   </si>
   <si>
     <t>CallMonster</t>
+  </si>
+  <si>
+    <t>当前血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1492,26 +1516,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1538,7 +1562,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1616,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +1650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1660,7 +1684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>274</v>
       </c>
@@ -1682,7 +1706,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>32</v>
       </c>
@@ -1693,7 +1717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>34</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>260</v>
       </c>
@@ -1727,7 +1751,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>263</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>264</v>
       </c>
@@ -1749,7 +1773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>265</v>
       </c>
@@ -1760,7 +1784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>270</v>
       </c>
@@ -1771,7 +1795,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>271</v>
       </c>
@@ -1782,7 +1806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>272</v>
       </c>
@@ -1793,7 +1817,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>38</v>
       </c>
@@ -1838,7 +1862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>119</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>157</v>
       </c>
@@ -1860,7 +1884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>158</v>
       </c>
@@ -1871,7 +1895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>159</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>39</v>
       </c>
@@ -1893,7 +1917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>69</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +1950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>42</v>
       </c>
@@ -1937,7 +1961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>43</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>70</v>
       </c>
@@ -1959,7 +1983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>45</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>46</v>
       </c>
@@ -1981,7 +2005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>276</v>
       </c>
@@ -2003,7 +2027,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>274</v>
       </c>
@@ -2025,7 +2049,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>278</v>
       </c>
@@ -2036,7 +2060,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
         <v>172</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>184</v>
       </c>
@@ -2080,7 +2104,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>185</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
         <v>186</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>71</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
         <v>80</v>
       </c>
@@ -2136,7 +2160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
         <v>81</v>
       </c>
@@ -2147,7 +2171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>82</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>83</v>
       </c>
@@ -2169,7 +2193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
         <v>84</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
         <v>85</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>207</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
         <v>222</v>
       </c>
@@ -2225,7 +2249,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>223</v>
       </c>
@@ -2236,7 +2260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>224</v>
       </c>
@@ -2247,7 +2271,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>225</v>
       </c>
@@ -2258,7 +2282,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
         <v>226</v>
       </c>
@@ -2269,7 +2293,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>227</v>
       </c>
@@ -2280,7 +2304,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>228</v>
       </c>
@@ -2291,7 +2315,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>229</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>230</v>
       </c>
@@ -2313,7 +2337,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>231</v>
       </c>
@@ -2324,7 +2348,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>232</v>
       </c>
@@ -2335,7 +2359,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>239</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>234</v>
       </c>
@@ -2369,7 +2393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>235</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>86</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
         <v>88</v>
       </c>
@@ -2411,7 +2435,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
         <v>89</v>
       </c>
@@ -2419,7 +2443,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>90</v>
       </c>
@@ -2427,7 +2451,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>91</v>
       </c>
@@ -2435,7 +2459,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>283</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>284</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>285</v>
       </c>
@@ -2462,7 +2486,7 @@
         <v>10013</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>286</v>
       </c>
@@ -2470,7 +2494,7 @@
         <v>10014</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>287</v>
       </c>
@@ -2478,7 +2502,7 @@
         <v>10015</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>173</v>
       </c>
@@ -2489,7 +2513,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>176</v>
       </c>
@@ -2497,7 +2521,7 @@
         <v>10022</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>280</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>10023</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>177</v>
       </c>
@@ -2513,7 +2537,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
         <v>281</v>
       </c>
@@ -2521,7 +2545,7 @@
         <v>10025</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
         <v>178</v>
       </c>
@@ -2532,7 +2556,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
         <v>179</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
         <v>180</v>
       </c>
@@ -2548,7 +2572,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
         <v>181</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>10034</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
         <v>182</v>
       </c>
@@ -2564,758 +2588,801 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
+        <v>297</v>
+      </c>
+      <c r="I96">
+        <v>10051</v>
+      </c>
+      <c r="J96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>298</v>
+      </c>
+      <c r="I97">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>300</v>
+      </c>
+      <c r="I99">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="100" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>301</v>
+      </c>
+      <c r="I100">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
         <v>92</v>
       </c>
-      <c r="I96">
+      <c r="I101">
         <v>10061</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G97" t="s">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
         <v>134</v>
       </c>
-      <c r="I97">
+      <c r="I102">
         <v>10062</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G98" t="s">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
         <v>93</v>
       </c>
-      <c r="I98">
+      <c r="I103">
         <v>10063</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G99" t="s">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>94</v>
       </c>
-      <c r="I99">
+      <c r="I104">
         <v>10064</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
         <v>95</v>
       </c>
-      <c r="I100">
+      <c r="I105">
         <v>10065</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G101" t="s">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
         <v>282</v>
       </c>
-      <c r="I101">
+      <c r="I106">
         <v>10071</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J106" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
         <v>102</v>
       </c>
-      <c r="I102">
+      <c r="I107">
         <v>10072</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G103" t="s">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
         <v>96</v>
       </c>
-      <c r="I103">
+      <c r="I108">
         <v>10073</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G104" t="s">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
         <v>97</v>
       </c>
-      <c r="I104">
+      <c r="I109">
         <v>10074</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G105" t="s">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
         <v>98</v>
       </c>
-      <c r="I105">
+      <c r="I110">
         <v>10075</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>135</v>
       </c>
-      <c r="C108" t="b">
+      <c r="C113" t="b">
         <v>0</v>
       </c>
-      <c r="D108" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
         <v>139</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G113" t="s">
         <v>136</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G109" t="s">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
         <v>137</v>
       </c>
-      <c r="I109">
+      <c r="I114">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G110" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
         <v>138</v>
       </c>
-      <c r="I110">
+      <c r="I115">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G111" t="s">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
         <v>288</v>
       </c>
-      <c r="I111">
+      <c r="I116">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G112" t="s">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
         <v>289</v>
       </c>
-      <c r="I112">
+      <c r="I117">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>103</v>
       </c>
-      <c r="C114" t="b">
+      <c r="C119" t="b">
         <v>0</v>
       </c>
-      <c r="D114" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
         <v>112</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G119" t="s">
         <v>146</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G115" t="s">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
         <v>147</v>
       </c>
-      <c r="I115">
+      <c r="I120">
         <v>2</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G116" t="s">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
         <v>148</v>
       </c>
-      <c r="I116">
+      <c r="I121">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J121" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G117" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
         <v>149</v>
       </c>
-      <c r="I117">
+      <c r="I122">
         <v>4</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J122" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G118" t="s">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
         <v>150</v>
       </c>
-      <c r="I118">
+      <c r="I123">
         <v>5</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J123" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G119" t="s">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
         <v>151</v>
       </c>
-      <c r="I119">
+      <c r="I124">
         <v>6</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G120" t="s">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>152</v>
       </c>
-      <c r="I120">
+      <c r="I125">
         <v>7</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J125" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G121" t="s">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
         <v>153</v>
       </c>
-      <c r="I121">
+      <c r="I126">
         <v>8</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J126" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G122" t="s">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
         <v>154</v>
       </c>
-      <c r="I122">
+      <c r="I127">
         <v>9</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J127" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G123" t="s">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
         <v>155</v>
       </c>
-      <c r="I123">
+      <c r="I128">
         <v>10</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J128" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
         <v>156</v>
       </c>
-      <c r="I124">
+      <c r="I129">
         <v>11</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J129" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
         <v>246</v>
       </c>
-      <c r="I125">
+      <c r="I130">
         <v>12</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J130" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G126" t="s">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
         <v>244</v>
       </c>
-      <c r="I126">
+      <c r="I131">
         <v>13</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J131" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
         <v>247</v>
       </c>
-      <c r="I127">
+      <c r="I132">
         <v>14</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J132" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G128" t="s">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
         <v>104</v>
       </c>
-      <c r="I128">
+      <c r="I133">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G129" t="s">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
         <v>105</v>
       </c>
-      <c r="I129">
+      <c r="I134">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
         <v>106</v>
       </c>
-      <c r="I130">
+      <c r="I135">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G131" t="s">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
         <v>107</v>
       </c>
-      <c r="I131">
+      <c r="I136">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>113</v>
       </c>
-      <c r="C133" t="b">
+      <c r="C138" t="b">
         <v>0</v>
       </c>
-      <c r="D133" t="b">
-        <v>1</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
         <v>114</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G138" t="s">
         <v>117</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G134" t="s">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
         <v>118</v>
       </c>
-      <c r="I134">
+      <c r="I139">
         <v>2</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J139" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G135" t="s">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
         <v>257</v>
       </c>
-      <c r="I135">
+      <c r="I140">
         <v>3</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J140" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>120</v>
       </c>
-      <c r="C137" t="b">
+      <c r="C142" t="b">
         <v>0</v>
       </c>
-      <c r="D137" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
         <v>121</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G142" t="s">
         <v>122</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G138" t="s">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
         <v>123</v>
       </c>
-      <c r="I138">
+      <c r="I143">
         <v>2</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J143" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G139" t="s">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
         <v>124</v>
       </c>
-      <c r="I139">
+      <c r="I144">
         <v>3</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J144" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
         <v>125</v>
       </c>
-      <c r="I140">
+      <c r="I145">
         <v>4</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J145" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G141" t="s">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
         <v>126</v>
       </c>
-      <c r="I141">
+      <c r="I146">
         <v>5</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J146" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G142" t="s">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
         <v>127</v>
       </c>
-      <c r="I142">
+      <c r="I147">
         <v>6</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J147" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>164</v>
       </c>
-      <c r="C144" t="b">
+      <c r="C149" t="b">
         <v>0</v>
       </c>
-      <c r="D144" t="b">
-        <v>1</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
         <v>165</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G149" t="s">
         <v>166</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G145" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
         <v>171</v>
       </c>
-      <c r="I145">
+      <c r="I150">
         <v>2</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J150" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G146" t="s">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
         <v>170</v>
       </c>
-      <c r="I146">
+      <c r="I151">
         <v>3</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J151" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="C148" t="b">
+      <c r="C153" t="b">
         <v>0</v>
       </c>
-      <c r="D148" t="b">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
         <v>161</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G153" t="s">
         <v>162</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148" t="s">
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>193</v>
       </c>
-      <c r="C152" t="b">
+      <c r="C157" t="b">
         <v>0</v>
       </c>
-      <c r="D152" t="b">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
         <v>200</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G157" t="s">
         <v>194</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G153" t="s">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
         <v>195</v>
       </c>
-      <c r="I153">
+      <c r="I158">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G154" t="s">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
         <v>196</v>
       </c>
-      <c r="I154">
+      <c r="I159">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G155" t="s">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
         <v>197</v>
       </c>
-      <c r="I155">
+      <c r="I160">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G156" t="s">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
         <v>198</v>
       </c>
-      <c r="I156">
+      <c r="I161">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>199</v>
       </c>
-      <c r="C158" t="b">
+      <c r="C163" t="b">
         <v>0</v>
       </c>
-      <c r="D158" t="b">
-        <v>1</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
         <v>201</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G163" t="s">
         <v>202</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G159" t="s">
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
         <v>203</v>
       </c>
-      <c r="I159">
+      <c r="I164">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G160" t="s">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
         <v>204</v>
       </c>
-      <c r="I160">
+      <c r="I165">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G161" t="s">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
         <v>205</v>
       </c>
-      <c r="I161">
+      <c r="I166">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G162" t="s">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
         <v>206</v>
       </c>
-      <c r="I162">
+      <c r="I167">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>255</v>
       </c>
-      <c r="C164" t="b">
+      <c r="C169" t="b">
         <v>0</v>
       </c>
-      <c r="D164" t="b">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
         <v>256</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G169" t="s">
         <v>249</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G165" t="s">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
         <v>250</v>
       </c>
-      <c r="I165">
+      <c r="I170">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G166" t="s">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G171" t="s">
         <v>251</v>
       </c>
-      <c r="I166">
+      <c r="I171">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G167" t="s">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G172" t="s">
         <v>254</v>
       </c>
-      <c r="I167">
+      <c r="I172">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G168" t="s">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
         <v>252</v>
       </c>
-      <c r="I168">
+      <c r="I173">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G169" t="s">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G174" t="s">
         <v>253</v>
       </c>
-      <c r="I169">
+      <c r="I174">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G170" t="s">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
         <v>259</v>
       </c>
-      <c r="I170">
+      <c r="I175">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>292</v>
       </c>
-      <c r="C172" t="b">
+      <c r="C177" t="b">
         <v>0</v>
       </c>
-      <c r="D172" t="b">
-        <v>1</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
         <v>290</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G177" t="s">
         <v>249</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G173" t="s">
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G178" t="s">
         <v>291</v>
       </c>
-      <c r="I173">
+      <c r="I178">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G174" t="s">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
         <v>295</v>
       </c>
-      <c r="I174">
+      <c r="I179">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>293</v>
       </c>
-      <c r="C176" t="b">
+      <c r="C181" t="b">
         <v>0</v>
       </c>
-      <c r="D176" t="b">
-        <v>1</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>294</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G181" t="s">
         <v>249</v>
       </c>
-      <c r="I176">
+      <c r="I181">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1FA38-51D8-4587-8776-7CB2DBF90E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE91F27-023E-4BF0-9C87-7D1AD6279119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="388">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,30 +1107,351 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当前血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalHitDamageBase</t>
+  </si>
+  <si>
+    <t>CriticalHitDamageAdd</t>
+  </si>
+  <si>
+    <t>CriticalHitDamagePct</t>
+  </si>
+  <si>
+    <t>CriticalHitDamageFinalAdd</t>
+  </si>
+  <si>
+    <t>CriticalHitDamageFinalPct</t>
+  </si>
+  <si>
+    <t>暴击伤害(N%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalStrikeRateAdd</t>
+  </si>
+  <si>
+    <t>CriticalStrikeRatePct</t>
+  </si>
+  <si>
+    <t>CriticalStrikeRateFinalPct</t>
+  </si>
+  <si>
+    <t>CriticalStrikeRateBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率(N%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDeepeningAdd</t>
+  </si>
+  <si>
+    <t>DamageDeepeningPct</t>
+  </si>
+  <si>
+    <t>DamageDeepeningFinalAdd</t>
+  </si>
+  <si>
+    <t>DamageDeepeningFinalPct</t>
+  </si>
+  <si>
+    <t>DamageDeepeningBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深系数(N%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReliefAdd</t>
+  </si>
+  <si>
+    <t>DamageReliefPct</t>
+  </si>
+  <si>
+    <t>DamageReliefFinalAdd</t>
+  </si>
+  <si>
+    <t>DamageReliefFinalPct</t>
+  </si>
+  <si>
+    <t>DamageReliefBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免系数(N%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupTowerFire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupTowerLianJi</t>
+  </si>
+  <si>
+    <t>BuffTagGroupTowerwitch</t>
+  </si>
+  <si>
+    <t>BuffTagGroupTowerZaiE</t>
+  </si>
+  <si>
+    <r>
+      <t>BuffTagGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerCurse</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalStrikeRateFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffTriggerEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuff触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_PutTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_ScaleTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_ReclaimTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_UpgradeTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_TowerKillMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_InTheBattleEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_GameEnd</t>
+  </si>
+  <si>
+    <t>监听 放置tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 出售tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 回收tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 升级tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 tower击杀monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 Game游戏状态PutHome</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态PutMonsterPoint</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态ShowStartEffect</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态RestTime</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态InTheBattle</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态InTheBattleEnd</t>
+  </si>
+  <si>
+    <t>监听 Game游戏状态GameEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_PutHomeBegin</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_PutHomeEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_PutMonsterPointBegin</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_PutMonsterPointEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_ShowStartEffectBegin</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_ShowStartEffectEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_RestTimeBegin</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_RestTimeEnd</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_Status_InTheBattleBegin</t>
+  </si>
+  <si>
+    <t>GlobalBuffOnTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffOnTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffOnTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 GlobalBuff在每个工作周期会执行的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemSubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品子类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CallMonster</t>
-  </si>
-  <si>
-    <t>当前血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpPct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpFinalAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1472,21 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1189,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1544,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,26 +1863,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1554,15 +1901,15 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1963,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1639,7 +1986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +2008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +2042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>274</v>
       </c>
@@ -1706,7 +2053,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +2064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>34</v>
       </c>
@@ -1728,7 +2075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>260</v>
       </c>
@@ -1751,7 +2098,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>263</v>
       </c>
@@ -1762,7 +2109,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>264</v>
       </c>
@@ -1773,7 +2120,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>265</v>
       </c>
@@ -1784,7 +2131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>270</v>
       </c>
@@ -1795,7 +2142,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>271</v>
       </c>
@@ -1806,7 +2153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>272</v>
       </c>
@@ -1817,7 +2164,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1840,7 +2187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>37</v>
       </c>
@@ -1851,7 +2198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>38</v>
       </c>
@@ -1862,7 +2209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>119</v>
       </c>
@@ -1873,7 +2220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>157</v>
       </c>
@@ -1884,7 +2231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>158</v>
       </c>
@@ -1895,7 +2242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>159</v>
       </c>
@@ -1906,7 +2253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>39</v>
       </c>
@@ -1917,7 +2264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -1928,7 +2275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>69</v>
       </c>
@@ -1939,7 +2286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +2297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>42</v>
       </c>
@@ -1961,7 +2308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>43</v>
       </c>
@@ -1972,7 +2319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>70</v>
       </c>
@@ -1983,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>45</v>
       </c>
@@ -1994,7 +2341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +2363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>276</v>
       </c>
@@ -2027,7 +2374,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>49</v>
       </c>
@@ -2038,7 +2385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>274</v>
       </c>
@@ -2049,7 +2396,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>278</v>
       </c>
@@ -2060,7 +2407,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -2071,7 +2418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>51</v>
       </c>
@@ -2082,7 +2429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>172</v>
       </c>
@@ -2093,1051 +2440,1026 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>367</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
         <v>184</v>
       </c>
-      <c r="I46">
-        <v>25</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
         <v>185</v>
       </c>
-      <c r="I47">
-        <v>26</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
         <v>186</v>
       </c>
-      <c r="I48">
-        <v>27</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>338</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>339</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>341</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>342</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>357</v>
+      </c>
+      <c r="I58">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>358</v>
+      </c>
+      <c r="I59">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>359</v>
+      </c>
+      <c r="I60">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>360</v>
+      </c>
+      <c r="I61">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>361</v>
+      </c>
+      <c r="I62">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>362</v>
+      </c>
+      <c r="I63">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>363</v>
+      </c>
+      <c r="I64">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>364</v>
+      </c>
+      <c r="I65">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>365</v>
+      </c>
+      <c r="I66">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>343</v>
+      </c>
+      <c r="I67">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>344</v>
+      </c>
+      <c r="I68">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="b">
+      <c r="C70" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
         <v>108</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G70" t="s">
         <v>79</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
         <v>80</v>
       </c>
-      <c r="I51">
+      <c r="I71">
         <v>2</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
         <v>81</v>
       </c>
-      <c r="I52">
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G53" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
         <v>82</v>
       </c>
-      <c r="I53">
+      <c r="I73">
         <v>4</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
         <v>83</v>
       </c>
-      <c r="I54">
+      <c r="I74">
         <v>5</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
         <v>84</v>
       </c>
-      <c r="I55">
+      <c r="I75">
         <v>6</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
         <v>85</v>
       </c>
-      <c r="I56">
+      <c r="I76">
         <v>7</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C58" t="b">
+      <c r="C78" t="b">
         <v>0</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>208</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G78" t="s">
         <v>221</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
         <v>222</v>
       </c>
-      <c r="I59">
+      <c r="I79">
         <v>2</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J79" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
         <v>223</v>
       </c>
-      <c r="I60">
+      <c r="I80">
         <v>3</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J80" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
         <v>224</v>
       </c>
-      <c r="I61">
+      <c r="I81">
         <v>4</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G62" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
         <v>225</v>
       </c>
-      <c r="I62">
+      <c r="I82">
         <v>5</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
         <v>226</v>
       </c>
-      <c r="I63">
+      <c r="I83">
         <v>6</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J83" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G64" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
         <v>227</v>
       </c>
-      <c r="I64">
+      <c r="I84">
         <v>7</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J84" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
         <v>228</v>
       </c>
-      <c r="I65">
+      <c r="I85">
         <v>8</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J85" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
         <v>229</v>
       </c>
-      <c r="I66">
+      <c r="I86">
         <v>9</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J86" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
         <v>230</v>
       </c>
-      <c r="I67">
+      <c r="I87">
         <v>10</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J87" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
         <v>231</v>
       </c>
-      <c r="I68">
+      <c r="I88">
         <v>11</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J88" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
         <v>232</v>
       </c>
-      <c r="I69">
+      <c r="I89">
         <v>12</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J89" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>239</v>
       </c>
-      <c r="C71" t="b">
+      <c r="C91" t="b">
         <v>0</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
         <v>240</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G91" t="s">
         <v>233</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
         <v>234</v>
       </c>
-      <c r="I72">
+      <c r="I92">
         <v>2</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J92" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
         <v>235</v>
       </c>
-      <c r="I73">
+      <c r="I93">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J93" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="C76" t="b">
+      <c r="C96" t="b">
         <v>0</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
         <v>183</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G96" t="s">
         <v>87</v>
       </c>
-      <c r="I76">
+      <c r="I96">
         <v>10001</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J96" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G77" t="s">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
         <v>88</v>
       </c>
-      <c r="I77">
+      <c r="I97">
         <v>10002</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
         <v>89</v>
       </c>
-      <c r="I78">
+      <c r="I98">
         <v>10003</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
         <v>90</v>
       </c>
-      <c r="I79">
+      <c r="I99">
         <v>10004</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
         <v>91</v>
       </c>
-      <c r="I80">
+      <c r="I100">
         <v>10005</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
         <v>283</v>
       </c>
-      <c r="I81">
+      <c r="I101">
         <v>10011</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J101" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
         <v>284</v>
       </c>
-      <c r="I82">
+      <c r="I102">
         <v>10012</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
         <v>285</v>
       </c>
-      <c r="I83">
+      <c r="I103">
         <v>10013</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
         <v>286</v>
       </c>
-      <c r="I84">
+      <c r="I104">
         <v>10014</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G85" t="s">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
         <v>287</v>
       </c>
-      <c r="I85">
+      <c r="I105">
         <v>10015</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
         <v>173</v>
       </c>
-      <c r="I86">
+      <c r="I106">
         <v>10021</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J106" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
         <v>176</v>
       </c>
-      <c r="I87">
+      <c r="I107">
         <v>10022</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
         <v>280</v>
       </c>
-      <c r="I88">
+      <c r="I108">
         <v>10023</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
         <v>177</v>
       </c>
-      <c r="I89">
+      <c r="I109">
         <v>10024</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
         <v>281</v>
       </c>
-      <c r="I90">
+      <c r="I110">
         <v>10025</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
         <v>178</v>
       </c>
-      <c r="I91">
+      <c r="I111">
         <v>10031</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J111" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
         <v>179</v>
       </c>
-      <c r="I92">
+      <c r="I112">
         <v>10032</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G93" t="s">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
         <v>180</v>
       </c>
-      <c r="I93">
+      <c r="I113">
         <v>10033</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
         <v>181</v>
       </c>
-      <c r="I94">
+      <c r="I114">
         <v>10034</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
         <v>182</v>
       </c>
-      <c r="I95">
+      <c r="I115">
         <v>10035</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G96" t="s">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116">
+        <v>10051</v>
+      </c>
+      <c r="J116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
         <v>297</v>
       </c>
-      <c r="I96">
-        <v>10051</v>
-      </c>
-      <c r="J96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G97" t="s">
+      <c r="I117">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
         <v>298</v>
       </c>
-      <c r="I97">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G98" t="s">
+      <c r="I118">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
         <v>299</v>
       </c>
-      <c r="I98">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G99" t="s">
+      <c r="I119">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
         <v>300</v>
       </c>
-      <c r="I99">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G100" t="s">
+      <c r="I120">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>92</v>
+      </c>
+      <c r="I121">
+        <v>10061</v>
+      </c>
+      <c r="J121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
+      <c r="I122">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>93</v>
+      </c>
+      <c r="I123">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>94</v>
+      </c>
+      <c r="I124">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>95</v>
+      </c>
+      <c r="I125">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>282</v>
+      </c>
+      <c r="I126">
+        <v>10071</v>
+      </c>
+      <c r="J126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>102</v>
+      </c>
+      <c r="I127">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>96</v>
+      </c>
+      <c r="I128">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="129" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>97</v>
+      </c>
+      <c r="I129">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="130" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>98</v>
+      </c>
+      <c r="I130">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="131" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
         <v>301</v>
       </c>
-      <c r="I100">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G101" t="s">
-        <v>92</v>
-      </c>
-      <c r="I101">
-        <v>10061</v>
-      </c>
-      <c r="J101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G102" t="s">
-        <v>134</v>
-      </c>
-      <c r="I102">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G103" t="s">
-        <v>93</v>
-      </c>
-      <c r="I103">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G104" t="s">
-        <v>94</v>
-      </c>
-      <c r="I104">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G105" t="s">
-        <v>95</v>
-      </c>
-      <c r="I105">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G106" t="s">
-        <v>282</v>
-      </c>
-      <c r="I106">
-        <v>10071</v>
-      </c>
-      <c r="J106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G107" t="s">
-        <v>102</v>
-      </c>
-      <c r="I107">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G108" t="s">
-        <v>96</v>
-      </c>
-      <c r="I108">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G109" t="s">
-        <v>97</v>
-      </c>
-      <c r="I109">
-        <v>10074</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G110" t="s">
-        <v>98</v>
-      </c>
-      <c r="I110">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+      <c r="I131">
+        <v>10081</v>
+      </c>
+      <c r="J131" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>302</v>
+      </c>
+      <c r="I132">
+        <v>10082</v>
+      </c>
+    </row>
+    <row r="133" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>303</v>
+      </c>
+      <c r="I133">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="134" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>304</v>
+      </c>
+      <c r="I134">
+        <v>10084</v>
+      </c>
+    </row>
+    <row r="135" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>305</v>
+      </c>
+      <c r="I135">
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="136" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>310</v>
+      </c>
+      <c r="I136">
+        <v>10091</v>
+      </c>
+      <c r="J136" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>307</v>
+      </c>
+      <c r="I137">
+        <v>10092</v>
+      </c>
+    </row>
+    <row r="138" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>308</v>
+      </c>
+      <c r="I138">
+        <v>10093</v>
+      </c>
+    </row>
+    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>335</v>
+      </c>
+      <c r="I139">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="140" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>309</v>
+      </c>
+      <c r="I140">
+        <v>10095</v>
+      </c>
+    </row>
+    <row r="141" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>316</v>
+      </c>
+      <c r="I141">
+        <v>10101</v>
+      </c>
+      <c r="J141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>312</v>
+      </c>
+      <c r="I142">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="143" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>313</v>
+      </c>
+      <c r="I143">
+        <v>10103</v>
+      </c>
+    </row>
+    <row r="144" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>314</v>
+      </c>
+      <c r="I144">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I145">
+        <v>10105</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I146">
+        <v>10111</v>
+      </c>
+      <c r="J146" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>318</v>
+      </c>
+      <c r="I147">
+        <v>10112</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>319</v>
+      </c>
+      <c r="I148">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>320</v>
+      </c>
+      <c r="I149">
+        <v>10114</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>321</v>
+      </c>
+      <c r="I150">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>135</v>
-      </c>
-      <c r="C113" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>139</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G114" t="s">
-        <v>137</v>
-      </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G115" t="s">
-        <v>138</v>
-      </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G116" t="s">
-        <v>288</v>
-      </c>
-      <c r="I116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G117" t="s">
-        <v>289</v>
-      </c>
-      <c r="I117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" t="b">
-        <v>0</v>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" t="s">
-        <v>146</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G120" t="s">
-        <v>147</v>
-      </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
-      <c r="J120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
-      <c r="I121">
-        <v>3</v>
-      </c>
-      <c r="J121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
-      <c r="I122">
-        <v>4</v>
-      </c>
-      <c r="J122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G123" t="s">
-        <v>150</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="J123" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G124" t="s">
-        <v>151</v>
-      </c>
-      <c r="I124">
-        <v>6</v>
-      </c>
-      <c r="J124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G125" t="s">
-        <v>152</v>
-      </c>
-      <c r="I125">
-        <v>7</v>
-      </c>
-      <c r="J125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G126" t="s">
-        <v>153</v>
-      </c>
-      <c r="I126">
-        <v>8</v>
-      </c>
-      <c r="J126" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G127" t="s">
-        <v>154</v>
-      </c>
-      <c r="I127">
-        <v>9</v>
-      </c>
-      <c r="J127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G128" t="s">
-        <v>155</v>
-      </c>
-      <c r="I128">
-        <v>10</v>
-      </c>
-      <c r="J128" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G129" t="s">
-        <v>156</v>
-      </c>
-      <c r="I129">
-        <v>11</v>
-      </c>
-      <c r="J129" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G130" t="s">
-        <v>246</v>
-      </c>
-      <c r="I130">
-        <v>12</v>
-      </c>
-      <c r="J130" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G131" t="s">
-        <v>244</v>
-      </c>
-      <c r="I131">
-        <v>13</v>
-      </c>
-      <c r="J131" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G132" t="s">
-        <v>247</v>
-      </c>
-      <c r="I132">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G133" t="s">
-        <v>104</v>
-      </c>
-      <c r="I133">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G134" t="s">
-        <v>105</v>
-      </c>
-      <c r="I134">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G135" t="s">
-        <v>106</v>
-      </c>
-      <c r="I135">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G136" t="s">
-        <v>107</v>
-      </c>
-      <c r="I136">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" t="b">
-        <v>0</v>
-      </c>
-      <c r="D138" t="b">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>114</v>
-      </c>
-      <c r="G138" t="s">
-        <v>117</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G139" t="s">
-        <v>118</v>
-      </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
-      <c r="J139" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G140" t="s">
-        <v>257</v>
-      </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-      <c r="J140" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" t="b">
-        <v>0</v>
-      </c>
-      <c r="D142" t="b">
-        <v>1</v>
-      </c>
-      <c r="E142" t="s">
-        <v>121</v>
-      </c>
-      <c r="G142" t="s">
-        <v>122</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G143" t="s">
-        <v>123</v>
-      </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
-      <c r="J143" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G144" t="s">
-        <v>124</v>
-      </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G145" t="s">
-        <v>125</v>
-      </c>
-      <c r="I145">
-        <v>4</v>
-      </c>
-      <c r="J145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G146" t="s">
-        <v>126</v>
-      </c>
-      <c r="I146">
-        <v>5</v>
-      </c>
-      <c r="J146" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G147" t="s">
-        <v>127</v>
-      </c>
-      <c r="I147">
-        <v>6</v>
-      </c>
-      <c r="J147" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>164</v>
-      </c>
-      <c r="C149" t="b">
-        <v>0</v>
-      </c>
-      <c r="D149" t="b">
-        <v>1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s">
-        <v>166</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G150" t="s">
-        <v>171</v>
-      </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
-      <c r="J150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G151" t="s">
-        <v>170</v>
-      </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
-      <c r="J151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>160</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -3146,244 +3468,873 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
+        <v>139</v>
+      </c>
+      <c r="G153" t="s">
+        <v>136</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>137</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>138</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>288</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>289</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G158" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G159" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G160" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G161" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G162" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>112</v>
+      </c>
+      <c r="G165" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>147</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>148</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>149</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>150</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>151</v>
+      </c>
+      <c r="I170">
+        <v>6</v>
+      </c>
+      <c r="J170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>152</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>153</v>
+      </c>
+      <c r="I172">
+        <v>8</v>
+      </c>
+      <c r="J172" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>154</v>
+      </c>
+      <c r="I173">
+        <v>9</v>
+      </c>
+      <c r="J173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>155</v>
+      </c>
+      <c r="I174">
+        <v>10</v>
+      </c>
+      <c r="J174" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>156</v>
+      </c>
+      <c r="I175">
+        <v>11</v>
+      </c>
+      <c r="J175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>246</v>
+      </c>
+      <c r="I176">
+        <v>12</v>
+      </c>
+      <c r="J176" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>244</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+      <c r="J177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>247</v>
+      </c>
+      <c r="I178">
+        <v>14</v>
+      </c>
+      <c r="J178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>104</v>
+      </c>
+      <c r="I179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>105</v>
+      </c>
+      <c r="I180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>106</v>
+      </c>
+      <c r="I181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>107</v>
+      </c>
+      <c r="I182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>113</v>
+      </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>114</v>
+      </c>
+      <c r="G184" t="s">
+        <v>117</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>118</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>257</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>120</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>121</v>
+      </c>
+      <c r="G188" t="s">
+        <v>122</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>123</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>124</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>125</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="J191" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>126</v>
+      </c>
+      <c r="I192">
+        <v>5</v>
+      </c>
+      <c r="J192" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>127</v>
+      </c>
+      <c r="I193">
+        <v>6</v>
+      </c>
+      <c r="J193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>164</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>165</v>
+      </c>
+      <c r="G195" t="s">
+        <v>166</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>171</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>170</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
         <v>161</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G199" t="s">
         <v>162</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>193</v>
       </c>
-      <c r="C157" t="b">
+      <c r="C203" t="b">
         <v>0</v>
       </c>
-      <c r="D157" t="b">
-        <v>1</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
         <v>200</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G203" t="s">
         <v>194</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G158" t="s">
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
         <v>195</v>
       </c>
-      <c r="I158">
+      <c r="I204">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G159" t="s">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
         <v>196</v>
       </c>
-      <c r="I159">
+      <c r="I205">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G160" t="s">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
         <v>197</v>
       </c>
-      <c r="I160">
+      <c r="I206">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G161" t="s">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
         <v>198</v>
       </c>
-      <c r="I161">
+      <c r="I207">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>199</v>
       </c>
-      <c r="C163" t="b">
+      <c r="C209" t="b">
         <v>0</v>
       </c>
-      <c r="D163" t="b">
-        <v>1</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
         <v>201</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G209" t="s">
         <v>202</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G164" t="s">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
         <v>203</v>
       </c>
-      <c r="I164">
+      <c r="I210">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G165" t="s">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
         <v>204</v>
       </c>
-      <c r="I165">
+      <c r="I211">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G166" t="s">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
         <v>205</v>
       </c>
-      <c r="I166">
+      <c r="I212">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G167" t="s">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
         <v>206</v>
       </c>
-      <c r="I167">
+      <c r="I213">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>255</v>
       </c>
-      <c r="C169" t="b">
+      <c r="C215" t="b">
         <v>0</v>
       </c>
-      <c r="D169" t="b">
-        <v>1</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
         <v>256</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G215" t="s">
         <v>249</v>
       </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G170" t="s">
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
         <v>250</v>
       </c>
-      <c r="I170">
+      <c r="I216">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G171" t="s">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
         <v>251</v>
       </c>
-      <c r="I171">
+      <c r="I217">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G172" t="s">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
         <v>254</v>
       </c>
-      <c r="I172">
+      <c r="I218">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G173" t="s">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
         <v>252</v>
       </c>
-      <c r="I173">
+      <c r="I219">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G174" t="s">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
         <v>253</v>
       </c>
-      <c r="I174">
+      <c r="I220">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G175" t="s">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
         <v>259</v>
       </c>
-      <c r="I175">
+      <c r="I221">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>292</v>
       </c>
-      <c r="C177" t="b">
+      <c r="C223" t="b">
         <v>0</v>
       </c>
-      <c r="D177" t="b">
-        <v>1</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
         <v>290</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G223" t="s">
         <v>249</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G178" t="s">
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
         <v>291</v>
       </c>
-      <c r="I178">
+      <c r="I224">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G179" t="s">
-        <v>295</v>
-      </c>
-      <c r="I179">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>377</v>
+      </c>
+      <c r="I225">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>293</v>
       </c>
-      <c r="C181" t="b">
+      <c r="C227" t="b">
         <v>0</v>
       </c>
-      <c r="D181" t="b">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
         <v>294</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G227" t="s">
         <v>249</v>
       </c>
-      <c r="I181">
-        <v>1</v>
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>371</v>
+      </c>
+      <c r="G230" t="s">
+        <v>325</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>326</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>324</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>385</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>381</v>
+      </c>
+      <c r="G234" t="s">
+        <v>382</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>383</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>384</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>374</v>
+      </c>
+      <c r="G238" t="s">
+        <v>291</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>377</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>379</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>373</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>375</v>
+      </c>
+      <c r="G242" t="s">
+        <v>291</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>377</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>386</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE91F27-023E-4BF0-9C87-7D1AD6279119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633B2E4-A6B3-49B0-ABAC-14C7A6CFD98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="394">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,9 +330,6 @@
   <si>
     <t>NumericType</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedBase</t>
   </si>
   <si>
     <t>SpeedAdd</t>
@@ -1452,6 +1440,34 @@
   </si>
   <si>
     <t>怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropRuleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落规则类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按权重单一掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按几率独立掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,26 +1879,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:K247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1909,7 +1925,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +1979,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1974,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -1986,7 +2002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +2013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -2031,7 +2047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>30</v>
       </c>
@@ -2042,18 +2058,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>32</v>
       </c>
@@ -2064,7 +2080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>34</v>
       </c>
@@ -2075,9 +2091,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2086,85 +2102,85 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" t="s">
         <v>261</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
         <v>262</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>263</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>270</v>
       </c>
       <c r="I18">
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I19">
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I20">
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
         <v>68</v>
@@ -2187,7 +2203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>37</v>
       </c>
@@ -2198,7 +2214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>38</v>
       </c>
@@ -2209,9 +2225,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2220,9 +2236,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -2231,9 +2247,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -2242,9 +2258,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28">
         <v>7</v>
@@ -2253,7 +2269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>39</v>
       </c>
@@ -2264,7 +2280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>43</v>
       </c>
@@ -2319,7 +2335,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>70</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>46</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>48</v>
       </c>
@@ -2363,18 +2379,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I39">
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>49</v>
       </c>
@@ -2385,29 +2401,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I41">
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I42">
         <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -2418,7 +2434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>51</v>
       </c>
@@ -2429,9 +2445,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I45">
         <v>24</v>
@@ -2440,9 +2456,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2451,250 +2467,250 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
         <v>366</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>367</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I50">
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I51">
         <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I52">
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I53">
         <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I54">
         <v>8</v>
       </c>
       <c r="J54" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I55">
         <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I57">
         <v>11</v>
       </c>
       <c r="J57" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I58">
         <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I59">
         <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I60">
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I61">
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I62">
         <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I63">
         <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I64">
         <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I65">
         <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I66">
         <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I67">
         <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I68">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>71</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
         <v>79</v>
@@ -2717,7 +2733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>80</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>81</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>82</v>
       </c>
@@ -2750,7 +2766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>83</v>
       </c>
@@ -2761,7 +2777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>84</v>
       </c>
@@ -2772,7 +2788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
         <v>85</v>
       </c>
@@ -2783,9 +2799,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -2794,142 +2810,142 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" t="s">
+        <v>220</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
         <v>208</v>
       </c>
-      <c r="G78" t="s">
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
         <v>221</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>222</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I80">
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I82">
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I83">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I84">
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85">
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I86">
         <v>9</v>
       </c>
       <c r="J86" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I87">
         <v>10</v>
       </c>
       <c r="J87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I88">
         <v>11</v>
       </c>
       <c r="J88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I89">
         <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -2938,41 +2954,41 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G91" t="s">
+        <v>232</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
         <v>233</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G92" t="s">
-        <v>234</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I93">
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>86</v>
       </c>
@@ -2983,483 +2999,483 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>393</v>
       </c>
       <c r="I96">
         <v>10001</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I97">
         <v>10002</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I98">
         <v>10003</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I99">
         <v>10004</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I100">
         <v>10005</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I101">
         <v>10011</v>
       </c>
       <c r="J101" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I102">
         <v>10012</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I103">
         <v>10013</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I104">
         <v>10014</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I105">
         <v>10015</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I106">
         <v>10021</v>
       </c>
       <c r="J106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G107" t="s">
-        <v>176</v>
       </c>
       <c r="I107">
         <v>10022</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I108">
         <v>10023</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I109">
         <v>10024</v>
       </c>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I110">
         <v>10025</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I111">
         <v>10031</v>
       </c>
       <c r="J111" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I112">
         <v>10032</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I113">
         <v>10033</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I114">
         <v>10034</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I115">
         <v>10035</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I116">
         <v>10051</v>
       </c>
       <c r="J116" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I117">
         <v>10052</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G118" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I118">
         <v>10053</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G119" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I119">
         <v>10054</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I120">
         <v>10055</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I121">
         <v>10061</v>
       </c>
       <c r="J121" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I122">
         <v>10062</v>
       </c>
     </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I123">
         <v>10063</v>
       </c>
     </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I124">
         <v>10064</v>
       </c>
     </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I125">
         <v>10065</v>
       </c>
     </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I126">
         <v>10071</v>
       </c>
       <c r="J126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
-        <v>102</v>
       </c>
       <c r="I127">
         <v>10072</v>
       </c>
     </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I128">
         <v>10073</v>
       </c>
     </row>
-    <row r="129" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I129">
         <v>10074</v>
       </c>
     </row>
-    <row r="130" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I130">
         <v>10075</v>
       </c>
     </row>
-    <row r="131" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G131" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I131">
         <v>10081</v>
       </c>
       <c r="J131" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="132" spans="7:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I132">
         <v>10082</v>
       </c>
     </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I133">
         <v>10083</v>
       </c>
     </row>
-    <row r="134" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G134" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I134">
         <v>10084</v>
       </c>
     </row>
-    <row r="135" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I135">
         <v>10085</v>
       </c>
     </row>
-    <row r="136" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I136">
         <v>10091</v>
       </c>
       <c r="J136" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="137" spans="7:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I137">
         <v>10092</v>
       </c>
     </row>
-    <row r="138" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I138">
         <v>10093</v>
       </c>
     </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I139">
         <v>10094</v>
       </c>
     </row>
-    <row r="140" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I140">
         <v>10095</v>
       </c>
     </row>
-    <row r="141" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I141">
         <v>10101</v>
       </c>
       <c r="J141" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="7:10" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I142">
         <v>10102</v>
       </c>
     </row>
-    <row r="143" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G143" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I143">
         <v>10103</v>
       </c>
     </row>
-    <row r="144" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G144" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I144">
         <v>10104</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I145">
         <v>10105</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G146" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I146">
         <v>10111</v>
       </c>
       <c r="J146" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G147" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I147">
         <v>10112</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G148" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I148">
         <v>10113</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G149" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I149">
         <v>10114</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G150" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I150">
         <v>10115</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -3468,90 +3484,90 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G153" t="s">
+        <v>135</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
         <v>136</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G154" t="s">
-        <v>137</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G157" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I158">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I159">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I160">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I161">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G162" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I162">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -3560,196 +3576,196 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G165" t="s">
+        <v>145</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
         <v>146</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G166" t="s">
-        <v>147</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I167">
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I168">
         <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I169">
         <v>5</v>
       </c>
       <c r="J169" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G170" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I170">
         <v>6</v>
       </c>
       <c r="J170" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I171">
         <v>7</v>
       </c>
       <c r="J171" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I172">
         <v>8</v>
       </c>
       <c r="J172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I173">
         <v>9</v>
       </c>
       <c r="J173" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I174">
         <v>10</v>
       </c>
       <c r="J174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G175" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I175">
         <v>11</v>
       </c>
       <c r="J175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I176">
         <v>12</v>
       </c>
       <c r="J176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I177">
         <v>13</v>
       </c>
       <c r="J177" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G178" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I178">
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G179" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I179">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I180">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I181">
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G182" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I182">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -3758,43 +3774,43 @@
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G184" t="s">
+        <v>116</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G185" t="s">
         <v>117</v>
-      </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G185" t="s">
-        <v>118</v>
       </c>
       <c r="I185">
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I186">
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -3803,76 +3819,76 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G188" t="s">
         <v>121</v>
       </c>
-      <c r="G188" t="s">
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G189" t="s">
         <v>122</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G189" t="s">
-        <v>123</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I190">
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G191" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I191">
         <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G192" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I192">
         <v>5</v>
       </c>
       <c r="J192" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G193" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I193">
         <v>6</v>
       </c>
       <c r="J193" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -3881,43 +3897,43 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
+        <v>164</v>
+      </c>
+      <c r="G195" t="s">
         <v>165</v>
       </c>
-      <c r="G195" t="s">
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
         <v>166</v>
       </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="J195" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I196">
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I197">
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -3926,21 +3942,21 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
+        <v>160</v>
+      </c>
+      <c r="G199" t="s">
         <v>161</v>
       </c>
-      <c r="G199" t="s">
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
         <v>162</v>
       </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -3949,50 +3965,50 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G203" t="s">
+        <v>193</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G204" t="s">
         <v>194</v>
-      </c>
-      <c r="I203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G204" t="s">
-        <v>195</v>
       </c>
       <c r="I204">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G205" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I205">
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G206" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I206">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G207" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I207">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -4001,50 +4017,50 @@
         <v>1</v>
       </c>
       <c r="E209" t="s">
+        <v>200</v>
+      </c>
+      <c r="G209" t="s">
         <v>201</v>
       </c>
-      <c r="G209" t="s">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
         <v>202</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G210" t="s">
-        <v>203</v>
       </c>
       <c r="I210">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I211">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I212">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I213">
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -4053,66 +4069,66 @@
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G215" t="s">
+        <v>248</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
         <v>249</v>
-      </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G216" t="s">
-        <v>250</v>
       </c>
       <c r="I216">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G217" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I217">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I218">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G219" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I219">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I220">
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G221" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I221">
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -4121,34 +4137,34 @@
         <v>1</v>
       </c>
       <c r="E223" t="s">
+        <v>289</v>
+      </c>
+      <c r="G223" t="s">
+        <v>248</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
         <v>290</v>
-      </c>
-      <c r="G223" t="s">
-        <v>249</v>
-      </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
-        <v>291</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I225">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -4157,18 +4173,18 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G227" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -4177,43 +4193,43 @@
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G231" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I232">
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -4222,34 +4238,34 @@
         <v>1</v>
       </c>
       <c r="E234" t="s">
+        <v>380</v>
+      </c>
+      <c r="G234" t="s">
         <v>381</v>
       </c>
-      <c r="G234" t="s">
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
         <v>382</v>
-      </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G235" t="s">
-        <v>383</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G236" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I236">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
@@ -4258,43 +4274,43 @@
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G238" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G239" t="s">
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
         <v>377</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" t="s">
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G240" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G240" t="s">
-        <v>379</v>
       </c>
       <c r="I240">
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
@@ -4303,38 +4319,72 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G243" t="s">
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
         <v>377</v>
       </c>
-      <c r="I243">
-        <v>1</v>
-      </c>
-      <c r="J243" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
         <v>387</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>388</v>
+      </c>
+      <c r="G246" t="s">
+        <v>392</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>391</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D489B-2F0A-4D29-8802-DF9175A9BA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E818F-DF8B-42F3-949F-71C7D450BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="445">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,11 +1610,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点特效(仅客户端表现移动到Unit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointClienShowMove</t>
+    <r>
+      <t>BuffTagGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerScorpio</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletOnHitPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 子弹到达指定地点的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitOnHitPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 子弹碰到特定位置的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 unit攻击到特定位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectNodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自身做偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以施加者做偏移(例如子弹击中大体型怪,这时候以子弹位置来表现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效表现节点类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K263"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2238,99 +2302,99 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>31</v>
+        <v>430</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>252</v>
       </c>
-      <c r="C15" t="b">
+      <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>253</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>254</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>265</v>
@@ -2338,88 +2402,88 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>107</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
         <v>55</v>
@@ -2427,10 +2491,10 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -2438,2022 +2502,2035 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
         <v>68</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>10</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
         <v>40</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>11</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
         <v>41</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
         <v>42</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>13</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
         <v>69</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>14</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
         <v>44</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>15</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
         <v>45</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39">
-        <v>17</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
         <v>268</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>18</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
         <v>48</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>19</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
         <v>266</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>20</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
         <v>270</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <v>21</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J44" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>430</v>
+      </c>
+      <c r="I45">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>432</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
         <v>49</v>
       </c>
-      <c r="I44">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I47">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
         <v>50</v>
       </c>
-      <c r="I45">
-        <v>23</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
         <v>170</v>
       </c>
-      <c r="I46">
-        <v>24</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>328</v>
       </c>
-      <c r="C48" t="b">
+      <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>329</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G51" t="s">
         <v>358</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
         <v>359</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J52" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
         <v>360</v>
       </c>
-      <c r="I50">
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J53" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
         <v>181</v>
       </c>
-      <c r="I51">
+      <c r="I54">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
         <v>182</v>
       </c>
-      <c r="I52">
+      <c r="I55">
         <v>5</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J55" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
         <v>183</v>
       </c>
-      <c r="I53">
+      <c r="I56">
         <v>6</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
         <v>330</v>
       </c>
-      <c r="I54">
+      <c r="I57">
         <v>7</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J57" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
         <v>331</v>
       </c>
-      <c r="I55">
+      <c r="I58">
         <v>8</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J58" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
         <v>332</v>
       </c>
-      <c r="I56">
+      <c r="I59">
         <v>9</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J59" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
         <v>333</v>
       </c>
-      <c r="I57">
+      <c r="I60">
         <v>10</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J60" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
         <v>334</v>
       </c>
-      <c r="I58">
+      <c r="I61">
         <v>11</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
         <v>349</v>
       </c>
-      <c r="I59">
+      <c r="I62">
         <v>12</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J62" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
         <v>350</v>
       </c>
-      <c r="I60">
+      <c r="I63">
         <v>13</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J63" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
         <v>351</v>
       </c>
-      <c r="I61">
+      <c r="I64">
         <v>14</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J64" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>352</v>
-      </c>
-      <c r="I62">
-        <v>15</v>
-      </c>
-      <c r="J62" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>353</v>
-      </c>
-      <c r="I63">
-        <v>16</v>
-      </c>
-      <c r="J63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>354</v>
-      </c>
-      <c r="I64">
-        <v>17</v>
-      </c>
-      <c r="J64" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I65">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="I68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I69">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>106</v>
-      </c>
       <c r="G71" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G73" t="s">
-        <v>80</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
       <c r="G74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>202</v>
-      </c>
       <c r="G79" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>202</v>
+      </c>
       <c r="G82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I89">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J90" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>234</v>
-      </c>
       <c r="G92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J92" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
+        <v>226</v>
+      </c>
+      <c r="I93">
+        <v>12</v>
+      </c>
+      <c r="J93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>234</v>
+      </c>
+      <c r="G95" t="s">
+        <v>227</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
         <v>228</v>
       </c>
-      <c r="I93">
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J96" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G94" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
         <v>229</v>
       </c>
-      <c r="I94">
+      <c r="I97">
         <v>3</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J97" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>85</v>
       </c>
-      <c r="C97" t="b">
+      <c r="C100" t="b">
         <v>0</v>
       </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
         <v>387</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G100" t="s">
         <v>386</v>
       </c>
-      <c r="I97">
+      <c r="I100">
         <v>10001</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J100" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G98" t="s">
-        <v>86</v>
-      </c>
-      <c r="I98">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G99" t="s">
-        <v>87</v>
-      </c>
-      <c r="I99">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
-        <v>88</v>
-      </c>
-      <c r="I100">
-        <v>10004</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I101">
-        <v>10005</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="I102">
-        <v>10011</v>
-      </c>
-      <c r="J102" t="s">
-        <v>173</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="I103">
-        <v>10012</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="I104">
-        <v>10013</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I105">
-        <v>10014</v>
+        <v>10011</v>
+      </c>
+      <c r="J105" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I106">
-        <v>10015</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="I107">
-        <v>10021</v>
-      </c>
-      <c r="J107" t="s">
-        <v>173</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="I108">
-        <v>10022</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I109">
-        <v>10023</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I110">
-        <v>10024</v>
+        <v>10021</v>
+      </c>
+      <c r="J110" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="I111">
-        <v>10025</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="I112">
-        <v>10031</v>
-      </c>
-      <c r="J112" t="s">
-        <v>172</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I113">
-        <v>10032</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="I114">
-        <v>10033</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I115">
-        <v>10034</v>
+        <v>10031</v>
+      </c>
+      <c r="J115" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I116">
-        <v>10035</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="I117">
-        <v>10051</v>
-      </c>
-      <c r="J117" t="s">
-        <v>287</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="I118">
-        <v>10052</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="I119">
-        <v>10053</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I120">
-        <v>10054</v>
+        <v>10051</v>
+      </c>
+      <c r="J120" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I121">
-        <v>10055</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="I122">
-        <v>10061</v>
-      </c>
-      <c r="J122" t="s">
-        <v>98</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="I123">
-        <v>10062</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="I124">
-        <v>10063</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I125">
-        <v>10064</v>
+        <v>10061</v>
+      </c>
+      <c r="J125" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="I126">
-        <v>10065</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="I127">
-        <v>10071</v>
-      </c>
-      <c r="J127" t="s">
-        <v>99</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I128">
-        <v>10072</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I129">
-        <v>10073</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="I130">
-        <v>10074</v>
+        <v>10071</v>
+      </c>
+      <c r="J130" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I131">
-        <v>10075</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="I132">
-        <v>10081</v>
-      </c>
-      <c r="J132" t="s">
-        <v>298</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
-        <v>294</v>
+        <v>95</v>
       </c>
       <c r="I133">
-        <v>10082</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="I134">
-        <v>10083</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I135">
-        <v>10084</v>
+        <v>10081</v>
+      </c>
+      <c r="J135" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I136">
-        <v>10085</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I137">
-        <v>10091</v>
-      </c>
-      <c r="J137" t="s">
-        <v>303</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I138">
-        <v>10092</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I139">
-        <v>10093</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="I140">
-        <v>10094</v>
+        <v>10091</v>
+      </c>
+      <c r="J140" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I141">
-        <v>10095</v>
+        <v>10092</v>
       </c>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I142">
-        <v>10101</v>
-      </c>
-      <c r="J142" t="s">
-        <v>309</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="I143">
-        <v>10102</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I144">
-        <v>10103</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I145">
-        <v>10104</v>
+        <v>10101</v>
+      </c>
+      <c r="J145" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I146">
-        <v>10105</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I147">
-        <v>10111</v>
-      </c>
-      <c r="J147" t="s">
-        <v>315</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I148">
-        <v>10112</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G149" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I149">
-        <v>10113</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I150">
-        <v>10114</v>
+        <v>10111</v>
+      </c>
+      <c r="J150" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
+        <v>310</v>
+      </c>
+      <c r="I151">
+        <v>10112</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>311</v>
+      </c>
+      <c r="I152">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>312</v>
+      </c>
+      <c r="I153">
+        <v>10114</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
         <v>313</v>
       </c>
-      <c r="I151">
+      <c r="I154">
         <v>10115</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>133</v>
       </c>
-      <c r="C154" t="b">
+      <c r="C157" t="b">
         <v>0</v>
       </c>
-      <c r="D154" t="b">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
         <v>137</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G157" t="s">
         <v>134</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G155" t="s">
-        <v>135</v>
-      </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G156" t="s">
-        <v>136</v>
-      </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G157" t="s">
-        <v>280</v>
-      </c>
       <c r="I157">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
+        <v>135</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>136</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>280</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
         <v>281</v>
       </c>
-      <c r="I158">
+      <c r="I161">
         <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G159" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I159">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G160" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G161" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I161">
-        <v>8</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G162" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G163" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G164" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G165" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I162">
+      <c r="I165">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G163" s="4" t="s">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G166" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="I163">
+      <c r="I166">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G167" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>101</v>
       </c>
-      <c r="C166" t="b">
+      <c r="C169" t="b">
         <v>0</v>
       </c>
-      <c r="D166" t="b">
-        <v>1</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
         <v>110</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G169" t="s">
         <v>144</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166" t="s">
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G167" t="s">
-        <v>145</v>
-      </c>
-      <c r="I167">
-        <v>2</v>
-      </c>
-      <c r="J167" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G168" t="s">
-        <v>146</v>
-      </c>
-      <c r="I168">
-        <v>3</v>
-      </c>
-      <c r="J168" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G169" t="s">
-        <v>147</v>
-      </c>
-      <c r="I169">
-        <v>4</v>
-      </c>
-      <c r="J169" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I170">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G171" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I173">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J173" t="s">
-        <v>414</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G174" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I174">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J174" t="s">
-        <v>415</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J175" t="s">
-        <v>416</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="I176">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J176" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I177">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J177" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="I178">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J178" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="I179">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J179" t="s">
-        <v>236</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G180" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="I180">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J180" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G181" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="I181">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="I182">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J182" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="I183">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="J183" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I184">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>103</v>
+      </c>
+      <c r="I185">
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>111</v>
-      </c>
-      <c r="C186" t="b">
-        <v>0</v>
-      </c>
-      <c r="D186" t="b">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>112</v>
-      </c>
       <c r="G186" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G187" t="s">
+        <v>105</v>
+      </c>
+      <c r="I187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>111</v>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>112</v>
+      </c>
+      <c r="G189" t="s">
+        <v>115</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
         <v>116</v>
       </c>
-      <c r="I187">
+      <c r="I190">
         <v>2</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J190" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G188" t="s">
-        <v>249</v>
-      </c>
-      <c r="I188">
-        <v>3</v>
-      </c>
-      <c r="J188" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>118</v>
-      </c>
-      <c r="C190" t="b">
-        <v>0</v>
-      </c>
-      <c r="D190" t="b">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>119</v>
-      </c>
-      <c r="G190" t="s">
-        <v>120</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G192" t="s">
-        <v>122</v>
-      </c>
-      <c r="I192">
-        <v>3</v>
-      </c>
-      <c r="J192" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>119</v>
+      </c>
       <c r="G193" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>123</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" t="b">
-        <v>0</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
-      </c>
-      <c r="E197" t="s">
-        <v>163</v>
-      </c>
       <c r="G197" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J197" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
+        <v>125</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+      <c r="J198" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>163</v>
+      </c>
+      <c r="G200" t="s">
+        <v>164</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
         <v>169</v>
       </c>
-      <c r="I198">
+      <c r="I201">
         <v>2</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J201" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G199" t="s">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
         <v>168</v>
       </c>
-      <c r="I199">
+      <c r="I202">
         <v>3</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J202" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>158</v>
       </c>
-      <c r="C201" t="b">
+      <c r="C204" t="b">
         <v>0</v>
       </c>
-      <c r="D201" t="b">
-        <v>1</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
         <v>159</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G204" t="s">
         <v>160</v>
       </c>
-      <c r="I201">
-        <v>1</v>
-      </c>
-      <c r="J201" t="s">
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>388</v>
       </c>
-      <c r="C203" t="b">
+      <c r="C206" t="b">
         <v>0</v>
       </c>
-      <c r="D203" t="b">
-        <v>1</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
         <v>389</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G206" t="s">
         <v>394</v>
       </c>
-      <c r="I203">
-        <v>1</v>
-      </c>
-      <c r="J203" t="s">
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G204" t="s">
-        <v>390</v>
-      </c>
-      <c r="I204">
-        <v>2</v>
-      </c>
-      <c r="J204" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G205" t="s">
-        <v>391</v>
-      </c>
-      <c r="I205">
-        <v>3</v>
-      </c>
-      <c r="J205" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G206" t="s">
-        <v>404</v>
-      </c>
-      <c r="I206">
-        <v>4</v>
-      </c>
-      <c r="J206" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I207">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I208">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I209">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J209" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="I210">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G211" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="I211">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J211" t="s">
-        <v>403</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>405</v>
+      </c>
+      <c r="I212">
+        <v>7</v>
+      </c>
+      <c r="J212" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>187</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
-      </c>
-      <c r="D213" t="b">
-        <v>1</v>
-      </c>
-      <c r="E213" t="s">
-        <v>194</v>
-      </c>
       <c r="G213" t="s">
-        <v>188</v>
+        <v>401</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="J213" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="I214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G215" t="s">
-        <v>190</v>
-      </c>
-      <c r="I215">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="J214" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>187</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>194</v>
+      </c>
       <c r="G216" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I217">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>190</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>193</v>
-      </c>
-      <c r="C219" t="b">
-        <v>0</v>
-      </c>
-      <c r="D219" t="b">
-        <v>1</v>
-      </c>
-      <c r="E219" t="s">
-        <v>195</v>
-      </c>
       <c r="G219" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G221" t="s">
-        <v>198</v>
-      </c>
-      <c r="I221">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>193</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>195</v>
+      </c>
       <c r="G222" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G223" t="s">
+        <v>197</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>198</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>199</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
         <v>200</v>
       </c>
-      <c r="I223">
+      <c r="I226">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
         <v>247</v>
       </c>
-      <c r="C225" t="b">
+      <c r="C228" t="b">
         <v>0</v>
       </c>
-      <c r="D225" t="b">
-        <v>1</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
         <v>248</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G228" t="s">
         <v>241</v>
       </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
         <v>242</v>
       </c>
-      <c r="I226">
+      <c r="I229">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G227" t="s">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
         <v>243</v>
       </c>
-      <c r="I227">
+      <c r="I230">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G228" t="s">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
         <v>246</v>
       </c>
-      <c r="I228">
+      <c r="I231">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G229" t="s">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
         <v>244</v>
       </c>
-      <c r="I229">
+      <c r="I232">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
         <v>245</v>
       </c>
-      <c r="I230">
+      <c r="I233">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
         <v>251</v>
       </c>
-      <c r="I231">
+      <c r="I234">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>429</v>
+      </c>
+      <c r="I235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
         <v>284</v>
-      </c>
-      <c r="C233" t="b">
-        <v>0</v>
-      </c>
-      <c r="D233" t="b">
-        <v>1</v>
-      </c>
-      <c r="E233" t="s">
-        <v>282</v>
-      </c>
-      <c r="G233" t="s">
-        <v>241</v>
-      </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G234" t="s">
-        <v>283</v>
-      </c>
-      <c r="I234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G235" t="s">
-        <v>369</v>
-      </c>
-      <c r="I235">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>285</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
@@ -4462,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G237" t="s">
         <v>241</v>
@@ -4471,54 +4548,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>362</v>
-      </c>
-      <c r="C240" t="b">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>283</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>369</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>285</v>
+      </c>
+      <c r="C241" t="b">
         <v>0</v>
       </c>
-      <c r="D240" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>363</v>
-      </c>
-      <c r="G240" t="s">
-        <v>317</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>286</v>
+      </c>
       <c r="G241" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="I241">
         <v>1</v>
-      </c>
-      <c r="J241" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G242" t="s">
-        <v>316</v>
-      </c>
-      <c r="I242">
-        <v>2</v>
-      </c>
-      <c r="J242" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -4527,34 +4595,43 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G244" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G245" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G246" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="I246">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J246" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -4563,52 +4640,43 @@
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G248" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248" t="s">
-        <v>368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G249" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I249">
-        <v>1</v>
-      </c>
-      <c r="J249" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G250" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I250">
-        <v>2</v>
-      </c>
-      <c r="J250" t="s">
-        <v>372</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
       </c>
       <c r="D252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G252" t="s">
         <v>283</v>
@@ -4622,125 +4690,204 @@
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G253" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G254" t="s">
-        <v>378</v>
-      </c>
-      <c r="I254">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>365</v>
+      </c>
+      <c r="C255" t="b">
         <v>0</v>
       </c>
-      <c r="J254" t="s">
-        <v>379</v>
+      <c r="D255" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>367</v>
+      </c>
+      <c r="G255" t="s">
+        <v>241</v>
+      </c>
+      <c r="I255">
+        <v>-1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>380</v>
-      </c>
-      <c r="C256" t="b">
+      <c r="G256" t="s">
+        <v>444</v>
+      </c>
+      <c r="I256">
         <v>0</v>
       </c>
-      <c r="D256" t="b">
-        <v>1</v>
-      </c>
-      <c r="E256" t="s">
-        <v>381</v>
-      </c>
-      <c r="G256" t="s">
-        <v>385</v>
-      </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
       <c r="J256" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G257" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>369</v>
+      </c>
+      <c r="I258">
         <v>2</v>
       </c>
-      <c r="J257" t="s">
-        <v>382</v>
+      <c r="J258" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>418</v>
-      </c>
-      <c r="C259" t="b">
+      <c r="G259" t="s">
+        <v>378</v>
+      </c>
+      <c r="I259">
         <v>0</v>
       </c>
-      <c r="D259" t="b">
-        <v>1</v>
-      </c>
-      <c r="E259" t="s">
-        <v>419</v>
-      </c>
-      <c r="G259" t="s">
-        <v>423</v>
-      </c>
-      <c r="I259">
-        <v>1</v>
-      </c>
       <c r="J259" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G260" t="s">
-        <v>426</v>
-      </c>
-      <c r="I260">
-        <v>2</v>
-      </c>
-      <c r="J260" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>380</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>381</v>
+      </c>
       <c r="G261" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="I261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G262" t="s">
+        <v>384</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>418</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>419</v>
+      </c>
+      <c r="G264" t="s">
+        <v>423</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>426</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G266" t="s">
         <v>424</v>
       </c>
-      <c r="I262">
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G267" t="s">
+        <v>425</v>
+      </c>
+      <c r="I267">
         <v>4</v>
       </c>
-      <c r="J262" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G263" t="s">
-        <v>425</v>
-      </c>
-      <c r="I263">
-        <v>5</v>
-      </c>
-      <c r="J263" t="s">
+      <c r="J267" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>435</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>440</v>
+      </c>
+      <c r="G269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>438</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E818F-DF8B-42F3-949F-71C7D450BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F476C65-1068-439B-80D2-6BC3FBBC9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="449">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,6 +1697,22 @@
   </si>
   <si>
     <t>AttackTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarFrameType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像框系列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2099,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K270"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4699,194 +4724,216 @@
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>445</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
         <v>365</v>
       </c>
-      <c r="C255" t="b">
+      <c r="C256" t="b">
         <v>0</v>
       </c>
-      <c r="D255" t="b">
+      <c r="D256" t="b">
         <v>0</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E256" t="s">
         <v>367</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G256" t="s">
         <v>241</v>
       </c>
-      <c r="I255">
+      <c r="I256">
         <v>-1</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J256" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G256" t="s">
-        <v>444</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G257" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G258" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G259" t="s">
+        <v>369</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
         <v>378</v>
       </c>
-      <c r="I259">
+      <c r="I260">
         <v>0</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J260" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+      <c r="G261" t="s">
+        <v>446</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>380</v>
       </c>
-      <c r="C261" t="b">
+      <c r="C263" t="b">
         <v>0</v>
       </c>
-      <c r="D261" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" t="s">
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
         <v>381</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G263" t="s">
         <v>385</v>
       </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
-      <c r="J261" t="s">
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G262" t="s">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
         <v>384</v>
       </c>
-      <c r="I262">
+      <c r="I264">
         <v>2</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J264" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
         <v>418</v>
       </c>
-      <c r="C264" t="b">
+      <c r="C266" t="b">
         <v>0</v>
       </c>
-      <c r="D264" t="b">
-        <v>1</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
         <v>419</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G266" t="s">
         <v>423</v>
       </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G265" t="s">
-        <v>426</v>
-      </c>
-      <c r="I265">
-        <v>2</v>
-      </c>
-      <c r="J265" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G266" t="s">
-        <v>424</v>
-      </c>
-      <c r="I266">
-        <v>3</v>
-      </c>
-      <c r="J266" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G267" t="s">
+        <v>426</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>424</v>
+      </c>
+      <c r="I268">
+        <v>3</v>
+      </c>
+      <c r="J268" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
         <v>425</v>
       </c>
-      <c r="I267">
+      <c r="I269">
         <v>4</v>
       </c>
-      <c r="J267" t="s">
+      <c r="J269" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>435</v>
       </c>
-      <c r="C269" t="b">
+      <c r="C271" t="b">
         <v>0</v>
       </c>
-      <c r="D269" t="b">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
         <v>440</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G271" t="s">
         <v>436</v>
       </c>
-      <c r="I269">
+      <c r="I271">
         <v>0</v>
       </c>
-      <c r="J269" t="s">
+      <c r="J271" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G270" t="s">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
         <v>438</v>
       </c>
-      <c r="I270">
-        <v>1</v>
-      </c>
-      <c r="J270" t="s">
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
         <v>439</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F476C65-1068-439B-80D2-6BC3FBBC9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17BF03-D800-4A24-A534-DD21D1800418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,14 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoinType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,15 +1040,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家可放置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerTowerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1266,9 +1241,6 @@
     <t>GamePlayTowerDefense_Status_InTheBattleEnd</t>
   </si>
   <si>
-    <t>GamePlayTowerDefense_Status_GameEnd</t>
-  </si>
-  <si>
     <t>监听 放置tower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1430,10 +1402,6 @@
   </si>
   <si>
     <t>掉落规则类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按权重单一掉落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1715,12 +1683,396 @@
     <t>头像框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_RefreshTowerBuyPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 刷新塔池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 Game游戏状态Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlay_Status_GameEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlay_Status_GameStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameNumericType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHpFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHpFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGoldFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGoldFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCountFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCountFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPriceFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPriceFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimesFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimesFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEndFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEndFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterFinalAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterFinalPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHpPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGoldBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGoldAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGoldPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCountBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCountAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCountPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPriceBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPriceAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPricePct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimesBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimesAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimesPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEndBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEndAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEndPct</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterBase</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterAdd</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterPct</t>
+  </si>
+  <si>
+    <t>大本营最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营当次恢复血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家限制塔数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家购买塔价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家复活次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家战斗结束奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家击杀奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHpBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerInitGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerLimitTowerCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerTowerPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerResurrectionTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenGameEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeMaxHpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHpBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHpPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHpFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_HomeRecoveryCurHpFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlay_Status_GameWaitForStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听 Game游戏状态WaitForStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType_PlayerGlobalBuff_ExtraLives</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_Damage</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_AttackRange</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_AttackInterval</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_ToTower_Damage</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_ToTower_AttackRange</t>
+  </si>
+  <si>
+    <t>BuffTagGroup_PlayerGlobalBuffTagGroup_ToTower_AttackInterval</t>
+  </si>
+  <si>
+    <t>CoinTypeInGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型(战斗内)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按权重单个掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcadeCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机代币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNumericType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeSelectObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe目标选择对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeChgList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeInList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在里面的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupNiao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillGroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNormalAttack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNormalAttack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +2098,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1795,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,6 +2166,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2124,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K272"/>
+  <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G257" sqref="G257"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2162,13 +2525,13 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2238,288 +2601,288 @@
         <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>408</v>
+        <v>21</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>409</v>
+        <v>22</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="J8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>430</v>
+        <v>264</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>6</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" t="s">
         <v>252</v>
       </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" t="s">
-        <v>254</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>255</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
         <v>263</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="J23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -2527,10 +2890,10 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
@@ -2538,109 +2901,109 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
@@ -2648,1950 +3011,1966 @@
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="I41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="I42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="I45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>433</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="I47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50">
         <v>26</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C51" t="b">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="D51" t="b">
+      <c r="D52" t="b">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>329</v>
-      </c>
-      <c r="G51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I51">
+      <c r="E52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>353</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>359</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>181</v>
+        <v>355</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>186</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
         <v>183</v>
-      </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>351</v>
+        <v>511</v>
       </c>
       <c r="I64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>343</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="I65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I72">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>351</v>
+      </c>
+      <c r="I73">
         <v>22</v>
       </c>
-      <c r="J72" t="s">
-        <v>348</v>
+      <c r="J73" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>106</v>
-      </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>71</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-      <c r="J77" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
+      </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>202</v>
-      </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
-        <v>218</v>
-      </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="J85" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>200</v>
+      </c>
       <c r="G86" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J91" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I92">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J93" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94">
+        <v>9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>234</v>
-      </c>
       <c r="G95" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J95" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J96" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
+        <v>224</v>
+      </c>
+      <c r="I97">
+        <v>12</v>
+      </c>
+      <c r="J97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>232</v>
+      </c>
+      <c r="G99" t="s">
+        <v>225</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>226</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
         <v>229</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>387</v>
-      </c>
-      <c r="G100" t="s">
-        <v>386</v>
-      </c>
-      <c r="I100">
-        <v>10001</v>
-      </c>
-      <c r="J100" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="I101">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
-        <v>87</v>
-      </c>
-      <c r="I102">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G103" t="s">
-        <v>88</v>
-      </c>
-      <c r="I103">
-        <v>10004</v>
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>381</v>
+      </c>
       <c r="G104" t="s">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="I104">
-        <v>10005</v>
+        <v>10001</v>
+      </c>
+      <c r="J104" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="I105">
-        <v>10011</v>
-      </c>
-      <c r="J105" t="s">
-        <v>173</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="I106">
-        <v>10012</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="I107">
-        <v>10013</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="I108">
-        <v>10014</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I109">
-        <v>10015</v>
+        <v>10011</v>
+      </c>
+      <c r="J109" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="I110">
-        <v>10021</v>
-      </c>
-      <c r="J110" t="s">
-        <v>173</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="I111">
-        <v>10022</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I112">
-        <v>10023</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="I113">
-        <v>10024</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="I114">
-        <v>10025</v>
+        <v>10051</v>
+      </c>
+      <c r="J114" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="I115">
-        <v>10031</v>
-      </c>
-      <c r="J115" t="s">
-        <v>172</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="I116">
-        <v>10032</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="I117">
-        <v>10033</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="I118">
-        <v>10034</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I119">
-        <v>10035</v>
+        <v>10061</v>
+      </c>
+      <c r="J119" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I120">
-        <v>10051</v>
-      </c>
-      <c r="J120" t="s">
-        <v>287</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="I121">
-        <v>10052</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>290</v>
+        <v>92</v>
       </c>
       <c r="I122">
-        <v>10053</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="I123">
-        <v>10054</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="I124">
-        <v>10055</v>
+        <v>10071</v>
+      </c>
+      <c r="J124" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I125">
-        <v>10061</v>
-      </c>
-      <c r="J125" t="s">
-        <v>98</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="I126">
-        <v>10062</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I127">
-        <v>10063</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I128">
-        <v>10064</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="I129">
-        <v>10065</v>
+        <v>10081</v>
+      </c>
+      <c r="J129" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="I130">
-        <v>10071</v>
-      </c>
-      <c r="J130" t="s">
-        <v>99</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="I131">
-        <v>10072</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="I132">
-        <v>10073</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="I133">
-        <v>10074</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="I134">
-        <v>10075</v>
+        <v>10091</v>
+      </c>
+      <c r="J134" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I135">
-        <v>10081</v>
-      </c>
-      <c r="J135" t="s">
-        <v>298</v>
+        <v>10092</v>
       </c>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I136">
-        <v>10082</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="I137">
-        <v>10083</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I138">
-        <v>10084</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I139">
-        <v>10085</v>
+        <v>10101</v>
+      </c>
+      <c r="J139" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I140">
-        <v>10091</v>
-      </c>
-      <c r="J140" t="s">
-        <v>303</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I141">
-        <v>10092</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I142">
-        <v>10093</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="I143">
-        <v>10094</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I144">
-        <v>10095</v>
+        <v>10111</v>
+      </c>
+      <c r="J144" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I145">
-        <v>10101</v>
-      </c>
-      <c r="J145" t="s">
-        <v>309</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I146">
-        <v>10102</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I147">
-        <v>10103</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I148">
-        <v>10104</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G149" t="s">
-        <v>307</v>
-      </c>
-      <c r="I149">
-        <v>10105</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>529</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>381</v>
+      </c>
       <c r="G150" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="I150">
-        <v>10111</v>
+        <v>10021</v>
       </c>
       <c r="J150" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="I151">
-        <v>10112</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="I152">
-        <v>10113</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="I153">
-        <v>10114</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="I154">
-        <v>10115</v>
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>174</v>
+      </c>
+      <c r="I155">
+        <v>10031</v>
+      </c>
+      <c r="J155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>175</v>
+      </c>
+      <c r="I156">
+        <v>10032</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" t="b">
-        <v>0</v>
-      </c>
-      <c r="D157" t="b">
-        <v>1</v>
-      </c>
-      <c r="E157" t="s">
-        <v>137</v>
-      </c>
       <c r="G157" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
+        <v>178</v>
+      </c>
+      <c r="I159">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>545</v>
+      </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>548</v>
+      </c>
+      <c r="G161" t="s">
+        <v>239</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>546</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>547</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>137</v>
+      </c>
+      <c r="G165" t="s">
+        <v>134</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>135</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
         <v>136</v>
       </c>
-      <c r="I159">
+      <c r="I167">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G160" t="s">
-        <v>280</v>
-      </c>
-      <c r="I160">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>278</v>
+      </c>
+      <c r="I168">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G161" t="s">
-        <v>281</v>
-      </c>
-      <c r="I161">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>279</v>
+      </c>
+      <c r="I169">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G162" s="3" t="s">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G171" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G172" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G174" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I162">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G163" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G164" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I164">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G165" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I165">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G166" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I166">
+      <c r="I174">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G167" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="I167">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G175" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I175">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G176" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="I176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G177" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G178" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I178">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G179" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G180" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="I180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G181" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="I181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G182" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G183" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="I183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G186" s="4"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>101</v>
       </c>
-      <c r="C169" t="b">
+      <c r="C188" t="b">
         <v>0</v>
       </c>
-      <c r="D169" t="b">
+      <c r="D188" t="b">
         <v>1</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E188" t="s">
         <v>110</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G188" t="s">
         <v>144</v>
       </c>
-      <c r="I169">
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J188" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G170" t="s">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
         <v>145</v>
       </c>
-      <c r="I170">
+      <c r="I189">
         <v>2</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J189" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G171" t="s">
-        <v>146</v>
-      </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
-      <c r="J171" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G172" t="s">
-        <v>147</v>
-      </c>
-      <c r="I172">
-        <v>4</v>
-      </c>
-      <c r="J172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G173" t="s">
-        <v>148</v>
-      </c>
-      <c r="I173">
-        <v>5</v>
-      </c>
-      <c r="J173" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G174" t="s">
-        <v>149</v>
-      </c>
-      <c r="I174">
-        <v>6</v>
-      </c>
-      <c r="J174" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G175" t="s">
-        <v>150</v>
-      </c>
-      <c r="I175">
-        <v>7</v>
-      </c>
-      <c r="J175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G176" t="s">
-        <v>151</v>
-      </c>
-      <c r="I176">
-        <v>8</v>
-      </c>
-      <c r="J176" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G177" t="s">
-        <v>152</v>
-      </c>
-      <c r="I177">
-        <v>9</v>
-      </c>
-      <c r="J177" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G178" t="s">
-        <v>153</v>
-      </c>
-      <c r="I178">
-        <v>10</v>
-      </c>
-      <c r="J178" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G179" t="s">
-        <v>411</v>
-      </c>
-      <c r="I179">
-        <v>11</v>
-      </c>
-      <c r="J179" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G180" t="s">
-        <v>154</v>
-      </c>
-      <c r="I180">
-        <v>12</v>
-      </c>
-      <c r="J180" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G181" t="s">
-        <v>239</v>
-      </c>
-      <c r="I181">
-        <v>13</v>
-      </c>
-      <c r="J181" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G182" t="s">
-        <v>237</v>
-      </c>
-      <c r="I182">
-        <v>14</v>
-      </c>
-      <c r="J182" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G183" t="s">
-        <v>240</v>
-      </c>
-      <c r="I183">
-        <v>15</v>
-      </c>
-      <c r="J183" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G184" t="s">
-        <v>102</v>
-      </c>
-      <c r="I184">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G185" t="s">
-        <v>103</v>
-      </c>
-      <c r="I185">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G186" t="s">
-        <v>104</v>
-      </c>
-      <c r="I186">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G187" t="s">
-        <v>105</v>
-      </c>
-      <c r="I187">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>111</v>
-      </c>
-      <c r="C189" t="b">
-        <v>0</v>
-      </c>
-      <c r="D189" t="b">
-        <v>1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>112</v>
-      </c>
-      <c r="G189" t="s">
-        <v>115</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G190" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>250</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>148</v>
+      </c>
+      <c r="I192">
+        <v>5</v>
+      </c>
+      <c r="J192" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>118</v>
-      </c>
-      <c r="C193" t="b">
-        <v>0</v>
-      </c>
-      <c r="D193" t="b">
-        <v>1</v>
-      </c>
-      <c r="E193" t="s">
-        <v>119</v>
-      </c>
       <c r="G193" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J193" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J194" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J195" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G196" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J196" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="I197">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J197" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
-        <v>125</v>
+        <v>405</v>
       </c>
       <c r="I198">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J198" t="s">
-        <v>131</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>154</v>
+      </c>
+      <c r="I199">
+        <v>12</v>
+      </c>
+      <c r="J199" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" t="b">
-        <v>0</v>
-      </c>
-      <c r="D200" t="b">
-        <v>1</v>
-      </c>
-      <c r="E200" t="s">
-        <v>163</v>
-      </c>
       <c r="G200" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J200" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J202" t="s">
-        <v>167</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>102</v>
+      </c>
+      <c r="I203">
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>158</v>
-      </c>
-      <c r="C204" t="b">
+      <c r="G204" t="s">
+        <v>103</v>
+      </c>
+      <c r="I204">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>104</v>
+      </c>
+      <c r="I205">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>105</v>
+      </c>
+      <c r="I206">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" t="b">
         <v>0</v>
       </c>
-      <c r="D204" t="b">
+      <c r="D208" t="b">
         <v>1</v>
       </c>
-      <c r="E204" t="s">
-        <v>159</v>
-      </c>
-      <c r="G204" t="s">
-        <v>160</v>
-      </c>
-      <c r="I204">
+      <c r="E208" t="s">
+        <v>112</v>
+      </c>
+      <c r="G208" t="s">
+        <v>115</v>
+      </c>
+      <c r="I208">
         <v>1</v>
       </c>
-      <c r="J204" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>388</v>
-      </c>
-      <c r="C206" t="b">
-        <v>0</v>
-      </c>
-      <c r="D206" t="b">
-        <v>1</v>
-      </c>
-      <c r="E206" t="s">
-        <v>389</v>
-      </c>
-      <c r="G206" t="s">
-        <v>394</v>
-      </c>
-      <c r="I206">
-        <v>1</v>
-      </c>
-      <c r="J206" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G207" t="s">
-        <v>390</v>
-      </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G208" t="s">
-        <v>391</v>
-      </c>
-      <c r="I208">
-        <v>3</v>
-      </c>
       <c r="J208" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G209" t="s">
-        <v>404</v>
+        <v>116</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
-        <v>392</v>
+        <v>247</v>
       </c>
       <c r="I210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G211" t="s">
-        <v>393</v>
-      </c>
-      <c r="I211">
-        <v>6</v>
-      </c>
-      <c r="J211" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>119</v>
+      </c>
       <c r="G212" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="I212">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>406</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="I213">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>400</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="I214">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>403</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>123</v>
+      </c>
+      <c r="I215">
+        <v>4</v>
+      </c>
+      <c r="J215" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>187</v>
-      </c>
-      <c r="C216" t="b">
-        <v>0</v>
-      </c>
-      <c r="D216" t="b">
-        <v>1</v>
-      </c>
-      <c r="E216" t="s">
-        <v>194</v>
-      </c>
       <c r="G216" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J216" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="I217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G218" t="s">
-        <v>190</v>
-      </c>
-      <c r="I218">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="J217" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>161</v>
+      </c>
       <c r="G219" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="I219">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>166</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>520</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>521</v>
+      </c>
+      <c r="G223" t="s">
+        <v>158</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>536</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>537</v>
+      </c>
+      <c r="G225" t="s">
+        <v>538</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>539</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>540</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>382</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>383</v>
+      </c>
+      <c r="G229" t="s">
+        <v>388</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>430</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>533</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>384</v>
+      </c>
+      <c r="I232">
+        <v>4</v>
+      </c>
+      <c r="J232" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>385</v>
+      </c>
+      <c r="I233">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>193</v>
-      </c>
-      <c r="C222" t="b">
-        <v>0</v>
-      </c>
-      <c r="D222" t="b">
-        <v>1</v>
-      </c>
-      <c r="E222" t="s">
-        <v>195</v>
-      </c>
-      <c r="G222" t="s">
-        <v>196</v>
-      </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G223" t="s">
-        <v>197</v>
-      </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
-        <v>198</v>
-      </c>
-      <c r="I224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G225" t="s">
-        <v>199</v>
-      </c>
-      <c r="I225">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
-        <v>200</v>
-      </c>
-      <c r="I226">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>247</v>
-      </c>
-      <c r="C228" t="b">
-        <v>0</v>
-      </c>
-      <c r="D228" t="b">
-        <v>1</v>
-      </c>
-      <c r="E228" t="s">
-        <v>248</v>
-      </c>
-      <c r="G228" t="s">
-        <v>241</v>
-      </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G229" t="s">
-        <v>242</v>
-      </c>
-      <c r="I229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
-        <v>243</v>
-      </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
-        <v>246</v>
-      </c>
-      <c r="I231">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G232" t="s">
-        <v>244</v>
-      </c>
-      <c r="I232">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G233" t="s">
-        <v>245</v>
-      </c>
-      <c r="I233">
+      <c r="J233" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>398</v>
+      </c>
+      <c r="I234">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G234" t="s">
-        <v>251</v>
-      </c>
-      <c r="I234">
+      <c r="J234" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>386</v>
+      </c>
+      <c r="I235">
         <v>7</v>
       </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G235" t="s">
-        <v>429</v>
-      </c>
-      <c r="I235">
+      <c r="J235" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>387</v>
+      </c>
+      <c r="I236">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C237" t="b">
-        <v>0</v>
-      </c>
-      <c r="D237" t="b">
-        <v>1</v>
-      </c>
-      <c r="E237" t="s">
-        <v>282</v>
-      </c>
+      <c r="J236" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G237" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="I237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J237" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="I238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J238" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="I239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J239" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
@@ -4600,256 +4979,220 @@
         <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="G241" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="I241">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
-        <v>362</v>
-      </c>
-      <c r="C244" t="b">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>187</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>188</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>189</v>
+      </c>
+      <c r="I244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>190</v>
+      </c>
+      <c r="I245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>191</v>
+      </c>
+      <c r="C247" t="b">
         <v>0</v>
       </c>
-      <c r="D244" t="b">
+      <c r="D247" t="b">
         <v>1</v>
       </c>
-      <c r="E244" t="s">
-        <v>363</v>
-      </c>
-      <c r="G244" t="s">
-        <v>317</v>
-      </c>
-      <c r="I244">
+      <c r="E247" t="s">
+        <v>193</v>
+      </c>
+      <c r="G247" t="s">
+        <v>194</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>195</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>196</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>197</v>
+      </c>
+      <c r="I250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>198</v>
+      </c>
+      <c r="I251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>245</v>
+      </c>
+      <c r="C253" t="b">
         <v>0</v>
       </c>
-      <c r="J244" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G245" t="s">
-        <v>318</v>
-      </c>
-      <c r="I245">
+      <c r="D253" t="b">
         <v>1</v>
       </c>
-      <c r="J245" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G246" t="s">
-        <v>316</v>
-      </c>
-      <c r="I246">
-        <v>2</v>
-      </c>
-      <c r="J246" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
-        <v>377</v>
-      </c>
-      <c r="C248" t="b">
-        <v>0</v>
-      </c>
-      <c r="D248" t="b">
-        <v>1</v>
-      </c>
-      <c r="E248" t="s">
-        <v>373</v>
-      </c>
-      <c r="G248" t="s">
-        <v>374</v>
-      </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G249" t="s">
-        <v>375</v>
-      </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G250" t="s">
-        <v>376</v>
-      </c>
-      <c r="I250">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
-        <v>364</v>
-      </c>
-      <c r="C252" t="b">
-        <v>0</v>
-      </c>
-      <c r="D252" t="b">
-        <v>1</v>
-      </c>
-      <c r="E252" t="s">
-        <v>366</v>
-      </c>
-      <c r="G252" t="s">
-        <v>283</v>
-      </c>
-      <c r="I252">
-        <v>0</v>
-      </c>
-      <c r="J252" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>246</v>
+      </c>
       <c r="G253" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G254" t="s">
-        <v>445</v>
+        <v>240</v>
       </c>
       <c r="I254">
         <v>2</v>
       </c>
-      <c r="J254" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>365</v>
-      </c>
-      <c r="C256" t="b">
-        <v>0</v>
-      </c>
-      <c r="D256" t="b">
-        <v>0</v>
-      </c>
-      <c r="E256" t="s">
-        <v>367</v>
-      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>241</v>
+      </c>
+      <c r="I255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G256" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I256">
-        <v>-1</v>
-      </c>
-      <c r="J256" t="s">
-        <v>441</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G257" t="s">
-        <v>444</v>
+        <v>242</v>
       </c>
       <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>368</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G258" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="I258">
-        <v>1</v>
-      </c>
-      <c r="J258" t="s">
-        <v>443</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G259" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="I259">
-        <v>2</v>
-      </c>
-      <c r="J259" t="s">
-        <v>370</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G260" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="I260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>443</v>
+      </c>
+      <c r="C262" t="b">
         <v>0</v>
       </c>
-      <c r="J260" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G261" t="s">
-        <v>446</v>
-      </c>
-      <c r="I261">
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>444</v>
+      </c>
+      <c r="G262" t="s">
+        <v>239</v>
+      </c>
+      <c r="I262">
         <v>0</v>
       </c>
-      <c r="J261" t="s">
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
-        <v>380</v>
-      </c>
-      <c r="C263" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" t="b">
-        <v>1</v>
-      </c>
-      <c r="E263" t="s">
-        <v>381</v>
-      </c>
-      <c r="G263" t="s">
-        <v>385</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G264" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
@@ -4858,83 +5201,792 @@
         <v>1</v>
       </c>
       <c r="E266" t="s">
+        <v>282</v>
+      </c>
+      <c r="G266" t="s">
+        <v>239</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>357</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>358</v>
+      </c>
+      <c r="G269" t="s">
+        <v>313</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>314</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G271" t="s">
+        <v>312</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>372</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>368</v>
+      </c>
+      <c r="G273" t="s">
+        <v>369</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G274" t="s">
+        <v>370</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>371</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>359</v>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>361</v>
+      </c>
+      <c r="G277" t="s">
+        <v>280</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G278" t="s">
+        <v>366</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G279" t="s">
+        <v>439</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>523</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>360</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>362</v>
+      </c>
+      <c r="G282" t="s">
+        <v>239</v>
+      </c>
+      <c r="I282">
+        <v>-1</v>
+      </c>
+      <c r="J282" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G283" t="s">
+        <v>438</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G284" t="s">
+        <v>436</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G285" t="s">
+        <v>364</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G286" t="s">
+        <v>373</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G287" t="s">
+        <v>440</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G288" t="s">
+        <v>524</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G289" t="s">
+        <v>527</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>375</v>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>376</v>
+      </c>
+      <c r="G291" t="s">
+        <v>379</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G292" t="s">
+        <v>378</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>412</v>
+      </c>
+      <c r="C294" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" t="b">
+        <v>1</v>
+      </c>
+      <c r="E294" t="s">
+        <v>413</v>
+      </c>
+      <c r="G294" t="s">
+        <v>417</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G295" t="s">
+        <v>420</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>418</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G297" t="s">
         <v>419</v>
       </c>
-      <c r="G266" t="s">
-        <v>423</v>
-      </c>
-      <c r="I266">
+      <c r="I297">
+        <v>4</v>
+      </c>
+      <c r="J297" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>429</v>
+      </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" t="b">
         <v>1</v>
       </c>
-      <c r="J266" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G267" t="s">
-        <v>426</v>
-      </c>
-      <c r="I267">
-        <v>2</v>
-      </c>
-      <c r="J267" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G268" t="s">
-        <v>424</v>
-      </c>
-      <c r="I268">
-        <v>3</v>
-      </c>
-      <c r="J268" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G269" t="s">
-        <v>425</v>
-      </c>
-      <c r="I269">
-        <v>4</v>
-      </c>
-      <c r="J269" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>435</v>
-      </c>
-      <c r="C271" t="b">
+      <c r="E299" t="s">
+        <v>434</v>
+      </c>
+      <c r="G299" t="s">
+        <v>430</v>
+      </c>
+      <c r="I299">
         <v>0</v>
       </c>
-      <c r="D271" t="b">
+      <c r="J299" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G300" t="s">
+        <v>432</v>
+      </c>
+      <c r="I300">
         <v>1</v>
       </c>
-      <c r="E271" t="s">
-        <v>440</v>
-      </c>
-      <c r="G271" t="s">
-        <v>436</v>
-      </c>
-      <c r="I271">
+      <c r="J300" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>454</v>
+      </c>
+      <c r="C302" t="b">
         <v>0</v>
       </c>
-      <c r="J271" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G272" t="s">
-        <v>438</v>
-      </c>
-      <c r="I272">
+      <c r="D302" t="b">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>439</v>
+      <c r="G302" t="s">
+        <v>497</v>
+      </c>
+      <c r="I302">
+        <v>1000</v>
+      </c>
+      <c r="J302" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E303" s="5"/>
+      <c r="G303" t="s">
+        <v>496</v>
+      </c>
+      <c r="I303">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G304" t="s">
+        <v>504</v>
+      </c>
+      <c r="I304">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="305" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G305" t="s">
+        <v>469</v>
+      </c>
+      <c r="I305">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="306" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G306" t="s">
+        <v>455</v>
+      </c>
+      <c r="I306">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="307" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G307" t="s">
+        <v>456</v>
+      </c>
+      <c r="I307">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="308" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G308" t="s">
+        <v>505</v>
+      </c>
+      <c r="I308">
+        <v>1001</v>
+      </c>
+      <c r="J308" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="309" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G309" t="s">
+        <v>506</v>
+      </c>
+      <c r="I309">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="310" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G310" t="s">
+        <v>507</v>
+      </c>
+      <c r="I310">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="311" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G311" t="s">
+        <v>508</v>
+      </c>
+      <c r="I311">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="312" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G312" t="s">
+        <v>509</v>
+      </c>
+      <c r="I312">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="313" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G313" t="s">
+        <v>510</v>
+      </c>
+      <c r="I313">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G314" t="s">
+        <v>498</v>
+      </c>
+      <c r="I314">
+        <v>1002</v>
+      </c>
+      <c r="J314" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G315" t="s">
+        <v>470</v>
+      </c>
+      <c r="I315">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G316" t="s">
+        <v>471</v>
+      </c>
+      <c r="I316">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G317" t="s">
+        <v>472</v>
+      </c>
+      <c r="I317">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G318" t="s">
+        <v>457</v>
+      </c>
+      <c r="I318">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G319" t="s">
+        <v>458</v>
+      </c>
+      <c r="I319">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G320" t="s">
+        <v>499</v>
+      </c>
+      <c r="I320">
+        <v>1003</v>
+      </c>
+      <c r="J320" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G321" t="s">
+        <v>473</v>
+      </c>
+      <c r="I321">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="322" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G322" t="s">
+        <v>474</v>
+      </c>
+      <c r="I322">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="323" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G323" t="s">
+        <v>475</v>
+      </c>
+      <c r="I323">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="324" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G324" t="s">
+        <v>459</v>
+      </c>
+      <c r="I324">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="325" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G325" t="s">
+        <v>460</v>
+      </c>
+      <c r="I325">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="326" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G326" t="s">
+        <v>500</v>
+      </c>
+      <c r="I326">
+        <v>1004</v>
+      </c>
+      <c r="J326" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="327" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G327" t="s">
+        <v>476</v>
+      </c>
+      <c r="I327">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="328" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G328" t="s">
+        <v>477</v>
+      </c>
+      <c r="I328">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="329" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G329" t="s">
+        <v>478</v>
+      </c>
+      <c r="I329">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="330" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G330" t="s">
+        <v>461</v>
+      </c>
+      <c r="I330">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="331" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G331" t="s">
+        <v>462</v>
+      </c>
+      <c r="I331">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="332" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G332" t="s">
+        <v>501</v>
+      </c>
+      <c r="I332">
+        <v>1005</v>
+      </c>
+      <c r="J332" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="333" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G333" t="s">
+        <v>479</v>
+      </c>
+      <c r="I333">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="334" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G334" t="s">
+        <v>480</v>
+      </c>
+      <c r="I334">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="335" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G335" t="s">
+        <v>481</v>
+      </c>
+      <c r="I335">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="336" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G336" t="s">
+        <v>463</v>
+      </c>
+      <c r="I336">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="337" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G337" t="s">
+        <v>464</v>
+      </c>
+      <c r="I337">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="338" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G338" t="s">
+        <v>502</v>
+      </c>
+      <c r="I338">
+        <v>1006</v>
+      </c>
+      <c r="J338" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="339" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G339" t="s">
+        <v>482</v>
+      </c>
+      <c r="I339">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="340" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G340" t="s">
+        <v>483</v>
+      </c>
+      <c r="I340">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="341" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G341" t="s">
+        <v>484</v>
+      </c>
+      <c r="I341">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="342" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G342" t="s">
+        <v>465</v>
+      </c>
+      <c r="I342">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="343" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G343" t="s">
+        <v>466</v>
+      </c>
+      <c r="I343">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="344" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G344" t="s">
+        <v>503</v>
+      </c>
+      <c r="I344">
+        <v>1007</v>
+      </c>
+      <c r="J344" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="345" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G345" t="s">
+        <v>485</v>
+      </c>
+      <c r="I345">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="346" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G346" t="s">
+        <v>486</v>
+      </c>
+      <c r="I346">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="347" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G347" t="s">
+        <v>487</v>
+      </c>
+      <c r="I347">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="348" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G348" t="s">
+        <v>467</v>
+      </c>
+      <c r="I348">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="349" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G349" t="s">
+        <v>468</v>
+      </c>
+      <c r="I349">
+        <v>10075</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17BF03-D800-4A24-A534-DD21D1800418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB26503-84FB-4DB6-8DB5-3CC7A07D70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="549">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,9 +534,6 @@
   </si>
   <si>
     <t>强霸体</t>
-  </si>
-  <si>
-    <t>虚弱(和霸体共存期间相当于无霸体)</t>
   </si>
   <si>
     <t>完全霸体（霸体表示 不受击退，击飞，禁锢等控制）</t>
@@ -1427,83 +1433,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObjectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标选择对象类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Friends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hostiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HostilePlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友军玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌军玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllButNotPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有非玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendButNotPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HostileButNotPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌军非玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友军非玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2004,18 +1942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelfPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己所有对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AoeSelectObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2065,6 +1991,89 @@
   </si>
   <si>
     <t>技能组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrongWeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱(和弱霸体共存期间相当于无霸体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱(和强霸体共存期间相当于无霸体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideToIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlyPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectUnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>DemoShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoShow模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARHeadset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头显模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceGameMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2487,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K349"/>
+  <dimension ref="A1:K350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="B328" workbookViewId="0">
+      <selection activeCell="J347" sqref="J347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2601,13 +2610,13 @@
         <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2623,7 +2632,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2645,13 +2654,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,24 +2699,24 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2734,7 +2743,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2743,82 +2752,82 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
         <v>251</v>
       </c>
-      <c r="G17" t="s">
-        <v>252</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -2879,7 +2888,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -2890,7 +2899,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -2901,7 +2910,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31">
         <v>7</v>
@@ -3022,13 +3031,13 @@
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I42">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
@@ -3044,46 +3053,46 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I44">
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I45">
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="I46">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="I47">
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
@@ -3110,7 +3119,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I50">
         <v>26</v>
@@ -3121,7 +3130,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3130,280 +3139,280 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I55">
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I56">
         <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I57">
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I58">
         <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I59">
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I60">
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I62">
         <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I63">
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="I64">
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="I65">
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I66">
         <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I67">
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I68">
         <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I69">
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I70">
         <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I71">
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I72">
         <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I73">
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I74">
         <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I75">
         <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="I76">
         <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -3497,7 +3506,7 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -3506,142 +3515,142 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
         <v>200</v>
-      </c>
-      <c r="G86" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I90">
         <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I91">
         <v>6</v>
       </c>
       <c r="J91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I92">
         <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I93">
         <v>8</v>
       </c>
       <c r="J93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I94">
         <v>9</v>
       </c>
       <c r="J94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I95">
         <v>10</v>
       </c>
       <c r="J95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I96">
         <v>11</v>
       </c>
       <c r="J96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I97">
         <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -3650,38 +3659,38 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I101">
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -3695,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I104">
         <v>10001</v>
@@ -3741,18 +3750,18 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I109">
         <v>10011</v>
       </c>
       <c r="J109" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I110">
         <v>10012</v>
@@ -3760,7 +3769,7 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I111">
         <v>10013</v>
@@ -3768,7 +3777,7 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I112">
         <v>10014</v>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I113">
         <v>10015</v>
@@ -3784,18 +3793,18 @@
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I114">
         <v>10051</v>
       </c>
       <c r="J114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I115">
         <v>10052</v>
@@ -3803,7 +3812,7 @@
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I116">
         <v>10053</v>
@@ -3811,7 +3820,7 @@
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I117">
         <v>10054</v>
@@ -3819,7 +3828,7 @@
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I118">
         <v>10055</v>
@@ -3870,7 +3879,7 @@
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I124">
         <v>10071</v>
@@ -3913,18 +3922,18 @@
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I129">
         <v>10081</v>
       </c>
       <c r="J129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I130">
         <v>10082</v>
@@ -3932,7 +3941,7 @@
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I131">
         <v>10083</v>
@@ -3940,7 +3949,7 @@
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I132">
         <v>10084</v>
@@ -3948,7 +3957,7 @@
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I133">
         <v>10085</v>
@@ -3956,18 +3965,18 @@
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I134">
         <v>10091</v>
       </c>
       <c r="J134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I135">
         <v>10092</v>
@@ -3975,7 +3984,7 @@
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I136">
         <v>10093</v>
@@ -3983,7 +3992,7 @@
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I137">
         <v>10094</v>
@@ -3991,7 +4000,7 @@
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I138">
         <v>10095</v>
@@ -3999,18 +4008,18 @@
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I139">
         <v>10101</v>
       </c>
       <c r="J139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I140">
         <v>10102</v>
@@ -4018,7 +4027,7 @@
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I141">
         <v>10103</v>
@@ -4026,7 +4035,7 @@
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I142">
         <v>10104</v>
@@ -4034,7 +4043,7 @@
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I143">
         <v>10105</v>
@@ -4042,18 +4051,18 @@
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I144">
         <v>10111</v>
       </c>
       <c r="J144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I145">
         <v>10112</v>
@@ -4061,7 +4070,7 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I146">
         <v>10113</v>
@@ -4069,7 +4078,7 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I147">
         <v>10114</v>
@@ -4077,7 +4086,7 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I148">
         <v>10115</v>
@@ -4085,7 +4094,7 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -4094,21 +4103,21 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I150">
         <v>10021</v>
       </c>
       <c r="J150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I151">
         <v>10022</v>
@@ -4116,7 +4125,7 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I152">
         <v>10023</v>
@@ -4124,7 +4133,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I153">
         <v>10024</v>
@@ -4132,7 +4141,7 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I154">
         <v>10025</v>
@@ -4140,18 +4149,18 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I155">
         <v>10031</v>
       </c>
       <c r="J155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I156">
         <v>10032</v>
@@ -4159,7 +4168,7 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I157">
         <v>10033</v>
@@ -4167,7 +4176,7 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I158">
         <v>10034</v>
@@ -4175,7 +4184,7 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I159">
         <v>10035</v>
@@ -4183,7 +4192,7 @@
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -4192,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -4203,7 +4212,7 @@
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -4211,7 +4220,7 @@
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -4255,7 +4264,7 @@
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -4263,7 +4272,7 @@
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I169">
         <v>5</v>
@@ -4271,7 +4280,7 @@
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G170" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I170">
         <v>6</v>
@@ -4279,7 +4288,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G171" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I171">
         <v>7</v>
@@ -4287,7 +4296,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G172" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I172">
         <v>8</v>
@@ -4295,7 +4304,7 @@
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G173" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I173">
         <v>9</v>
@@ -4303,7 +4312,7 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G174" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I174">
         <v>10</v>
@@ -4311,7 +4320,7 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G175" s="4" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="I175">
         <v>11</v>
@@ -4319,7 +4328,7 @@
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G176" s="4" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="I176">
         <v>12</v>
@@ -4327,7 +4336,7 @@
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G177" s="4" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="I177">
         <v>13</v>
@@ -4335,7 +4344,7 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G178" s="4" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="I178">
         <v>14</v>
@@ -4343,7 +4352,7 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G179" s="4" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="I179">
         <v>15</v>
@@ -4351,7 +4360,7 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G180" s="4" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="I180">
         <v>16</v>
@@ -4359,7 +4368,7 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G181" s="4" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="I181">
         <v>17</v>
@@ -4367,7 +4376,7 @@
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G182" s="4" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="I182">
         <v>18</v>
@@ -4375,7 +4384,7 @@
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G183" s="6" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="I183">
         <v>19</v>
@@ -4404,7 +4413,7 @@
         <v>110</v>
       </c>
       <c r="G188" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -4415,7 +4424,7 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G189" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -4426,334 +4435,334 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I190">
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
-        <v>147</v>
+        <v>528</v>
       </c>
       <c r="I191">
         <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>141</v>
+        <v>530</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I192">
         <v>5</v>
       </c>
       <c r="J192" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I193">
         <v>6</v>
       </c>
       <c r="J193" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I194">
         <v>7</v>
       </c>
       <c r="J194" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I195">
         <v>8</v>
       </c>
       <c r="J195" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I196">
         <v>9</v>
       </c>
       <c r="J196" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I197">
         <v>10</v>
       </c>
       <c r="J197" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="I198">
         <v>11</v>
       </c>
       <c r="J198" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="I199">
         <v>12</v>
       </c>
       <c r="J199" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="I200">
         <v>13</v>
       </c>
       <c r="J200" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G201" t="s">
-        <v>235</v>
       </c>
       <c r="I201">
         <v>14</v>
       </c>
       <c r="J201" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G202" t="s">
-        <v>238</v>
       </c>
       <c r="I202">
         <v>15</v>
       </c>
       <c r="J202" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="I203">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I204">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I205">
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I206">
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+    <row r="207" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>105</v>
+      </c>
+      <c r="I207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>111</v>
       </c>
-      <c r="C208" t="b">
+      <c r="C209" t="b">
         <v>0</v>
       </c>
-      <c r="D208" t="b">
-        <v>1</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
         <v>112</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G209" t="s">
         <v>115</v>
       </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208" t="s">
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G209" t="s">
-        <v>116</v>
-      </c>
-      <c r="I209">
-        <v>2</v>
-      </c>
-      <c r="J209" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
+        <v>116</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>246</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211" t="s">
         <v>247</v>
       </c>
-      <c r="I210">
-        <v>3</v>
-      </c>
-      <c r="J210" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>118</v>
       </c>
-      <c r="C212" t="b">
+      <c r="C213" t="b">
         <v>0</v>
       </c>
-      <c r="D212" t="b">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
         <v>119</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G213" t="s">
         <v>120</v>
       </c>
-      <c r="I212">
-        <v>1</v>
-      </c>
-      <c r="J212" t="s">
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G213" t="s">
-        <v>121</v>
-      </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
+        <v>124</v>
+      </c>
+      <c r="I217">
+        <v>5</v>
+      </c>
+      <c r="J217" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
         <v>125</v>
       </c>
-      <c r="I217">
+      <c r="I218">
         <v>6</v>
       </c>
-      <c r="J217" t="s">
+      <c r="J218" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>159</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
         <v>160</v>
       </c>
-      <c r="C219" t="b">
-        <v>0</v>
-      </c>
-      <c r="D219" t="b">
-        <v>1</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="G220" t="s">
         <v>161</v>
       </c>
-      <c r="G219" t="s">
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
         <v>162</v>
-      </c>
-      <c r="I219">
-        <v>1</v>
-      </c>
-      <c r="J219" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G220" t="s">
-        <v>167</v>
-      </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
-      <c r="J220" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.25">
@@ -4761,1232 +4770,1230 @@
         <v>166</v>
       </c>
       <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>165</v>
+      </c>
+      <c r="I222">
         <v>3</v>
       </c>
-      <c r="J221" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="J222" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>502</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>503</v>
+      </c>
+      <c r="G224" t="s">
+        <v>157</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>515</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>516</v>
+      </c>
+      <c r="G226" t="s">
+        <v>517</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
         <v>520</v>
-      </c>
-      <c r="C223" t="b">
-        <v>0</v>
-      </c>
-      <c r="D223" t="b">
-        <v>1</v>
-      </c>
-      <c r="E223" t="s">
-        <v>521</v>
-      </c>
-      <c r="G223" t="s">
-        <v>158</v>
-      </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
-      <c r="J223" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>536</v>
-      </c>
-      <c r="C225" t="b">
-        <v>0</v>
-      </c>
-      <c r="D225" t="b">
-        <v>1</v>
-      </c>
-      <c r="E225" t="s">
-        <v>537</v>
-      </c>
-      <c r="G225" t="s">
-        <v>538</v>
-      </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
-      <c r="J225" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
-        <v>539</v>
-      </c>
-      <c r="I226">
-        <v>2</v>
-      </c>
-      <c r="J226" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G227" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>519</v>
+      </c>
+      <c r="I228">
         <v>3</v>
       </c>
-      <c r="J227" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+      <c r="J228" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>536</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>381</v>
+      </c>
+      <c r="G230" t="s">
         <v>382</v>
       </c>
-      <c r="C229" t="b">
-        <v>0</v>
-      </c>
-      <c r="D229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E229" t="s">
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
         <v>383</v>
-      </c>
-      <c r="G229" t="s">
-        <v>388</v>
-      </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
-      <c r="J229" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
-        <v>430</v>
-      </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
-      <c r="J230" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G231" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G233" t="s">
-        <v>385</v>
-      </c>
-      <c r="I233">
-        <v>5</v>
-      </c>
-      <c r="J233" t="s">
-        <v>391</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>184</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>191</v>
+      </c>
       <c r="G234" t="s">
-        <v>398</v>
+        <v>185</v>
       </c>
       <c r="I234">
-        <v>6</v>
-      </c>
-      <c r="J234" t="s">
-        <v>401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G235" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
       <c r="I235">
-        <v>7</v>
-      </c>
-      <c r="J235" t="s">
-        <v>392</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G236" t="s">
-        <v>387</v>
+        <v>187</v>
       </c>
       <c r="I236">
-        <v>8</v>
-      </c>
-      <c r="J236" t="s">
-        <v>393</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G237" t="s">
-        <v>399</v>
+        <v>188</v>
       </c>
       <c r="I237">
-        <v>9</v>
-      </c>
-      <c r="J237" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="I238">
-        <v>10</v>
-      </c>
-      <c r="J238" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G239" t="s">
-        <v>396</v>
-      </c>
-      <c r="I239">
-        <v>11</v>
-      </c>
-      <c r="J239" t="s">
-        <v>397</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>190</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>192</v>
+      </c>
+      <c r="G240" t="s">
+        <v>193</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>185</v>
-      </c>
-      <c r="C241" t="b">
-        <v>0</v>
-      </c>
-      <c r="D241" t="b">
-        <v>1</v>
-      </c>
-      <c r="E241" t="s">
-        <v>192</v>
-      </c>
       <c r="G241" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G242" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G243" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I243">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G244" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I244">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G245" t="s">
-        <v>190</v>
-      </c>
-      <c r="I245">
         <v>5</v>
       </c>
     </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>244</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>245</v>
+      </c>
+      <c r="G246" t="s">
+        <v>238</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+    </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>191</v>
-      </c>
-      <c r="C247" t="b">
-        <v>0</v>
-      </c>
-      <c r="D247" t="b">
-        <v>1</v>
-      </c>
-      <c r="E247" t="s">
-        <v>193</v>
-      </c>
       <c r="G247" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G248" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G249" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G250" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="I250">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G251" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="I251">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>248</v>
+      </c>
+      <c r="I252">
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>245</v>
-      </c>
-      <c r="C253" t="b">
-        <v>0</v>
-      </c>
-      <c r="D253" t="b">
-        <v>1</v>
-      </c>
-      <c r="E253" t="s">
-        <v>246</v>
-      </c>
       <c r="G253" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G254" t="s">
-        <v>240</v>
+        <v>531</v>
       </c>
       <c r="I254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G255" t="s">
-        <v>241</v>
-      </c>
-      <c r="I255">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>425</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>426</v>
+      </c>
       <c r="G256" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I256">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G257" t="s">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="I257">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G258" t="s">
-        <v>243</v>
+        <v>430</v>
       </c>
       <c r="I258">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G259" t="s">
-        <v>249</v>
-      </c>
-      <c r="I259">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>281</v>
+      </c>
       <c r="G260" t="s">
-        <v>423</v>
+        <v>238</v>
       </c>
       <c r="I260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>443</v>
-      </c>
-      <c r="C262" t="b">
         <v>0</v>
       </c>
-      <c r="D262" t="b">
-        <v>1</v>
-      </c>
-      <c r="E262" t="s">
-        <v>444</v>
-      </c>
-      <c r="G262" t="s">
-        <v>239</v>
-      </c>
-      <c r="I262">
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>356</v>
+      </c>
+      <c r="C263" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>357</v>
+      </c>
       <c r="G263" t="s">
-        <v>447</v>
+        <v>312</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>445</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G264" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>311</v>
+      </c>
+      <c r="I265">
         <v>2</v>
       </c>
-      <c r="J264" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>281</v>
-      </c>
-      <c r="C266" t="b">
+      <c r="J265" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>371</v>
+      </c>
+      <c r="C267" t="b">
         <v>0</v>
       </c>
-      <c r="D266" t="b">
-        <v>1</v>
-      </c>
-      <c r="E266" t="s">
-        <v>282</v>
-      </c>
-      <c r="G266" t="s">
-        <v>239</v>
-      </c>
-      <c r="I266">
+      <c r="D267" t="b">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>367</v>
+      </c>
+      <c r="G267" t="s">
+        <v>368</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>369</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
+        <v>370</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>358</v>
+      </c>
+      <c r="C271" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
-        <v>357</v>
-      </c>
-      <c r="C269" t="b">
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>360</v>
+      </c>
+      <c r="G271" t="s">
+        <v>279</v>
+      </c>
+      <c r="I271">
         <v>0</v>
       </c>
-      <c r="D269" t="b">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>358</v>
-      </c>
-      <c r="G269" t="s">
-        <v>313</v>
-      </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
-      <c r="J269" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G270" t="s">
-        <v>314</v>
-      </c>
-      <c r="I270">
-        <v>1</v>
-      </c>
-      <c r="J270" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G271" t="s">
-        <v>312</v>
-      </c>
-      <c r="I271">
+      <c r="J271" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
+        <v>365</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G273" t="s">
+        <v>421</v>
+      </c>
+      <c r="I273">
         <v>2</v>
       </c>
-      <c r="J271" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>372</v>
-      </c>
-      <c r="C273" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" t="b">
-        <v>1</v>
-      </c>
-      <c r="E273" t="s">
-        <v>368</v>
-      </c>
-      <c r="G273" t="s">
-        <v>369</v>
-      </c>
-      <c r="I273">
-        <v>1</v>
+      <c r="J273" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G274" t="s">
-        <v>370</v>
+        <v>505</v>
       </c>
       <c r="I274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G275" t="s">
-        <v>371</v>
-      </c>
-      <c r="I275">
         <v>3</v>
       </c>
+      <c r="J274" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>359</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" t="b">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>361</v>
+      </c>
+      <c r="G276" t="s">
+        <v>238</v>
+      </c>
+      <c r="I276">
+        <v>-1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
-        <v>359</v>
-      </c>
-      <c r="C277" t="b">
-        <v>0</v>
-      </c>
-      <c r="D277" t="b">
-        <v>1</v>
-      </c>
-      <c r="E277" t="s">
-        <v>361</v>
-      </c>
       <c r="G277" t="s">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="I277">
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G278" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G279" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="I279">
         <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G280" t="s">
-        <v>523</v>
+        <v>372</v>
       </c>
       <c r="I280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>522</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G281" t="s">
+        <v>422</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
-        <v>360</v>
-      </c>
-      <c r="C282" t="b">
+      <c r="G282" t="s">
+        <v>506</v>
+      </c>
+      <c r="I282">
         <v>0</v>
       </c>
-      <c r="D282" t="b">
-        <v>0</v>
-      </c>
-      <c r="E282" t="s">
-        <v>362</v>
-      </c>
-      <c r="G282" t="s">
-        <v>239</v>
-      </c>
-      <c r="I282">
-        <v>-1</v>
-      </c>
       <c r="J282" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G283" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>374</v>
+      </c>
+      <c r="C285" t="b">
         <v>0</v>
       </c>
-      <c r="J283" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G284" t="s">
-        <v>436</v>
-      </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
-      <c r="J284" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>375</v>
+      </c>
       <c r="G285" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G286" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>394</v>
+      </c>
+      <c r="C288" t="b">
         <v>0</v>
       </c>
-      <c r="J286" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G287" t="s">
-        <v>440</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
-      <c r="J287" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D288" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>395</v>
+      </c>
       <c r="G288" t="s">
-        <v>524</v>
+        <v>399</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>525</v>
+        <v>396</v>
       </c>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G289" t="s">
-        <v>527</v>
+        <v>402</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J289" t="s">
-        <v>528</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G290" t="s">
+        <v>400</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+      <c r="J290" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
-        <v>375</v>
-      </c>
-      <c r="C291" t="b">
+      <c r="G291" t="s">
+        <v>401</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+      <c r="J291" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>411</v>
+      </c>
+      <c r="C293" t="b">
         <v>0</v>
       </c>
-      <c r="D291" t="b">
-        <v>1</v>
-      </c>
-      <c r="E291" t="s">
-        <v>376</v>
-      </c>
-      <c r="G291" t="s">
-        <v>379</v>
-      </c>
-      <c r="I291">
-        <v>1</v>
-      </c>
-      <c r="J291" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G292" t="s">
-        <v>378</v>
-      </c>
-      <c r="I292">
-        <v>2</v>
-      </c>
-      <c r="J292" t="s">
-        <v>526</v>
+      <c r="D293" t="b">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>416</v>
+      </c>
+      <c r="G293" t="s">
+        <v>412</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>412</v>
-      </c>
-      <c r="C294" t="b">
+      <c r="G294" t="s">
+        <v>414</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>436</v>
+      </c>
+      <c r="C296" t="b">
         <v>0</v>
       </c>
-      <c r="D294" t="b">
-        <v>1</v>
-      </c>
-      <c r="E294" t="s">
-        <v>413</v>
-      </c>
-      <c r="G294" t="s">
-        <v>417</v>
-      </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
-      <c r="J294" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G295" t="s">
-        <v>420</v>
-      </c>
-      <c r="I295">
-        <v>2</v>
-      </c>
-      <c r="J295" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D296" t="b">
+        <v>1</v>
+      </c>
       <c r="G296" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J296" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E297" s="5"/>
       <c r="G297" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="I297">
-        <v>4</v>
-      </c>
-      <c r="J297" t="s">
-        <v>415</v>
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G298" t="s">
+        <v>486</v>
+      </c>
+      <c r="I298">
+        <v>10002</v>
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>429</v>
-      </c>
-      <c r="C299" t="b">
-        <v>0</v>
-      </c>
-      <c r="D299" t="b">
-        <v>1</v>
-      </c>
-      <c r="E299" t="s">
-        <v>434</v>
-      </c>
       <c r="G299" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="I299">
-        <v>0</v>
-      </c>
-      <c r="J299" t="s">
-        <v>431</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G300" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I300">
-        <v>1</v>
-      </c>
-      <c r="J300" t="s">
-        <v>433</v>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G301" t="s">
+        <v>438</v>
+      </c>
+      <c r="I301">
+        <v>10005</v>
       </c>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
-        <v>454</v>
-      </c>
-      <c r="C302" t="b">
-        <v>0</v>
-      </c>
-      <c r="D302" t="b">
-        <v>1</v>
-      </c>
       <c r="G302" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="I302">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="J302" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G303" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E303" s="5"/>
-      <c r="G303" t="s">
-        <v>496</v>
-      </c>
       <c r="I303">
-        <v>10001</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G304" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="I304">
-        <v>10002</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="305" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G305" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="I305">
-        <v>10003</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="306" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G306" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="I306">
-        <v>10004</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="307" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G307" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="I307">
-        <v>10005</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="308" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G308" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="I308">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J308" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G309" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="I309">
-        <v>10011</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="310" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G310" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="I310">
-        <v>10012</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="311" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G311" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="I311">
-        <v>10013</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="312" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G312" t="s">
-        <v>509</v>
+        <v>439</v>
       </c>
       <c r="I312">
-        <v>10014</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="313" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G313" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="I313">
-        <v>10015</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="314" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G314" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="I314">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="J314" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="315" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G315" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="I315">
-        <v>10021</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="316" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G316" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="I316">
-        <v>10022</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="317" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G317" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="I317">
-        <v>10023</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="318" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G318" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="I318">
-        <v>10024</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="319" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G319" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="I319">
-        <v>10025</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="320" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G320" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="I320">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="J320" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G321" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="I321">
-        <v>10031</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="322" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G322" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="I322">
-        <v>10032</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="323" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G323" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="I323">
-        <v>10033</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="324" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G324" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="I324">
-        <v>10034</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="325" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G325" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="I325">
-        <v>10035</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="326" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G326" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="I326">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J326" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="327" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G327" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="I327">
-        <v>10041</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="328" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G328" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="I328">
-        <v>10042</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="329" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G329" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="I329">
-        <v>10043</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="330" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G330" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="I330">
-        <v>10044</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="331" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G331" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I331">
-        <v>10045</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="332" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G332" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I332">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="J332" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G333" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I333">
-        <v>10051</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="334" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G334" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="I334">
-        <v>10052</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="335" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G335" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="I335">
-        <v>10053</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="336" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G336" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="I336">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="337" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G337" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I337">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="338" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G338" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="I338">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="J338" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="339" spans="7:10" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G339" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="I339">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="340" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G340" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="I340">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="341" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G341" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="I341">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="342" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G342" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="I342">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="343" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G343" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I343">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="344" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G344" t="s">
-        <v>503</v>
-      </c>
-      <c r="I344">
-        <v>1007</v>
-      </c>
-      <c r="J344" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="345" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G345" t="s">
-        <v>485</v>
-      </c>
-      <c r="I345">
-        <v>10071</v>
-      </c>
-    </row>
-    <row r="346" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>545</v>
+      </c>
+      <c r="C346" t="b">
+        <v>0</v>
+      </c>
+      <c r="D346" t="b">
+        <v>1</v>
+      </c>
+      <c r="E346" t="s">
+        <v>546</v>
+      </c>
       <c r="G346" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="I346">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="347" spans="7:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G347" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="I347">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="348" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J347" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G348" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="I348">
-        <v>10074</v>
-      </c>
-    </row>
-    <row r="349" spans="7:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J348" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G349" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="I349">
-        <v>10075</v>
+        <v>3</v>
+      </c>
+      <c r="J349" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G350" t="s">
+        <v>543</v>
+      </c>
+      <c r="I350">
+        <v>4</v>
+      </c>
+      <c r="J350" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB26503-84FB-4DB6-8DB5-3CC7A07D70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C8B230-7AA3-468C-8442-3441691C6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="554">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,9 +189,6 @@
   </si>
   <si>
     <t>DamageAfterOnKill</t>
-  </si>
-  <si>
-    <t>监听 在伤害流程中，击杀目标后触发</t>
   </si>
   <si>
     <t>DamageAfterOnBeKilled</t>
@@ -2074,6 +2062,26 @@
   </si>
   <si>
     <t>editor模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopBuffTick</t>
+  </si>
+  <si>
+    <t>StopBuffTrig</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标后触发，如果击杀目标，则会触发的啥事情</t>
+  </si>
+  <si>
+    <t>监听 在伤害流程中，击杀目标后触发，持有这个buff的人被杀死了，会触发的事情</t>
+  </si>
+  <si>
+    <t>暂停Buff的Tick(对非Debuff生效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停Buff的相关触发(对非Debuff生效)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2496,26 +2504,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K350"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B328" workbookViewId="0">
-      <selection activeCell="J347" sqref="J347"/>
+    <sheetView tabSelected="1" topLeftCell="B187" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2542,7 +2550,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2604,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -2607,19 +2615,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>21</v>
       </c>
@@ -2630,9 +2638,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2641,7 +2649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -2652,18 +2660,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -2686,7 +2694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>29</v>
       </c>
@@ -2697,29 +2705,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>31</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>33</v>
       </c>
@@ -2741,9 +2749,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2752,85 +2760,85 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
         <v>250</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>251</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>252</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>259</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -2841,19 +2849,19 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>36</v>
       </c>
@@ -2861,10 +2869,10 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>37</v>
       </c>
@@ -2872,54 +2880,54 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29">
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I30">
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I31">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>38</v>
       </c>
@@ -2927,10 +2935,10 @@
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>39</v>
       </c>
@@ -2938,21 +2946,21 @@
         <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>40</v>
       </c>
@@ -2960,10 +2968,10 @@
         <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>41</v>
       </c>
@@ -2971,10 +2979,10 @@
         <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>42</v>
       </c>
@@ -2982,12 +2990,12 @@
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38">
         <v>14</v>
@@ -2996,7 +3004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>44</v>
       </c>
@@ -3004,10 +3012,10 @@
         <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>45</v>
       </c>
@@ -3015,122 +3023,122 @@
         <v>16</v>
       </c>
       <c r="J40" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>47</v>
       </c>
       <c r="I41">
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I42">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43">
         <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I44">
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I45">
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I46">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I47">
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I48">
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49">
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3139,285 +3147,285 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G52" t="s">
+        <v>351</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
         <v>352</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
-        <v>353</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I55">
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I56">
         <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I57">
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I58">
         <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I59">
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I60">
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I62">
         <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I63">
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I64">
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I65">
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I66">
         <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I67">
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I68">
         <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I69">
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I70">
         <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I71">
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I72">
         <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I73">
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I74">
         <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I75">
         <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I76">
         <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -3426,87 +3434,87 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
         <v>78</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>79</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I80">
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I82">
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I83">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I84">
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -3515,142 +3523,142 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
         <v>199</v>
       </c>
-      <c r="G86" t="s">
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
         <v>212</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
-        <v>213</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I90">
         <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I91">
         <v>6</v>
       </c>
       <c r="J91" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I92">
         <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I93">
         <v>8</v>
       </c>
       <c r="J93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I94">
         <v>9</v>
       </c>
       <c r="J94" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I95">
         <v>10</v>
       </c>
       <c r="J95" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I96">
         <v>11</v>
       </c>
       <c r="J96" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I97">
         <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -3659,43 +3667,43 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
+        <v>223</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
         <v>224</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
-        <v>225</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I101">
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -3704,397 +3712,397 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I104">
         <v>10001</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I105">
         <v>10002</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I106">
         <v>10003</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I107">
         <v>10004</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I108">
         <v>10005</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I109">
         <v>10011</v>
       </c>
       <c r="J109" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I110">
         <v>10012</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I111">
         <v>10013</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I112">
         <v>10014</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I113">
         <v>10015</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I114">
         <v>10051</v>
       </c>
       <c r="J114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I115">
         <v>10052</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I116">
         <v>10053</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I117">
         <v>10054</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I118">
         <v>10055</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I119">
         <v>10061</v>
       </c>
       <c r="J119" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I120">
         <v>10062</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I121">
         <v>10063</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I122">
         <v>10064</v>
       </c>
     </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I123">
         <v>10065</v>
       </c>
     </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I124">
         <v>10071</v>
       </c>
       <c r="J124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
-        <v>100</v>
       </c>
       <c r="I125">
         <v>10072</v>
       </c>
     </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I126">
         <v>10073</v>
       </c>
     </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I127">
         <v>10074</v>
       </c>
     </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I128">
         <v>10075</v>
       </c>
     </row>
-    <row r="129" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I129">
         <v>10081</v>
       </c>
       <c r="J129" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="7:10" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I130">
         <v>10082</v>
       </c>
     </row>
-    <row r="131" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I131">
         <v>10083</v>
       </c>
     </row>
-    <row r="132" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I132">
         <v>10084</v>
       </c>
     </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I133">
         <v>10085</v>
       </c>
     </row>
-    <row r="134" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I134">
         <v>10091</v>
       </c>
       <c r="J134" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" spans="7:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I135">
         <v>10092</v>
       </c>
     </row>
-    <row r="136" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I136">
         <v>10093</v>
       </c>
     </row>
-    <row r="137" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I137">
         <v>10094</v>
       </c>
     </row>
-    <row r="138" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I138">
         <v>10095</v>
       </c>
     </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G139" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I139">
         <v>10101</v>
       </c>
       <c r="J139" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="140" spans="7:10" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I140">
         <v>10102</v>
       </c>
     </row>
-    <row r="141" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I141">
         <v>10103</v>
       </c>
     </row>
-    <row r="142" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I142">
         <v>10104</v>
       </c>
     </row>
-    <row r="143" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I143">
         <v>10105</v>
       </c>
     </row>
-    <row r="144" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I144">
         <v>10111</v>
       </c>
       <c r="J144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I145">
         <v>10112</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I146">
         <v>10113</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I147">
         <v>10114</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I148">
         <v>10115</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -4103,96 +4111,96 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I150">
         <v>10021</v>
       </c>
       <c r="J150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G151" t="s">
-        <v>171</v>
       </c>
       <c r="I151">
         <v>10022</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G152" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I152">
         <v>10023</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I153">
         <v>10024</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I154">
         <v>10025</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I155">
         <v>10031</v>
       </c>
       <c r="J155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I156">
         <v>10032</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I157">
         <v>10033</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I158">
         <v>10034</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I159">
         <v>10035</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -4201,34 +4209,34 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G162" t="s">
+        <v>524</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
         <v>525</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G163" t="s">
-        <v>526</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -4237,171 +4245,171 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G165" t="s">
+        <v>133</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
         <v>134</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G166" t="s">
-        <v>135</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G168" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G169" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I169">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I170">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I171">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I172">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I173">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G174" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I174">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G175" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I175">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G176" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I176">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G177" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I177">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G178" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I178">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G179" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I179">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G180" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I180">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G181" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I181">
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G182" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I182">
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G183" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I183">
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G186" s="4"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -4410,409 +4418,408 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G188" t="s">
+        <v>142</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G189" t="s">
         <v>143</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G189" t="s">
-        <v>144</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G190" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I190">
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G191" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I191">
         <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I192">
         <v>5</v>
       </c>
       <c r="J192" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I193">
         <v>6</v>
       </c>
       <c r="J193" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I194">
         <v>7</v>
       </c>
       <c r="J194" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I195">
         <v>8</v>
       </c>
       <c r="J195" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I196">
         <v>9</v>
       </c>
       <c r="J196" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I197">
         <v>10</v>
       </c>
       <c r="J197" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I198">
         <v>11</v>
       </c>
       <c r="J198" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I199">
         <v>12</v>
       </c>
       <c r="J199" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G200" t="s">
-        <v>153</v>
+        <v>548</v>
       </c>
       <c r="I200">
         <v>13</v>
       </c>
       <c r="J200" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G201" t="s">
-        <v>236</v>
+        <v>549</v>
       </c>
       <c r="I201">
         <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="202" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G202" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="I202">
         <v>15</v>
       </c>
       <c r="J202" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G203" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I203">
         <v>16</v>
       </c>
       <c r="J203" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G204" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="I204">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G205" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="I205">
         <v>18</v>
       </c>
-    </row>
-    <row r="206" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="206" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G206" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I206">
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G207" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I207">
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+    <row r="208" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G208" t="s">
+        <v>103</v>
+      </c>
+      <c r="I208">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>104</v>
+      </c>
+      <c r="I209">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
         <v>111</v>
       </c>
-      <c r="C209" t="b">
+      <c r="G211" t="s">
+        <v>114</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>115</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>245</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>117</v>
+      </c>
+      <c r="C215" t="b">
         <v>0</v>
       </c>
-      <c r="D209" t="b">
-        <v>1</v>
-      </c>
-      <c r="E209" t="s">
-        <v>112</v>
-      </c>
-      <c r="G209" t="s">
-        <v>115</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G210" t="s">
-        <v>116</v>
-      </c>
-      <c r="I210">
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>118</v>
+      </c>
+      <c r="G215" t="s">
+        <v>119</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>120</v>
+      </c>
+      <c r="I216">
         <v>2</v>
       </c>
-      <c r="J210" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G211" t="s">
-        <v>246</v>
-      </c>
-      <c r="I211">
+      <c r="J216" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>121</v>
+      </c>
+      <c r="I217">
         <v>3</v>
       </c>
-      <c r="J211" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>118</v>
-      </c>
-      <c r="C213" t="b">
+      <c r="J217" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>122</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="J218" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>123</v>
+      </c>
+      <c r="I219">
+        <v>5</v>
+      </c>
+      <c r="J219" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>124</v>
+      </c>
+      <c r="I220">
+        <v>6</v>
+      </c>
+      <c r="J220" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222" t="b">
         <v>0</v>
       </c>
-      <c r="D213" t="b">
-        <v>1</v>
-      </c>
-      <c r="E213" t="s">
-        <v>119</v>
-      </c>
-      <c r="G213" t="s">
-        <v>120</v>
-      </c>
-      <c r="I213">
-        <v>1</v>
-      </c>
-      <c r="J213" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G214" t="s">
-        <v>121</v>
-      </c>
-      <c r="I214">
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>159</v>
+      </c>
+      <c r="G222" t="s">
+        <v>160</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>165</v>
+      </c>
+      <c r="I223">
         <v>2</v>
       </c>
-      <c r="J214" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G215" t="s">
-        <v>122</v>
-      </c>
-      <c r="I215">
+      <c r="J223" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
+        <v>164</v>
+      </c>
+      <c r="I224">
         <v>3</v>
       </c>
-      <c r="J215" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G216" t="s">
-        <v>123</v>
-      </c>
-      <c r="I216">
-        <v>4</v>
-      </c>
-      <c r="J216" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G217" t="s">
-        <v>124</v>
-      </c>
-      <c r="I217">
-        <v>5</v>
-      </c>
-      <c r="J217" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G218" t="s">
-        <v>125</v>
-      </c>
-      <c r="I218">
-        <v>6</v>
-      </c>
-      <c r="J218" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>159</v>
-      </c>
-      <c r="C220" t="b">
-        <v>0</v>
-      </c>
-      <c r="D220" t="b">
-        <v>1</v>
-      </c>
-      <c r="E220" t="s">
-        <v>160</v>
-      </c>
-      <c r="G220" t="s">
-        <v>161</v>
-      </c>
-      <c r="I220">
-        <v>1</v>
-      </c>
-      <c r="J220" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G221" t="s">
-        <v>166</v>
-      </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
-      <c r="J221" t="s">
+      <c r="J224" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G222" t="s">
-        <v>165</v>
-      </c>
-      <c r="I222">
-        <v>3</v>
-      </c>
-      <c r="J222" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>502</v>
-      </c>
-      <c r="C224" t="b">
-        <v>0</v>
-      </c>
-      <c r="D224" t="b">
-        <v>1</v>
-      </c>
-      <c r="E224" t="s">
-        <v>503</v>
-      </c>
-      <c r="G224" t="s">
-        <v>157</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
@@ -4821,1179 +4828,1202 @@
         <v>1</v>
       </c>
       <c r="E226" t="s">
+        <v>502</v>
+      </c>
+      <c r="G226" t="s">
+        <v>156</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>515</v>
+      </c>
+      <c r="G228" t="s">
         <v>516</v>
       </c>
-      <c r="G226" t="s">
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
         <v>517</v>
       </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="J226" t="s">
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G227" t="s">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G230" t="s">
         <v>518</v>
       </c>
-      <c r="I227">
+      <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>535</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>380</v>
+      </c>
+      <c r="G232" t="s">
+        <v>381</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>531</v>
+      </c>
+      <c r="I233">
         <v>2</v>
       </c>
-      <c r="J227" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G228" t="s">
-        <v>519</v>
-      </c>
-      <c r="I228">
+      <c r="J233" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G234" t="s">
+        <v>532</v>
+      </c>
+      <c r="I234">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>536</v>
-      </c>
-      <c r="C230" t="b">
+      <c r="J234" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>183</v>
+      </c>
+      <c r="C236" t="b">
         <v>0</v>
       </c>
-      <c r="D230" t="b">
-        <v>1</v>
-      </c>
-      <c r="E230" t="s">
-        <v>381</v>
-      </c>
-      <c r="G230" t="s">
-        <v>382</v>
-      </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="J230" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
-        <v>532</v>
-      </c>
-      <c r="I231">
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>190</v>
+      </c>
+      <c r="G236" t="s">
+        <v>184</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>185</v>
+      </c>
+      <c r="I237">
         <v>2</v>
       </c>
-      <c r="J231" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G232" t="s">
-        <v>533</v>
-      </c>
-      <c r="I232">
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>186</v>
+      </c>
+      <c r="I238">
         <v>3</v>
       </c>
-      <c r="J232" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>184</v>
-      </c>
-      <c r="C234" t="b">
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
+        <v>187</v>
+      </c>
+      <c r="I239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G240" t="s">
+        <v>188</v>
+      </c>
+      <c r="I240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>189</v>
+      </c>
+      <c r="C242" t="b">
         <v>0</v>
       </c>
-      <c r="D234" t="b">
-        <v>1</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
         <v>191</v>
       </c>
-      <c r="G234" t="s">
-        <v>185</v>
-      </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G235" t="s">
-        <v>186</v>
-      </c>
-      <c r="I235">
+      <c r="G242" t="s">
+        <v>192</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
+        <v>193</v>
+      </c>
+      <c r="I243">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G236" t="s">
-        <v>187</v>
-      </c>
-      <c r="I236">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>194</v>
+      </c>
+      <c r="I244">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G237" t="s">
-        <v>188</v>
-      </c>
-      <c r="I237">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>195</v>
+      </c>
+      <c r="I245">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G238" t="s">
-        <v>189</v>
-      </c>
-      <c r="I238">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G246" t="s">
+        <v>196</v>
+      </c>
+      <c r="I246">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>190</v>
-      </c>
-      <c r="C240" t="b">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>243</v>
+      </c>
+      <c r="C248" t="b">
         <v>0</v>
       </c>
-      <c r="D240" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>192</v>
-      </c>
-      <c r="G240" t="s">
-        <v>193</v>
-      </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G241" t="s">
-        <v>194</v>
-      </c>
-      <c r="I241">
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>244</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+      <c r="I249">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G242" t="s">
-        <v>195</v>
-      </c>
-      <c r="I242">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+      <c r="I250">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G243" t="s">
-        <v>196</v>
-      </c>
-      <c r="I243">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G244" t="s">
-        <v>197</v>
-      </c>
-      <c r="I244">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
-        <v>244</v>
-      </c>
-      <c r="C246" t="b">
-        <v>0</v>
-      </c>
-      <c r="D246" t="b">
-        <v>1</v>
-      </c>
-      <c r="E246" t="s">
-        <v>245</v>
-      </c>
-      <c r="G246" t="s">
-        <v>238</v>
-      </c>
-      <c r="I246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G247" t="s">
-        <v>239</v>
-      </c>
-      <c r="I247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G248" t="s">
-        <v>240</v>
-      </c>
-      <c r="I248">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G249" t="s">
-        <v>243</v>
-      </c>
-      <c r="I249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G250" t="s">
-        <v>241</v>
-      </c>
-      <c r="I250">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G251" t="s">
         <v>242</v>
       </c>
       <c r="I251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G252" t="s">
+        <v>240</v>
+      </c>
+      <c r="I252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G253" t="s">
+        <v>241</v>
+      </c>
+      <c r="I253">
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G252" t="s">
-        <v>248</v>
-      </c>
-      <c r="I252">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G254" t="s">
+        <v>247</v>
+      </c>
+      <c r="I254">
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G253" t="s">
-        <v>405</v>
-      </c>
-      <c r="I253">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G255" t="s">
+        <v>404</v>
+      </c>
+      <c r="I255">
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G254" t="s">
-        <v>531</v>
-      </c>
-      <c r="I254">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G256" t="s">
+        <v>530</v>
+      </c>
+      <c r="I256">
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>424</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
         <v>425</v>
       </c>
-      <c r="C256" t="b">
+      <c r="G258" t="s">
+        <v>237</v>
+      </c>
+      <c r="I258">
         <v>0</v>
       </c>
-      <c r="D256" t="b">
-        <v>1</v>
-      </c>
-      <c r="E256" t="s">
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>428</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259" t="s">
         <v>426</v>
       </c>
-      <c r="G256" t="s">
-        <v>238</v>
-      </c>
-      <c r="I256">
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
+        <v>429</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>279</v>
+      </c>
+      <c r="C262" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G257" t="s">
-        <v>429</v>
-      </c>
-      <c r="I257">
-        <v>1</v>
-      </c>
-      <c r="J257" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G258" t="s">
-        <v>430</v>
-      </c>
-      <c r="I258">
-        <v>2</v>
-      </c>
-      <c r="J258" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
         <v>280</v>
       </c>
-      <c r="C260" t="b">
+      <c r="G262" t="s">
+        <v>237</v>
+      </c>
+      <c r="I262">
         <v>0</v>
       </c>
-      <c r="D260" t="b">
-        <v>1</v>
-      </c>
-      <c r="E260" t="s">
-        <v>281</v>
-      </c>
-      <c r="G260" t="s">
-        <v>238</v>
-      </c>
-      <c r="I260">
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>355</v>
+      </c>
+      <c r="C265" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
         <v>356</v>
       </c>
-      <c r="C263" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" t="b">
-        <v>1</v>
-      </c>
-      <c r="E263" t="s">
-        <v>357</v>
-      </c>
-      <c r="G263" t="s">
-        <v>312</v>
-      </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-      <c r="J263" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G264" t="s">
-        <v>313</v>
-      </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G265" t="s">
         <v>311</v>
       </c>
       <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G266" t="s">
+        <v>312</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G267" t="s">
+        <v>310</v>
+      </c>
+      <c r="I267">
         <v>2</v>
       </c>
-      <c r="J265" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+      <c r="J267" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>370</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>366</v>
+      </c>
+      <c r="G269" t="s">
+        <v>367</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G270" t="s">
+        <v>368</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G271" t="s">
+        <v>369</v>
+      </c>
+      <c r="I271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>357</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>359</v>
+      </c>
+      <c r="G273" t="s">
+        <v>278</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G274" t="s">
+        <v>364</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G275" t="s">
+        <v>420</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G276" t="s">
+        <v>504</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>358</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" t="b">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>360</v>
+      </c>
+      <c r="G278" t="s">
+        <v>237</v>
+      </c>
+      <c r="I278">
+        <v>-1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G279" t="s">
+        <v>419</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G280" t="s">
+        <v>417</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G281" t="s">
+        <v>362</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G282" t="s">
         <v>371</v>
-      </c>
-      <c r="C267" t="b">
-        <v>0</v>
-      </c>
-      <c r="D267" t="b">
-        <v>1</v>
-      </c>
-      <c r="E267" t="s">
-        <v>367</v>
-      </c>
-      <c r="G267" t="s">
-        <v>368</v>
-      </c>
-      <c r="I267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G268" t="s">
-        <v>369</v>
-      </c>
-      <c r="I268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G269" t="s">
-        <v>370</v>
-      </c>
-      <c r="I269">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>358</v>
-      </c>
-      <c r="C271" t="b">
-        <v>0</v>
-      </c>
-      <c r="D271" t="b">
-        <v>1</v>
-      </c>
-      <c r="E271" t="s">
-        <v>360</v>
-      </c>
-      <c r="G271" t="s">
-        <v>279</v>
-      </c>
-      <c r="I271">
-        <v>0</v>
-      </c>
-      <c r="J271" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G272" t="s">
-        <v>365</v>
-      </c>
-      <c r="I272">
-        <v>1</v>
-      </c>
-      <c r="J272" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G273" t="s">
-        <v>421</v>
-      </c>
-      <c r="I273">
-        <v>2</v>
-      </c>
-      <c r="J273" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G274" t="s">
-        <v>505</v>
-      </c>
-      <c r="I274">
-        <v>3</v>
-      </c>
-      <c r="J274" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
-        <v>359</v>
-      </c>
-      <c r="C276" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" t="b">
-        <v>0</v>
-      </c>
-      <c r="E276" t="s">
-        <v>361</v>
-      </c>
-      <c r="G276" t="s">
-        <v>238</v>
-      </c>
-      <c r="I276">
-        <v>-1</v>
-      </c>
-      <c r="J276" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G277" t="s">
-        <v>420</v>
-      </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
-      <c r="J277" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G278" t="s">
-        <v>418</v>
-      </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G279" t="s">
-        <v>363</v>
-      </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
-      <c r="J279" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G280" t="s">
-        <v>372</v>
-      </c>
-      <c r="I280">
-        <v>0</v>
-      </c>
-      <c r="J280" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G281" t="s">
-        <v>422</v>
-      </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
-      <c r="J281" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G282" t="s">
-        <v>506</v>
       </c>
       <c r="I282">
         <v>0</v>
       </c>
       <c r="J282" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G283" t="s">
+        <v>421</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>505</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G285" t="s">
+        <v>508</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>373</v>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>374</v>
+      </c>
+      <c r="G287" t="s">
+        <v>377</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G288" t="s">
+        <v>376</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G283" t="s">
-        <v>509</v>
-      </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-      <c r="J283" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
-        <v>374</v>
-      </c>
-      <c r="C285" t="b">
+    <row r="290" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>393</v>
+      </c>
+      <c r="C290" t="b">
         <v>0</v>
       </c>
-      <c r="D285" t="b">
-        <v>1</v>
-      </c>
-      <c r="E285" t="s">
-        <v>375</v>
-      </c>
-      <c r="G285" t="s">
-        <v>378</v>
-      </c>
-      <c r="I285">
-        <v>1</v>
-      </c>
-      <c r="J285" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G286" t="s">
-        <v>377</v>
-      </c>
-      <c r="I286">
-        <v>2</v>
-      </c>
-      <c r="J286" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
         <v>394</v>
       </c>
-      <c r="C288" t="b">
-        <v>0</v>
-      </c>
-      <c r="D288" t="b">
-        <v>1</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="G290" t="s">
+        <v>398</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290" t="s">
         <v>395</v>
       </c>
-      <c r="G288" t="s">
-        <v>399</v>
-      </c>
-      <c r="I288">
-        <v>1</v>
-      </c>
-      <c r="J288" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G289" t="s">
-        <v>402</v>
-      </c>
-      <c r="I289">
-        <v>2</v>
-      </c>
-      <c r="J289" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G290" t="s">
-        <v>400</v>
-      </c>
-      <c r="I290">
-        <v>3</v>
-      </c>
-      <c r="J290" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G291" t="s">
         <v>401</v>
       </c>
       <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G292" t="s">
+        <v>399</v>
+      </c>
+      <c r="I292">
+        <v>3</v>
+      </c>
+      <c r="J292" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>400</v>
+      </c>
+      <c r="I293">
         <v>4</v>
       </c>
-      <c r="J291" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+      <c r="J293" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>410</v>
+      </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" t="b">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>415</v>
+      </c>
+      <c r="G295" t="s">
         <v>411</v>
       </c>
-      <c r="C293" t="b">
+      <c r="I295">
         <v>0</v>
       </c>
-      <c r="D293" t="b">
-        <v>1</v>
-      </c>
-      <c r="E293" t="s">
-        <v>416</v>
-      </c>
-      <c r="G293" t="s">
+      <c r="J295" t="s">
         <v>412</v>
       </c>
-      <c r="I293">
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G296" t="s">
+        <v>413</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>435</v>
+      </c>
+      <c r="C298" t="b">
         <v>0</v>
       </c>
-      <c r="J293" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G294" t="s">
-        <v>414</v>
-      </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
-      <c r="J294" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+      <c r="D298" t="b">
+        <v>1</v>
+      </c>
+      <c r="G298" t="s">
+        <v>478</v>
+      </c>
+      <c r="I298">
+        <v>1000</v>
+      </c>
+      <c r="J298" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E299" s="5"/>
+      <c r="G299" t="s">
+        <v>477</v>
+      </c>
+      <c r="I299">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>485</v>
+      </c>
+      <c r="I300">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G301" t="s">
+        <v>450</v>
+      </c>
+      <c r="I301">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G302" t="s">
         <v>436</v>
       </c>
-      <c r="C296" t="b">
+      <c r="I302">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G303" t="s">
+        <v>437</v>
+      </c>
+      <c r="I303">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G304" t="s">
+        <v>486</v>
+      </c>
+      <c r="I304">
+        <v>1001</v>
+      </c>
+      <c r="J304" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="305" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G305" t="s">
+        <v>487</v>
+      </c>
+      <c r="I305">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="306" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G306" t="s">
+        <v>488</v>
+      </c>
+      <c r="I306">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="307" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G307" t="s">
+        <v>489</v>
+      </c>
+      <c r="I307">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="308" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G308" t="s">
+        <v>490</v>
+      </c>
+      <c r="I308">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="309" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G309" t="s">
+        <v>491</v>
+      </c>
+      <c r="I309">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="310" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G310" t="s">
+        <v>479</v>
+      </c>
+      <c r="I310">
+        <v>1002</v>
+      </c>
+      <c r="J310" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="311" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G311" t="s">
+        <v>451</v>
+      </c>
+      <c r="I311">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="312" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G312" t="s">
+        <v>452</v>
+      </c>
+      <c r="I312">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="313" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G313" t="s">
+        <v>453</v>
+      </c>
+      <c r="I313">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="314" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G314" t="s">
+        <v>438</v>
+      </c>
+      <c r="I314">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="315" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G315" t="s">
+        <v>439</v>
+      </c>
+      <c r="I315">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="316" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G316" t="s">
+        <v>480</v>
+      </c>
+      <c r="I316">
+        <v>1003</v>
+      </c>
+      <c r="J316" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="317" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G317" t="s">
+        <v>454</v>
+      </c>
+      <c r="I317">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="318" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G318" t="s">
+        <v>455</v>
+      </c>
+      <c r="I318">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="319" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G319" t="s">
+        <v>456</v>
+      </c>
+      <c r="I319">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="320" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G320" t="s">
+        <v>440</v>
+      </c>
+      <c r="I320">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="321" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G321" t="s">
+        <v>441</v>
+      </c>
+      <c r="I321">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="322" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G322" t="s">
+        <v>481</v>
+      </c>
+      <c r="I322">
+        <v>1004</v>
+      </c>
+      <c r="J322" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="323" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G323" t="s">
+        <v>457</v>
+      </c>
+      <c r="I323">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="324" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G324" t="s">
+        <v>458</v>
+      </c>
+      <c r="I324">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="325" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G325" t="s">
+        <v>459</v>
+      </c>
+      <c r="I325">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="326" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G326" t="s">
+        <v>442</v>
+      </c>
+      <c r="I326">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="327" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G327" t="s">
+        <v>443</v>
+      </c>
+      <c r="I327">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="328" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G328" t="s">
+        <v>482</v>
+      </c>
+      <c r="I328">
+        <v>1005</v>
+      </c>
+      <c r="J328" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="329" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G329" t="s">
+        <v>460</v>
+      </c>
+      <c r="I329">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="330" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G330" t="s">
+        <v>461</v>
+      </c>
+      <c r="I330">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="331" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G331" t="s">
+        <v>462</v>
+      </c>
+      <c r="I331">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="332" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G332" t="s">
+        <v>444</v>
+      </c>
+      <c r="I332">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="333" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G333" t="s">
+        <v>445</v>
+      </c>
+      <c r="I333">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="334" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G334" t="s">
+        <v>483</v>
+      </c>
+      <c r="I334">
+        <v>1006</v>
+      </c>
+      <c r="J334" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="335" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G335" t="s">
+        <v>463</v>
+      </c>
+      <c r="I335">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="336" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G336" t="s">
+        <v>464</v>
+      </c>
+      <c r="I336">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G337" t="s">
+        <v>465</v>
+      </c>
+      <c r="I337">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G338" t="s">
+        <v>446</v>
+      </c>
+      <c r="I338">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G339" t="s">
+        <v>447</v>
+      </c>
+      <c r="I339">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G340" t="s">
+        <v>484</v>
+      </c>
+      <c r="I340">
+        <v>1007</v>
+      </c>
+      <c r="J340" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G341" t="s">
+        <v>466</v>
+      </c>
+      <c r="I341">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G342" t="s">
+        <v>467</v>
+      </c>
+      <c r="I342">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G343" t="s">
+        <v>468</v>
+      </c>
+      <c r="I343">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G344" t="s">
+        <v>448</v>
+      </c>
+      <c r="I344">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G345" t="s">
+        <v>449</v>
+      </c>
+      <c r="I345">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>544</v>
+      </c>
+      <c r="C348" t="b">
         <v>0</v>
       </c>
-      <c r="D296" t="b">
-        <v>1</v>
-      </c>
-      <c r="G296" t="s">
-        <v>479</v>
-      </c>
-      <c r="I296">
-        <v>1000</v>
-      </c>
-      <c r="J296" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E297" s="5"/>
-      <c r="G297" t="s">
-        <v>478</v>
-      </c>
-      <c r="I297">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G298" t="s">
-        <v>486</v>
-      </c>
-      <c r="I298">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G299" t="s">
-        <v>451</v>
-      </c>
-      <c r="I299">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G300" t="s">
-        <v>437</v>
-      </c>
-      <c r="I300">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G301" t="s">
-        <v>438</v>
-      </c>
-      <c r="I301">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G302" t="s">
-        <v>487</v>
-      </c>
-      <c r="I302">
-        <v>1001</v>
-      </c>
-      <c r="J302" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G303" t="s">
-        <v>488</v>
-      </c>
-      <c r="I303">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G304" t="s">
-        <v>489</v>
-      </c>
-      <c r="I304">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="305" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G305" t="s">
-        <v>490</v>
-      </c>
-      <c r="I305">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="306" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G306" t="s">
-        <v>491</v>
-      </c>
-      <c r="I306">
-        <v>10014</v>
-      </c>
-    </row>
-    <row r="307" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G307" t="s">
-        <v>492</v>
-      </c>
-      <c r="I307">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="308" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G308" t="s">
-        <v>480</v>
-      </c>
-      <c r="I308">
-        <v>1002</v>
-      </c>
-      <c r="J308" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="309" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G309" t="s">
-        <v>452</v>
-      </c>
-      <c r="I309">
-        <v>10021</v>
-      </c>
-    </row>
-    <row r="310" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G310" t="s">
-        <v>453</v>
-      </c>
-      <c r="I310">
-        <v>10022</v>
-      </c>
-    </row>
-    <row r="311" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G311" t="s">
-        <v>454</v>
-      </c>
-      <c r="I311">
-        <v>10023</v>
-      </c>
-    </row>
-    <row r="312" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G312" t="s">
-        <v>439</v>
-      </c>
-      <c r="I312">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="313" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G313" t="s">
-        <v>440</v>
-      </c>
-      <c r="I313">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G314" t="s">
-        <v>481</v>
-      </c>
-      <c r="I314">
-        <v>1003</v>
-      </c>
-      <c r="J314" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G315" t="s">
-        <v>455</v>
-      </c>
-      <c r="I315">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G316" t="s">
-        <v>456</v>
-      </c>
-      <c r="I316">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G317" t="s">
-        <v>457</v>
-      </c>
-      <c r="I317">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G318" t="s">
-        <v>441</v>
-      </c>
-      <c r="I318">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G319" t="s">
-        <v>442</v>
-      </c>
-      <c r="I319">
-        <v>10035</v>
-      </c>
-    </row>
-    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G320" t="s">
-        <v>482</v>
-      </c>
-      <c r="I320">
-        <v>1004</v>
-      </c>
-      <c r="J320" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G321" t="s">
-        <v>458</v>
-      </c>
-      <c r="I321">
-        <v>10041</v>
-      </c>
-    </row>
-    <row r="322" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G322" t="s">
-        <v>459</v>
-      </c>
-      <c r="I322">
-        <v>10042</v>
-      </c>
-    </row>
-    <row r="323" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G323" t="s">
-        <v>460</v>
-      </c>
-      <c r="I323">
-        <v>10043</v>
-      </c>
-    </row>
-    <row r="324" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G324" t="s">
-        <v>443</v>
-      </c>
-      <c r="I324">
-        <v>10044</v>
-      </c>
-    </row>
-    <row r="325" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G325" t="s">
-        <v>444</v>
-      </c>
-      <c r="I325">
-        <v>10045</v>
-      </c>
-    </row>
-    <row r="326" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G326" t="s">
-        <v>483</v>
-      </c>
-      <c r="I326">
-        <v>1005</v>
-      </c>
-      <c r="J326" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="327" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G327" t="s">
-        <v>461</v>
-      </c>
-      <c r="I327">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="328" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G328" t="s">
-        <v>462</v>
-      </c>
-      <c r="I328">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="329" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G329" t="s">
-        <v>463</v>
-      </c>
-      <c r="I329">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="330" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G330" t="s">
-        <v>445</v>
-      </c>
-      <c r="I330">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="331" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G331" t="s">
-        <v>446</v>
-      </c>
-      <c r="I331">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="332" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G332" t="s">
-        <v>484</v>
-      </c>
-      <c r="I332">
-        <v>1006</v>
-      </c>
-      <c r="J332" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="333" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G333" t="s">
-        <v>464</v>
-      </c>
-      <c r="I333">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="334" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G334" t="s">
-        <v>465</v>
-      </c>
-      <c r="I334">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="335" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G335" t="s">
-        <v>466</v>
-      </c>
-      <c r="I335">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="336" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G336" t="s">
-        <v>447</v>
-      </c>
-      <c r="I336">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G337" t="s">
-        <v>448</v>
-      </c>
-      <c r="I337">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G338" t="s">
-        <v>485</v>
-      </c>
-      <c r="I338">
-        <v>1007</v>
-      </c>
-      <c r="J338" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G339" t="s">
-        <v>467</v>
-      </c>
-      <c r="I339">
-        <v>10071</v>
-      </c>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G340" t="s">
-        <v>468</v>
-      </c>
-      <c r="I340">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G341" t="s">
-        <v>469</v>
-      </c>
-      <c r="I341">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G342" t="s">
-        <v>449</v>
-      </c>
-      <c r="I342">
-        <v>10074</v>
-      </c>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G343" t="s">
-        <v>450</v>
-      </c>
-      <c r="I343">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
+      <c r="D348" t="b">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
         <v>545</v>
       </c>
-      <c r="C346" t="b">
+      <c r="G348" t="s">
+        <v>546</v>
+      </c>
+      <c r="I348">
         <v>0</v>
       </c>
-      <c r="D346" t="b">
-        <v>1</v>
-      </c>
-      <c r="E346" t="s">
-        <v>546</v>
-      </c>
-      <c r="G346" t="s">
+      <c r="J348" t="s">
         <v>547</v>
       </c>
-      <c r="I346">
-        <v>0</v>
-      </c>
-      <c r="J346" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G347" t="s">
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G349" t="s">
+        <v>540</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349" t="s">
         <v>541</v>
       </c>
-      <c r="I347">
-        <v>1</v>
-      </c>
-      <c r="J347" t="s">
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G350" t="s">
+        <v>536</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G351" t="s">
+        <v>537</v>
+      </c>
+      <c r="I351">
+        <v>3</v>
+      </c>
+      <c r="J351" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G352" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G348" t="s">
-        <v>537</v>
-      </c>
-      <c r="I348">
-        <v>2</v>
-      </c>
-      <c r="J348" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G349" t="s">
-        <v>538</v>
-      </c>
-      <c r="I349">
-        <v>3</v>
-      </c>
-      <c r="J349" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G350" t="s">
+      <c r="I352">
+        <v>4</v>
+      </c>
+      <c r="J352" t="s">
         <v>543</v>
-      </c>
-      <c r="I350">
-        <v>4</v>
-      </c>
-      <c r="J350" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C8B230-7AA3-468C-8442-3441691C6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D53A85-AE43-4F6D-8EF7-DBFF4E5032D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="555">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2082,10 @@
   </si>
   <si>
     <t>暂停Buff的相关触发(对非Debuff生效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupSlow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2506,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B187" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+    <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4399,7 +4403,12 @@
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G184" s="6"/>
+      <c r="G184" t="s">
+        <v>554</v>
+      </c>
+      <c r="I184">
+        <v>20</v>
+      </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G185" s="6"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D53A85-AE43-4F6D-8EF7-DBFF4E5032D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880DAB76-B051-470F-9D5E-1804C15C39EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="563">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2086,6 +2086,38 @@
   </si>
   <si>
     <t>BuffTagGroupSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CannotBeTargeted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不作为攻击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraPlayerSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupInvisible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2508,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K352"/>
+  <dimension ref="A1:K357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4411,7 +4443,12 @@
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G185" s="6"/>
+      <c r="G185" t="s">
+        <v>562</v>
+      </c>
+      <c r="I185">
+        <v>21</v>
+      </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G186" s="4"/>
@@ -4606,37 +4643,40 @@
     </row>
     <row r="204" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G204" t="s">
-        <v>233</v>
+        <v>555</v>
       </c>
       <c r="I204">
         <v>17</v>
       </c>
       <c r="J204" t="s">
-        <v>232</v>
+        <v>556</v>
       </c>
     </row>
     <row r="205" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G205" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I205">
         <v>18</v>
       </c>
       <c r="J205" t="s">
-        <v>387</v>
+        <v>232</v>
       </c>
     </row>
     <row r="206" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G206" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="I206">
         <v>19</v>
       </c>
+      <c r="J206" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="207" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G207" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I207">
         <v>20</v>
@@ -4644,7 +4684,7 @@
     </row>
     <row r="208" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G208" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I208">
         <v>21</v>
@@ -4652,546 +4692,551 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I209">
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>104</v>
+      </c>
+      <c r="I210">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
         <v>110</v>
       </c>
-      <c r="C211" t="b">
+      <c r="C212" t="b">
         <v>0</v>
       </c>
-      <c r="D211" t="b">
-        <v>1</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
         <v>111</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
         <v>114</v>
       </c>
-      <c r="I211">
-        <v>1</v>
-      </c>
-      <c r="J211" t="s">
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G212" t="s">
-        <v>115</v>
-      </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G213" t="s">
+        <v>115</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
         <v>245</v>
       </c>
-      <c r="I213">
+      <c r="I214">
         <v>3</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J214" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
         <v>117</v>
       </c>
-      <c r="C215" t="b">
+      <c r="C216" t="b">
         <v>0</v>
       </c>
-      <c r="D215" t="b">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
         <v>118</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G216" t="s">
         <v>119</v>
       </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-      <c r="J215" t="s">
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G216" t="s">
-        <v>120</v>
-      </c>
-      <c r="I216">
-        <v>2</v>
-      </c>
-      <c r="J216" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G217" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G218" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G219" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J219" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G220" t="s">
+        <v>123</v>
+      </c>
+      <c r="I220">
+        <v>5</v>
+      </c>
+      <c r="J220" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
         <v>124</v>
       </c>
-      <c r="I220">
+      <c r="I221">
         <v>6</v>
       </c>
-      <c r="J220" t="s">
+      <c r="J221" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>158</v>
       </c>
-      <c r="C222" t="b">
+      <c r="C223" t="b">
         <v>0</v>
       </c>
-      <c r="D222" t="b">
-        <v>1</v>
-      </c>
-      <c r="E222" t="s">
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
         <v>159</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G223" t="s">
         <v>160</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222" t="s">
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G223" t="s">
-        <v>165</v>
-      </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
-      <c r="J223" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G224" t="s">
+        <v>165</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G225" t="s">
         <v>164</v>
       </c>
-      <c r="I224">
+      <c r="I225">
         <v>3</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J225" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
         <v>501</v>
       </c>
-      <c r="C226" t="b">
+      <c r="C227" t="b">
         <v>0</v>
       </c>
-      <c r="D226" t="b">
-        <v>1</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
         <v>502</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G227" t="s">
         <v>156</v>
       </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="J226" t="s">
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>514</v>
       </c>
-      <c r="C228" t="b">
+      <c r="C229" t="b">
         <v>0</v>
       </c>
-      <c r="D228" t="b">
-        <v>1</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
         <v>515</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G229" t="s">
         <v>516</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" t="s">
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G229" t="s">
-        <v>517</v>
-      </c>
-      <c r="I229">
-        <v>2</v>
-      </c>
-      <c r="J229" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G230" t="s">
+        <v>517</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G231" t="s">
         <v>518</v>
       </c>
-      <c r="I230">
+      <c r="I231">
         <v>3</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J231" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B232" t="s">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>535</v>
       </c>
-      <c r="C232" t="b">
+      <c r="C233" t="b">
         <v>0</v>
       </c>
-      <c r="D232" t="b">
-        <v>1</v>
-      </c>
-      <c r="E232" t="s">
+      <c r="D233" t="b">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
         <v>380</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G233" t="s">
         <v>381</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
-      <c r="J232" t="s">
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G233" t="s">
-        <v>531</v>
-      </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
-      <c r="J233" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G234" t="s">
+        <v>531</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
         <v>532</v>
       </c>
-      <c r="I234">
+      <c r="I235">
         <v>3</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J235" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>183</v>
       </c>
-      <c r="C236" t="b">
+      <c r="C237" t="b">
         <v>0</v>
       </c>
-      <c r="D236" t="b">
-        <v>1</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
         <v>190</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G237" t="s">
         <v>184</v>
       </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G237" t="s">
-        <v>185</v>
-      </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G239" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I239">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G240" t="s">
+        <v>187</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G241" t="s">
         <v>188</v>
       </c>
-      <c r="I240">
+      <c r="I241">
         <v>5</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>189</v>
       </c>
-      <c r="C242" t="b">
+      <c r="C244" t="b">
         <v>0</v>
       </c>
-      <c r="D242" t="b">
-        <v>1</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
         <v>191</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G244" t="s">
         <v>192</v>
       </c>
-      <c r="I242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G243" t="s">
-        <v>193</v>
-      </c>
-      <c r="I243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G244" t="s">
-        <v>194</v>
-      </c>
       <c r="I244">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G245" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I245">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G246" t="s">
+        <v>194</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>195</v>
+      </c>
+      <c r="I247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G248" t="s">
         <v>196</v>
       </c>
-      <c r="I246">
+      <c r="I248">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
         <v>243</v>
       </c>
-      <c r="C248" t="b">
+      <c r="C250" t="b">
         <v>0</v>
       </c>
-      <c r="D248" t="b">
-        <v>1</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
         <v>244</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G250" t="s">
         <v>237</v>
       </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G249" t="s">
-        <v>238</v>
-      </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G250" t="s">
-        <v>239</v>
-      </c>
       <c r="I250">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G251" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G252" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I252">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G253" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I253">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G254" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I254">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G255" t="s">
-        <v>404</v>
+        <v>241</v>
       </c>
       <c r="I255">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G256" t="s">
+        <v>247</v>
+      </c>
+      <c r="I256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
+        <v>404</v>
+      </c>
+      <c r="I257">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
         <v>530</v>
       </c>
-      <c r="I256">
+      <c r="I258">
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G259" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="I259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
         <v>424</v>
       </c>
-      <c r="C258" t="b">
+      <c r="C261" t="b">
         <v>0</v>
       </c>
-      <c r="D258" t="b">
-        <v>1</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
         <v>425</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G261" t="s">
         <v>237</v>
       </c>
-      <c r="I258">
+      <c r="I261">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G259" t="s">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G262" t="s">
         <v>428</v>
       </c>
-      <c r="I259">
-        <v>1</v>
-      </c>
-      <c r="J259" t="s">
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G260" t="s">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
         <v>429</v>
       </c>
-      <c r="I260">
+      <c r="I263">
         <v>2</v>
       </c>
-      <c r="J260" t="s">
+      <c r="J263" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
-        <v>279</v>
-      </c>
-      <c r="C262" t="b">
-        <v>0</v>
-      </c>
-      <c r="D262" t="b">
-        <v>1</v>
-      </c>
-      <c r="E262" t="s">
-        <v>280</v>
-      </c>
-      <c r="G262" t="s">
-        <v>237</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
@@ -5200,325 +5245,311 @@
         <v>1</v>
       </c>
       <c r="E265" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="G265" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="I265">
         <v>0</v>
       </c>
-      <c r="J265" t="s">
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>355</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>356</v>
+      </c>
+      <c r="G268" t="s">
+        <v>311</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G266" t="s">
+    <row r="269" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
         <v>312</v>
       </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
-      <c r="J266" t="s">
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G267" t="s">
-        <v>310</v>
-      </c>
-      <c r="I267">
-        <v>2</v>
-      </c>
-      <c r="J267" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>370</v>
-      </c>
-      <c r="C269" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" t="b">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>366</v>
-      </c>
-      <c r="G269" t="s">
-        <v>367</v>
-      </c>
-      <c r="I269">
-        <v>1</v>
       </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G270" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="I270">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G271" t="s">
-        <v>369</v>
-      </c>
-      <c r="I271">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>370</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>366</v>
+      </c>
+      <c r="G272" t="s">
+        <v>367</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>357</v>
-      </c>
-      <c r="C273" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" t="b">
-        <v>1</v>
-      </c>
-      <c r="E273" t="s">
-        <v>359</v>
-      </c>
       <c r="G273" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="I273">
-        <v>0</v>
-      </c>
-      <c r="J273" t="s">
-        <v>361</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G274" t="s">
+        <v>369</v>
+      </c>
+      <c r="I274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>357</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>359</v>
+      </c>
+      <c r="G276" t="s">
+        <v>278</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G277" t="s">
         <v>364</v>
       </c>
-      <c r="I274">
-        <v>1</v>
-      </c>
-      <c r="J274" t="s">
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G275" t="s">
+    <row r="278" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G278" t="s">
         <v>420</v>
       </c>
-      <c r="I275">
+      <c r="I278">
         <v>2</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J278" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G276" t="s">
-        <v>504</v>
-      </c>
-      <c r="I276">
-        <v>3</v>
-      </c>
-      <c r="J276" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
-        <v>358</v>
-      </c>
-      <c r="C278" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" t="b">
-        <v>0</v>
-      </c>
-      <c r="E278" t="s">
-        <v>360</v>
-      </c>
-      <c r="G278" t="s">
-        <v>237</v>
-      </c>
-      <c r="I278">
-        <v>-1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G279" t="s">
-        <v>419</v>
+        <v>504</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>361</v>
+        <v>503</v>
       </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G280" t="s">
-        <v>417</v>
+        <v>560</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J280" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G281" t="s">
-        <v>362</v>
-      </c>
-      <c r="I281">
-        <v>2</v>
-      </c>
-      <c r="J281" t="s">
-        <v>363</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>358</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>360</v>
+      </c>
       <c r="G282" t="s">
-        <v>371</v>
+        <v>237</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J282" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G283" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G284" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G285" t="s">
-        <v>508</v>
+        <v>362</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>509</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G286" t="s">
+        <v>371</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
-        <v>373</v>
-      </c>
-      <c r="C287" t="b">
+      <c r="G287" t="s">
+        <v>421</v>
+      </c>
+      <c r="I287">
         <v>0</v>
       </c>
-      <c r="D287" t="b">
-        <v>1</v>
-      </c>
-      <c r="E287" t="s">
-        <v>374</v>
-      </c>
-      <c r="G287" t="s">
-        <v>377</v>
-      </c>
-      <c r="I287">
-        <v>1</v>
-      </c>
       <c r="J287" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G288" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G289" t="s">
+        <v>508</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
-        <v>393</v>
-      </c>
-      <c r="C290" t="b">
+      <c r="G290" t="s">
+        <v>558</v>
+      </c>
+      <c r="I290">
         <v>0</v>
       </c>
-      <c r="D290" t="b">
-        <v>1</v>
-      </c>
-      <c r="E290" t="s">
-        <v>394</v>
-      </c>
-      <c r="G290" t="s">
-        <v>398</v>
-      </c>
-      <c r="I290">
-        <v>1</v>
-      </c>
       <c r="J290" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G291" t="s">
-        <v>401</v>
-      </c>
-      <c r="I291">
-        <v>2</v>
-      </c>
-      <c r="J291" t="s">
-        <v>402</v>
+        <v>559</v>
       </c>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>373</v>
+      </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" t="b">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>374</v>
+      </c>
       <c r="G292" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G293" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="I293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C295" t="b">
         <v>0</v>
@@ -5527,511 +5558,567 @@
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="G295" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G296" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>414</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G297" t="s">
+        <v>399</v>
+      </c>
+      <c r="I297">
+        <v>3</v>
+      </c>
+      <c r="J297" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>435</v>
-      </c>
-      <c r="C298" t="b">
+      <c r="G298" t="s">
+        <v>400</v>
+      </c>
+      <c r="I298">
+        <v>4</v>
+      </c>
+      <c r="J298" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>410</v>
+      </c>
+      <c r="C300" t="b">
         <v>0</v>
       </c>
-      <c r="D298" t="b">
-        <v>1</v>
-      </c>
-      <c r="G298" t="s">
-        <v>478</v>
-      </c>
-      <c r="I298">
-        <v>1000</v>
-      </c>
-      <c r="J298" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E299" s="5"/>
-      <c r="G299" t="s">
-        <v>477</v>
-      </c>
-      <c r="I299">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D300" t="b">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>415</v>
+      </c>
       <c r="G300" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="I300">
-        <v>10002</v>
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G301" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="I301">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G302" t="s">
-        <v>436</v>
-      </c>
-      <c r="I302">
-        <v>10004</v>
+        <v>1</v>
+      </c>
+      <c r="J301" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>435</v>
+      </c>
+      <c r="C303" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" t="b">
+        <v>1</v>
+      </c>
       <c r="G303" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="I303">
-        <v>10005</v>
+        <v>1000</v>
+      </c>
+      <c r="J303" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E304" s="5"/>
       <c r="G304" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I304">
-        <v>1001</v>
-      </c>
-      <c r="J304" t="s">
-        <v>470</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="305" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G305" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I305">
-        <v>10011</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="306" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G306" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="I306">
-        <v>10012</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="307" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G307" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="I307">
-        <v>10013</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="308" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G308" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="I308">
-        <v>10014</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="309" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G309" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="I309">
-        <v>10015</v>
+        <v>1001</v>
+      </c>
+      <c r="J309" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="310" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G310" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="I310">
-        <v>1002</v>
-      </c>
-      <c r="J310" t="s">
-        <v>471</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="311" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G311" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="I311">
-        <v>10021</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="312" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G312" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="I312">
-        <v>10022</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="313" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G313" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="I313">
-        <v>10023</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="314" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G314" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="I314">
-        <v>10024</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="315" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G315" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="I315">
-        <v>10025</v>
+        <v>1002</v>
+      </c>
+      <c r="J315" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="316" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G316" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="I316">
-        <v>1003</v>
-      </c>
-      <c r="J316" t="s">
-        <v>472</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="317" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G317" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I317">
-        <v>10031</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="318" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G318" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I318">
-        <v>10032</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="319" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G319" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="I319">
-        <v>10033</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="320" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G320" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I320">
-        <v>10034</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="321" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G321" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="I321">
-        <v>10035</v>
+        <v>1003</v>
+      </c>
+      <c r="J321" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="322" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G322" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="I322">
-        <v>1004</v>
-      </c>
-      <c r="J322" t="s">
-        <v>473</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="323" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G323" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I323">
-        <v>10041</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="324" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G324" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I324">
-        <v>10042</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="325" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G325" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="I325">
-        <v>10043</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="326" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G326" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I326">
-        <v>10044</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="327" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G327" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="I327">
-        <v>10045</v>
+        <v>1004</v>
+      </c>
+      <c r="J327" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="328" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G328" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="I328">
-        <v>1005</v>
-      </c>
-      <c r="J328" t="s">
-        <v>474</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="329" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G329" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I329">
-        <v>10051</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="330" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G330" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I330">
-        <v>10052</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="331" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G331" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="I331">
-        <v>10053</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="332" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G332" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I332">
-        <v>10054</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="333" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G333" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="I333">
-        <v>10055</v>
+        <v>1005</v>
+      </c>
+      <c r="J333" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="334" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G334" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="I334">
-        <v>1006</v>
-      </c>
-      <c r="J334" t="s">
-        <v>475</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="335" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G335" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I335">
-        <v>10061</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="336" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G336" t="s">
+        <v>462</v>
+      </c>
+      <c r="I336">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="337" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G337" t="s">
+        <v>444</v>
+      </c>
+      <c r="I337">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="338" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G338" t="s">
+        <v>445</v>
+      </c>
+      <c r="I338">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="339" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G339" t="s">
+        <v>483</v>
+      </c>
+      <c r="I339">
+        <v>1006</v>
+      </c>
+      <c r="J339" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="340" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G340" t="s">
+        <v>463</v>
+      </c>
+      <c r="I340">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="341" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G341" t="s">
         <v>464</v>
       </c>
-      <c r="I336">
+      <c r="I341">
         <v>10062</v>
       </c>
     </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G337" t="s">
+    <row r="342" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G342" t="s">
         <v>465</v>
       </c>
-      <c r="I337">
+      <c r="I342">
         <v>10063</v>
       </c>
     </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G338" t="s">
+    <row r="343" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G343" t="s">
         <v>446</v>
       </c>
-      <c r="I338">
+      <c r="I343">
         <v>10064</v>
       </c>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G339" t="s">
+    <row r="344" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G344" t="s">
         <v>447</v>
       </c>
-      <c r="I339">
+      <c r="I344">
         <v>10065</v>
       </c>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G340" t="s">
+    <row r="345" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G345" t="s">
         <v>484</v>
       </c>
-      <c r="I340">
+      <c r="I345">
         <v>1007</v>
       </c>
-      <c r="J340" t="s">
+      <c r="J345" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G341" t="s">
+    <row r="346" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G346" t="s">
         <v>466</v>
       </c>
-      <c r="I341">
+      <c r="I346">
         <v>10071</v>
       </c>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G342" t="s">
+    <row r="347" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G347" t="s">
         <v>467</v>
       </c>
-      <c r="I342">
+      <c r="I347">
         <v>10072</v>
       </c>
     </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G343" t="s">
+    <row r="348" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G348" t="s">
         <v>468</v>
       </c>
-      <c r="I343">
+      <c r="I348">
         <v>10073</v>
       </c>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G344" t="s">
+    <row r="349" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G349" t="s">
         <v>448</v>
       </c>
-      <c r="I344">
+      <c r="I349">
         <v>10074</v>
       </c>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G345" t="s">
+    <row r="350" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G350" t="s">
         <v>449</v>
       </c>
-      <c r="I345">
+      <c r="I350">
         <v>10075</v>
       </c>
     </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B348" t="s">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
         <v>544</v>
       </c>
-      <c r="C348" t="b">
+      <c r="C353" t="b">
         <v>0</v>
       </c>
-      <c r="D348" t="b">
-        <v>1</v>
-      </c>
-      <c r="E348" t="s">
+      <c r="D353" t="b">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
         <v>545</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G353" t="s">
         <v>546</v>
       </c>
-      <c r="I348">
+      <c r="I353">
         <v>0</v>
       </c>
-      <c r="J348" t="s">
+      <c r="J353" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G349" t="s">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G354" t="s">
         <v>540</v>
       </c>
-      <c r="I349">
-        <v>1</v>
-      </c>
-      <c r="J349" t="s">
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G350" t="s">
+    <row r="355" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G355" t="s">
         <v>536</v>
       </c>
-      <c r="I350">
+      <c r="I355">
         <v>2</v>
       </c>
-      <c r="J350" t="s">
+      <c r="J355" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G351" t="s">
+    <row r="356" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G356" t="s">
         <v>537</v>
       </c>
-      <c r="I351">
+      <c r="I356">
         <v>3</v>
       </c>
-      <c r="J351" t="s">
+      <c r="J356" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G352" t="s">
+    <row r="357" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G357" t="s">
         <v>542</v>
       </c>
-      <c r="I352">
+      <c r="I357">
         <v>4</v>
       </c>
-      <c r="J352" t="s">
+      <c r="J357" t="s">
         <v>543</v>
       </c>
     </row>
